--- a/originals/Mercury.xlsx
+++ b/originals/Mercury.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faerar\Downloads\Assignment 2\Updated Records 2024-03-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faerar\PycharmProjects\excl-TMZ\originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2785A14-9F34-459C-948F-C7303A587154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4CC66-D8ED-4652-BA34-DA29AEAE5AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$AC$1155</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -653,10 +655,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,7 +689,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -710,44 +712,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -774,14 +776,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -808,6 +828,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,181 +857,177 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC1155"/>
+  <dimension ref="A1:AC1156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1157" sqref="A1157:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1140,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>45015.52952546296</v>
+        <v>45015.529525462996</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -1175,7 +1209,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="1">
-        <v>45015.531921296293</v>
+        <v>45015.5319212963</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -1210,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="1">
-        <v>45015.532546296286</v>
+        <v>45015.532546296301</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -1245,7 +1279,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>45015.533206018517</v>
+        <v>45015.533206018503</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -1295,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>45015.544895833344</v>
+        <v>45015.5448958333</v>
       </c>
       <c r="C7">
         <v>7259</v>
@@ -1345,7 +1379,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>45015.557268518518</v>
+        <v>45015.557268518503</v>
       </c>
       <c r="C8">
         <v>188</v>
@@ -1434,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="1">
-        <v>45015.561724537038</v>
+        <v>45015.561724537001</v>
       </c>
       <c r="C9">
         <v>229</v>
@@ -1523,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="1">
-        <v>45015.572638888887</v>
+        <v>45015.572638888902</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1558,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>45015.574988425928</v>
+        <v>45015.574988425898</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1593,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="1">
-        <v>45015.575740740736</v>
+        <v>45015.5757407407</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1628,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>45015.576469907413</v>
+        <v>45015.576469907399</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1663,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>45015.576851851853</v>
+        <v>45015.576851851903</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1698,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>45015.577245370368</v>
+        <v>45015.577245370398</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1733,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="1">
-        <v>45015.623518518521</v>
+        <v>45015.6235185185</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1768,7 +1802,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="1">
-        <v>45015.637291666673</v>
+        <v>45015.637291666702</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -1824,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1">
-        <v>45015.654282407413</v>
+        <v>45015.654282407399</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -1880,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>45015.655243055553</v>
+        <v>45015.655243055597</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -1936,7 +1970,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1">
-        <v>45015.65552083333</v>
+        <v>45015.655520833301</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -2048,7 +2082,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="1">
-        <v>45015.656678240739</v>
+        <v>45015.656678240703</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -2104,7 +2138,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>45015.657060185193</v>
+        <v>45015.6570601852</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -2160,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1">
-        <v>45015.657650462963</v>
+        <v>45015.657650462999</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -2216,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1">
-        <v>45015.657870370371</v>
+        <v>45015.6578703704</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -2328,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>45015.65861111111</v>
+        <v>45015.658611111103</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -2384,7 +2418,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>45015.65892361111</v>
+        <v>45015.658923611103</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2496,7 +2530,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="1">
-        <v>45015.66002314815</v>
+        <v>45015.660023148201</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -2608,7 +2642,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>45015.66064814815</v>
+        <v>45015.660648148201</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
@@ -2720,7 +2754,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>45015.661215277767</v>
+        <v>45015.661215277803</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -2865,7 +2899,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>45015.679837962962</v>
+        <v>45015.679837962998</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -2921,7 +2955,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>45015.682083333333</v>
+        <v>45015.682083333297</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
@@ -2977,7 +3011,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>45015.68236111111</v>
+        <v>45015.682361111103</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
@@ -3033,7 +3067,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>45015.68246527778</v>
+        <v>45015.682465277801</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
@@ -3145,7 +3179,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1">
-        <v>45015.683032407411</v>
+        <v>45015.683032407404</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
@@ -3201,7 +3235,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>45015.683553240742</v>
+        <v>45015.683553240699</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -3313,7 +3347,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="1">
-        <v>45015.684652777767</v>
+        <v>45015.684652777803</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
@@ -3369,7 +3403,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="1">
-        <v>45015.68513888889</v>
+        <v>45015.685138888897</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -3425,7 +3459,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="1">
-        <v>45015.689282407409</v>
+        <v>45015.689282407402</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -3475,7 +3509,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="1">
-        <v>45015.691307870373</v>
+        <v>45015.691307870402</v>
       </c>
       <c r="C47">
         <v>413</v>
@@ -3525,7 +3559,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="1">
-        <v>45015.698912037027</v>
+        <v>45015.698912036998</v>
       </c>
       <c r="C48">
         <v>28</v>
@@ -3575,7 +3609,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="1">
-        <v>45015.700555555559</v>
+        <v>45015.700555555602</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
@@ -3631,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="1">
-        <v>45015.710972222223</v>
+        <v>45015.710972222201</v>
       </c>
       <c r="C50">
         <v>1268</v>
@@ -3681,7 +3715,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="1">
-        <v>45015.714178240742</v>
+        <v>45015.714178240698</v>
       </c>
       <c r="D51" t="s">
         <v>30</v>
@@ -3737,7 +3771,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="1">
-        <v>45015.714895833327</v>
+        <v>45015.714895833298</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3807,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B54" s="1">
-        <v>45015.717199074083</v>
+        <v>45015.717199074097</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3842,7 +3876,7 @@
         <v>36</v>
       </c>
       <c r="B55" s="1">
-        <v>45015.71733796296</v>
+        <v>45015.717337962997</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3877,7 +3911,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="1">
-        <v>45015.717662037037</v>
+        <v>45015.717662037001</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3912,7 +3946,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="1">
-        <v>45015.718310185177</v>
+        <v>45015.718310185199</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -3947,7 +3981,7 @@
         <v>36</v>
       </c>
       <c r="B58" s="1">
-        <v>45015.718680555547</v>
+        <v>45015.718680555598</v>
       </c>
       <c r="D58" t="s">
         <v>49</v>
@@ -4003,7 +4037,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="1">
-        <v>45015.718946759262</v>
+        <v>45015.718946759298</v>
       </c>
       <c r="D59" t="s">
         <v>30</v>
@@ -4108,7 +4142,7 @@
         <v>36</v>
       </c>
       <c r="B62" s="1">
-        <v>45015.720208333332</v>
+        <v>45015.720208333303</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
@@ -4143,7 +4177,7 @@
         <v>36</v>
       </c>
       <c r="B63" s="1">
-        <v>45015.72079861111</v>
+        <v>45015.720798611103</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -4199,7 +4233,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="1">
-        <v>45015.720995370371</v>
+        <v>45015.7209953704</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
@@ -4255,7 +4289,7 @@
         <v>36</v>
       </c>
       <c r="B65" s="1">
-        <v>45015.72146990741</v>
+        <v>45015.721469907403</v>
       </c>
       <c r="D65" t="s">
         <v>49</v>
@@ -4367,7 +4401,7 @@
         <v>36</v>
       </c>
       <c r="B67" s="1">
-        <v>45015.722743055558</v>
+        <v>45015.722743055601</v>
       </c>
       <c r="D67" t="s">
         <v>30</v>
@@ -4479,7 +4513,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="1">
-        <v>45015.723935185182</v>
+        <v>45015.723935185197</v>
       </c>
       <c r="D69" t="s">
         <v>30</v>
@@ -4535,7 +4569,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="1">
-        <v>45015.724444444437</v>
+        <v>45015.7244444444</v>
       </c>
       <c r="D70" t="s">
         <v>49</v>
@@ -4591,7 +4625,7 @@
         <v>36</v>
       </c>
       <c r="B71" s="1">
-        <v>45015.724803240737</v>
+        <v>45015.724803240701</v>
       </c>
       <c r="D71" t="s">
         <v>30</v>
@@ -4647,7 +4681,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="1">
-        <v>45015.725601851853</v>
+        <v>45015.725601851896</v>
       </c>
       <c r="D72" t="s">
         <v>49</v>
@@ -4703,7 +4737,7 @@
         <v>29</v>
       </c>
       <c r="B73" s="1">
-        <v>45015.741168981483</v>
+        <v>45015.741168981498</v>
       </c>
       <c r="C73">
         <v>14</v>
@@ -4753,7 +4787,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="1">
-        <v>45015.741863425923</v>
+        <v>45015.741863425901</v>
       </c>
       <c r="C74">
         <v>34</v>
@@ -4806,7 +4840,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="1">
-        <v>45015.742546296293</v>
+        <v>45015.7425462963</v>
       </c>
       <c r="C75">
         <v>11</v>
@@ -4856,7 +4890,7 @@
         <v>36</v>
       </c>
       <c r="B76" s="1">
-        <v>45015.742662037039</v>
+        <v>45015.742662037002</v>
       </c>
       <c r="D76" t="s">
         <v>30</v>
@@ -4912,7 +4946,7 @@
         <v>36</v>
       </c>
       <c r="B77" s="1">
-        <v>45015.743923611109</v>
+        <v>45015.743923611102</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
@@ -4968,7 +5002,7 @@
         <v>36</v>
       </c>
       <c r="B78" s="1">
-        <v>45015.744398148148</v>
+        <v>45015.744398148199</v>
       </c>
       <c r="D78" t="s">
         <v>30</v>
@@ -5024,7 +5058,7 @@
         <v>36</v>
       </c>
       <c r="B79" s="1">
-        <v>45015.744745370372</v>
+        <v>45015.744745370401</v>
       </c>
       <c r="D79" t="s">
         <v>30</v>
@@ -5080,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="B80" s="1">
-        <v>45015.745439814818</v>
+        <v>45015.745439814797</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
@@ -5136,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="B81" s="1">
-        <v>45015.745659722219</v>
+        <v>45015.745659722197</v>
       </c>
       <c r="D81" t="s">
         <v>30</v>
@@ -5248,7 +5282,7 @@
         <v>36</v>
       </c>
       <c r="B83" s="1">
-        <v>45015.746331018519</v>
+        <v>45015.746331018498</v>
       </c>
       <c r="D83" t="s">
         <v>30</v>
@@ -5304,7 +5338,7 @@
         <v>29</v>
       </c>
       <c r="B84" s="1">
-        <v>45015.746365740742</v>
+        <v>45015.746365740699</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5354,7 +5388,7 @@
         <v>36</v>
       </c>
       <c r="B85" s="1">
-        <v>45015.746631944443</v>
+        <v>45015.746631944399</v>
       </c>
       <c r="D85" t="s">
         <v>30</v>
@@ -5410,7 +5444,7 @@
         <v>36</v>
       </c>
       <c r="B86" s="1">
-        <v>45015.747465277767</v>
+        <v>45015.747465277796</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
@@ -5466,7 +5500,7 @@
         <v>36</v>
       </c>
       <c r="B87" s="1">
-        <v>45015.747939814813</v>
+        <v>45015.747939814799</v>
       </c>
       <c r="D87" t="s">
         <v>39</v>
@@ -5522,7 +5556,7 @@
         <v>36</v>
       </c>
       <c r="B88" s="1">
-        <v>45015.748449074083</v>
+        <v>45015.748449074097</v>
       </c>
       <c r="D88" t="s">
         <v>30</v>
@@ -5578,7 +5612,7 @@
         <v>36</v>
       </c>
       <c r="B89" s="1">
-        <v>45015.748680555553</v>
+        <v>45015.748680555596</v>
       </c>
       <c r="D89" t="s">
         <v>30</v>
@@ -5690,7 +5724,7 @@
         <v>36</v>
       </c>
       <c r="B91" s="1">
-        <v>45015.749826388892</v>
+        <v>45015.749826388899</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
@@ -5746,7 +5780,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="1">
-        <v>45015.754502314812</v>
+        <v>45015.754502314798</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -5796,7 +5830,7 @@
         <v>29</v>
       </c>
       <c r="B93" s="1">
-        <v>45015.756678240738</v>
+        <v>45015.756678240701</v>
       </c>
       <c r="C93">
         <v>238</v>
@@ -5846,7 +5880,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="1">
-        <v>45015.761747685188</v>
+        <v>45015.761747685203</v>
       </c>
       <c r="D94" t="s">
         <v>45</v>
@@ -5881,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="B95" s="1">
-        <v>45015.763194444437</v>
+        <v>45015.7631944444</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -5934,7 +5968,7 @@
         <v>29</v>
       </c>
       <c r="B96" s="1">
-        <v>45015.771099537043</v>
+        <v>45015.771099537</v>
       </c>
       <c r="C96">
         <v>60</v>
@@ -5984,7 +6018,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="1">
-        <v>45015.773159722223</v>
+        <v>45015.773159722201</v>
       </c>
       <c r="C97">
         <v>416</v>
@@ -6073,7 +6107,7 @@
         <v>36</v>
       </c>
       <c r="B98" s="1">
-        <v>45015.776307870372</v>
+        <v>45015.776307870401</v>
       </c>
       <c r="D98" t="s">
         <v>39</v>
@@ -6129,7 +6163,7 @@
         <v>36</v>
       </c>
       <c r="B99" s="1">
-        <v>45015.779965277783</v>
+        <v>45015.779965277798</v>
       </c>
       <c r="D99" t="s">
         <v>30</v>
@@ -6164,7 +6198,7 @@
         <v>29</v>
       </c>
       <c r="B100" s="1">
-        <v>45015.781111111108</v>
+        <v>45015.7811111111</v>
       </c>
       <c r="C100">
         <v>491</v>
@@ -6314,7 +6348,7 @@
         <v>29</v>
       </c>
       <c r="B103" s="1">
-        <v>45015.806076388893</v>
+        <v>45015.806076388901</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -6364,7 +6398,7 @@
         <v>36</v>
       </c>
       <c r="B104" s="1">
-        <v>45015.806261574071</v>
+        <v>45015.8062615741</v>
       </c>
       <c r="D104" t="s">
         <v>45</v>
@@ -6399,7 +6433,7 @@
         <v>36</v>
       </c>
       <c r="B105" s="1">
-        <v>45015.80740740741</v>
+        <v>45015.807407407403</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
@@ -6434,7 +6468,7 @@
         <v>36</v>
       </c>
       <c r="B106" s="1">
-        <v>45015.807638888888</v>
+        <v>45015.807638888902</v>
       </c>
       <c r="D106" t="s">
         <v>30</v>
@@ -6504,7 +6538,7 @@
         <v>36</v>
       </c>
       <c r="B108" s="1">
-        <v>45015.808958333328</v>
+        <v>45015.808958333299</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -6539,7 +6573,7 @@
         <v>36</v>
       </c>
       <c r="B109" s="1">
-        <v>45015.809386574067</v>
+        <v>45015.809386574103</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -6574,7 +6608,7 @@
         <v>36</v>
       </c>
       <c r="B110" s="1">
-        <v>45015.810254629629</v>
+        <v>45015.8102546296</v>
       </c>
       <c r="D110" t="s">
         <v>30</v>
@@ -6609,7 +6643,7 @@
         <v>36</v>
       </c>
       <c r="B111" s="1">
-        <v>45015.811076388891</v>
+        <v>45015.811076388898</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -6644,7 +6678,7 @@
         <v>36</v>
       </c>
       <c r="B112" s="1">
-        <v>45015.811956018522</v>
+        <v>45015.8119560185</v>
       </c>
       <c r="D112" t="s">
         <v>30</v>
@@ -6679,7 +6713,7 @@
         <v>36</v>
       </c>
       <c r="B113" s="1">
-        <v>45015.812488425923</v>
+        <v>45015.812488425901</v>
       </c>
       <c r="D113" t="s">
         <v>45</v>
@@ -6714,7 +6748,7 @@
         <v>36</v>
       </c>
       <c r="B114" s="1">
-        <v>45015.81354166667</v>
+        <v>45015.813541666699</v>
       </c>
       <c r="D114" t="s">
         <v>37</v>
@@ -6749,7 +6783,7 @@
         <v>29</v>
       </c>
       <c r="B115" s="1">
-        <v>45015.815949074073</v>
+        <v>45015.815949074102</v>
       </c>
       <c r="C115">
         <v>404</v>
@@ -6799,7 +6833,7 @@
         <v>29</v>
       </c>
       <c r="B116" s="1">
-        <v>45015.825462962966</v>
+        <v>45015.825462963003</v>
       </c>
       <c r="C116">
         <v>16200</v>
@@ -6849,7 +6883,7 @@
         <v>38</v>
       </c>
       <c r="B117" s="1">
-        <v>45015.830972222233</v>
+        <v>45015.830972222197</v>
       </c>
       <c r="C117">
         <v>296</v>
@@ -6902,7 +6936,7 @@
         <v>36</v>
       </c>
       <c r="B118" s="1">
-        <v>45015.842569444438</v>
+        <v>45015.842569444401</v>
       </c>
       <c r="D118" t="s">
         <v>39</v>
@@ -6958,7 +6992,7 @@
         <v>38</v>
       </c>
       <c r="B119" s="1">
-        <v>45015.845567129632</v>
+        <v>45015.845567129603</v>
       </c>
       <c r="C119">
         <v>459</v>
@@ -7011,7 +7045,7 @@
         <v>36</v>
       </c>
       <c r="B120" s="1">
-        <v>45015.855509259258</v>
+        <v>45015.855509259301</v>
       </c>
       <c r="D120" t="s">
         <v>37</v>
@@ -7046,7 +7080,7 @@
         <v>36</v>
       </c>
       <c r="B121" s="1">
-        <v>45015.860694444447</v>
+        <v>45015.860694444498</v>
       </c>
       <c r="D121" t="s">
         <v>63</v>
@@ -7081,7 +7115,7 @@
         <v>38</v>
       </c>
       <c r="B122" s="1">
-        <v>45015.862835648149</v>
+        <v>45015.8628356482</v>
       </c>
       <c r="C122">
         <v>15</v>
@@ -7134,7 +7168,7 @@
         <v>29</v>
       </c>
       <c r="B123" s="1">
-        <v>45016.098298611112</v>
+        <v>45016.098298611098</v>
       </c>
       <c r="C123">
         <v>3223</v>
@@ -7184,7 +7218,7 @@
         <v>29</v>
       </c>
       <c r="B124" s="1">
-        <v>45016.167442129627</v>
+        <v>45016.167442129597</v>
       </c>
       <c r="C124">
         <v>527</v>
@@ -7234,7 +7268,7 @@
         <v>29</v>
       </c>
       <c r="B125" s="1">
-        <v>45016.188136574077</v>
+        <v>45016.188136574099</v>
       </c>
       <c r="C125">
         <v>6</v>
@@ -7284,7 +7318,7 @@
         <v>38</v>
       </c>
       <c r="B126" s="1">
-        <v>45016.192175925928</v>
+        <v>45016.192175925898</v>
       </c>
       <c r="C126">
         <v>207</v>
@@ -7337,7 +7371,7 @@
         <v>36</v>
       </c>
       <c r="B127" s="1">
-        <v>45016.193159722221</v>
+        <v>45016.193159722199</v>
       </c>
       <c r="D127" t="s">
         <v>30</v>
@@ -7372,7 +7406,7 @@
         <v>29</v>
       </c>
       <c r="B128" s="1">
-        <v>45016.194675925923</v>
+        <v>45016.194675925901</v>
       </c>
       <c r="C128">
         <v>375</v>
@@ -7422,7 +7456,7 @@
         <v>38</v>
       </c>
       <c r="B129" s="1">
-        <v>45016.195821759262</v>
+        <v>45016.195821759298</v>
       </c>
       <c r="C129">
         <v>531</v>
@@ -7475,7 +7509,7 @@
         <v>36</v>
       </c>
       <c r="B130" s="1">
-        <v>45016.20040509259</v>
+        <v>45016.200405092597</v>
       </c>
       <c r="D130" t="s">
         <v>65</v>
@@ -7510,7 +7544,7 @@
         <v>36</v>
       </c>
       <c r="B131" s="1">
-        <v>45016.202638888892</v>
+        <v>45016.202638888899</v>
       </c>
       <c r="D131" t="s">
         <v>30</v>
@@ -7545,7 +7579,7 @@
         <v>36</v>
       </c>
       <c r="B132" s="1">
-        <v>45016.203113425923</v>
+        <v>45016.203113425901</v>
       </c>
       <c r="D132" t="s">
         <v>65</v>
@@ -7580,7 +7614,7 @@
         <v>36</v>
       </c>
       <c r="B133" s="1">
-        <v>45016.203553240739</v>
+        <v>45016.203553240703</v>
       </c>
       <c r="D133" t="s">
         <v>65</v>
@@ -7615,7 +7649,7 @@
         <v>36</v>
       </c>
       <c r="B134" s="1">
-        <v>45016.203958333332</v>
+        <v>45016.203958333303</v>
       </c>
       <c r="D134" t="s">
         <v>30</v>
@@ -7650,7 +7684,7 @@
         <v>36</v>
       </c>
       <c r="B135" s="1">
-        <v>45016.204224537039</v>
+        <v>45016.204224537003</v>
       </c>
       <c r="D135" t="s">
         <v>65</v>
@@ -7685,7 +7719,7 @@
         <v>36</v>
       </c>
       <c r="B136" s="1">
-        <v>45016.204456018517</v>
+        <v>45016.204456018502</v>
       </c>
       <c r="D136" t="s">
         <v>30</v>
@@ -7720,7 +7754,7 @@
         <v>36</v>
       </c>
       <c r="B137" s="1">
-        <v>45016.205231481479</v>
+        <v>45016.205231481501</v>
       </c>
       <c r="D137" t="s">
         <v>65</v>
@@ -7755,7 +7789,7 @@
         <v>36</v>
       </c>
       <c r="B138" s="1">
-        <v>45016.206145833326</v>
+        <v>45016.206145833297</v>
       </c>
       <c r="D138" t="s">
         <v>30</v>
@@ -7790,7 +7824,7 @@
         <v>29</v>
       </c>
       <c r="B139" s="1">
-        <v>45016.211550925917</v>
+        <v>45016.211550925902</v>
       </c>
       <c r="C139">
         <v>3890</v>
@@ -7875,7 +7909,7 @@
         <v>36</v>
       </c>
       <c r="B141" s="1">
-        <v>45016.263414351852</v>
+        <v>45016.263414351903</v>
       </c>
       <c r="D141" t="s">
         <v>30</v>
@@ -7910,7 +7944,7 @@
         <v>29</v>
       </c>
       <c r="B142" s="1">
-        <v>45016.294629629629</v>
+        <v>45016.2946296296</v>
       </c>
       <c r="C142">
         <v>7424</v>
@@ -7960,7 +7994,7 @@
         <v>36</v>
       </c>
       <c r="B143" s="1">
-        <v>45016.303981481477</v>
+        <v>45016.303981481498</v>
       </c>
       <c r="D143" t="s">
         <v>30</v>
@@ -8072,7 +8106,7 @@
         <v>36</v>
       </c>
       <c r="B145" s="1">
-        <v>45016.306331018517</v>
+        <v>45016.306331018503</v>
       </c>
       <c r="D145" t="s">
         <v>30</v>
@@ -8184,7 +8218,7 @@
         <v>36</v>
       </c>
       <c r="B147" s="1">
-        <v>45016.307430555556</v>
+        <v>45016.3074305556</v>
       </c>
       <c r="D147" t="s">
         <v>30</v>
@@ -8240,7 +8274,7 @@
         <v>36</v>
       </c>
       <c r="B148" s="1">
-        <v>45016.308067129627</v>
+        <v>45016.308067129597</v>
       </c>
       <c r="D148" t="s">
         <v>39</v>
@@ -8296,7 +8330,7 @@
         <v>36</v>
       </c>
       <c r="B149" s="1">
-        <v>45016.308506944442</v>
+        <v>45016.308506944399</v>
       </c>
       <c r="D149" t="s">
         <v>30</v>
@@ -8352,7 +8386,7 @@
         <v>36</v>
       </c>
       <c r="B150" s="1">
-        <v>45016.308935185189</v>
+        <v>45016.308935185203</v>
       </c>
       <c r="D150" t="s">
         <v>30</v>
@@ -8464,7 +8498,7 @@
         <v>36</v>
       </c>
       <c r="B152" s="1">
-        <v>45016.310254629629</v>
+        <v>45016.3102546296</v>
       </c>
       <c r="D152" t="s">
         <v>39</v>
@@ -8520,7 +8554,7 @@
         <v>36</v>
       </c>
       <c r="B153" s="1">
-        <v>45016.311157407406</v>
+        <v>45016.311157407399</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
@@ -8576,7 +8610,7 @@
         <v>38</v>
       </c>
       <c r="B154" s="1">
-        <v>45016.325011574067</v>
+        <v>45016.325011574103</v>
       </c>
       <c r="C154">
         <v>240</v>
@@ -8665,7 +8699,7 @@
         <v>36</v>
       </c>
       <c r="B155" s="1">
-        <v>45016.336898148147</v>
+        <v>45016.336898148198</v>
       </c>
       <c r="D155" t="s">
         <v>65</v>
@@ -8700,7 +8734,7 @@
         <v>36</v>
       </c>
       <c r="B156" s="1">
-        <v>45016.338865740741</v>
+        <v>45016.338865740698</v>
       </c>
       <c r="D156" t="s">
         <v>65</v>
@@ -8735,7 +8769,7 @@
         <v>36</v>
       </c>
       <c r="B157" s="1">
-        <v>45016.339097222219</v>
+        <v>45016.339097222197</v>
       </c>
       <c r="D157" t="s">
         <v>65</v>
@@ -8770,7 +8804,7 @@
         <v>36</v>
       </c>
       <c r="B158" s="1">
-        <v>45016.339317129627</v>
+        <v>45016.339317129597</v>
       </c>
       <c r="D158" t="s">
         <v>30</v>
@@ -8805,7 +8839,7 @@
         <v>36</v>
       </c>
       <c r="B159" s="1">
-        <v>45016.339756944442</v>
+        <v>45016.339756944399</v>
       </c>
       <c r="D159" t="s">
         <v>30</v>
@@ -8840,7 +8874,7 @@
         <v>36</v>
       </c>
       <c r="B160" s="1">
-        <v>45016.339942129627</v>
+        <v>45016.339942129598</v>
       </c>
       <c r="D160" t="s">
         <v>30</v>
@@ -8910,7 +8944,7 @@
         <v>36</v>
       </c>
       <c r="B162" s="1">
-        <v>45016.340601851851</v>
+        <v>45016.340601851902</v>
       </c>
       <c r="D162" t="s">
         <v>65</v>
@@ -8945,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="B163" s="1">
-        <v>45016.340729166674</v>
+        <v>45016.340729166703</v>
       </c>
       <c r="D163" t="s">
         <v>65</v>
@@ -8980,7 +9014,7 @@
         <v>36</v>
       </c>
       <c r="B164" s="1">
-        <v>45016.340914351851</v>
+        <v>45016.340914351902</v>
       </c>
       <c r="D164" t="s">
         <v>30</v>
@@ -9015,7 +9049,7 @@
         <v>36</v>
       </c>
       <c r="B165" s="1">
-        <v>45016.34171296296</v>
+        <v>45016.341712963003</v>
       </c>
       <c r="D165" t="s">
         <v>30</v>
@@ -9050,7 +9084,7 @@
         <v>36</v>
       </c>
       <c r="B166" s="1">
-        <v>45016.34233796296</v>
+        <v>45016.342337962997</v>
       </c>
       <c r="D166" t="s">
         <v>30</v>
@@ -9085,7 +9119,7 @@
         <v>36</v>
       </c>
       <c r="B167" s="1">
-        <v>45016.344722222217</v>
+        <v>45016.344722222202</v>
       </c>
       <c r="D167" t="s">
         <v>65</v>
@@ -9120,7 +9154,7 @@
         <v>36</v>
       </c>
       <c r="B168" s="1">
-        <v>45016.344895833332</v>
+        <v>45016.344895833303</v>
       </c>
       <c r="D168" t="s">
         <v>65</v>
@@ -9155,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="B169" s="1">
-        <v>45016.345358796287</v>
+        <v>45016.345358796301</v>
       </c>
       <c r="D169" t="s">
         <v>30</v>
@@ -9190,7 +9224,7 @@
         <v>36</v>
       </c>
       <c r="B170" s="1">
-        <v>45016.346099537041</v>
+        <v>45016.346099536997</v>
       </c>
       <c r="D170" t="s">
         <v>30</v>
@@ -9225,7 +9259,7 @@
         <v>36</v>
       </c>
       <c r="B171" s="1">
-        <v>45016.346805555557</v>
+        <v>45016.3468055556</v>
       </c>
       <c r="D171" t="s">
         <v>30</v>
@@ -9260,7 +9294,7 @@
         <v>36</v>
       </c>
       <c r="B172" s="1">
-        <v>45016.347268518519</v>
+        <v>45016.347268518497</v>
       </c>
       <c r="D172" t="s">
         <v>65</v>
@@ -9295,7 +9329,7 @@
         <v>36</v>
       </c>
       <c r="B173" s="1">
-        <v>45016.347569444442</v>
+        <v>45016.347569444399</v>
       </c>
       <c r="D173" t="s">
         <v>65</v>
@@ -9330,7 +9364,7 @@
         <v>36</v>
       </c>
       <c r="B174" s="1">
-        <v>45016.348356481481</v>
+        <v>45016.348356481503</v>
       </c>
       <c r="D174" t="s">
         <v>30</v>
@@ -9365,7 +9399,7 @@
         <v>36</v>
       </c>
       <c r="B175" s="1">
-        <v>45016.348576388889</v>
+        <v>45016.348576388897</v>
       </c>
       <c r="D175" t="s">
         <v>65</v>
@@ -9400,7 +9434,7 @@
         <v>36</v>
       </c>
       <c r="B176" s="1">
-        <v>45016.34915509259</v>
+        <v>45016.349155092597</v>
       </c>
       <c r="D176" t="s">
         <v>65</v>
@@ -9435,7 +9469,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="1">
-        <v>45016.349826388891</v>
+        <v>45016.349826388898</v>
       </c>
       <c r="D177" t="s">
         <v>30</v>
@@ -9470,7 +9504,7 @@
         <v>36</v>
       </c>
       <c r="B178" s="1">
-        <v>45016.371620370373</v>
+        <v>45016.371620370403</v>
       </c>
       <c r="D178" t="s">
         <v>30</v>
@@ -9526,7 +9560,7 @@
         <v>36</v>
       </c>
       <c r="B179" s="1">
-        <v>45016.377349537041</v>
+        <v>45016.377349536997</v>
       </c>
       <c r="D179" t="s">
         <v>65</v>
@@ -9561,7 +9595,7 @@
         <v>36</v>
       </c>
       <c r="B180" s="1">
-        <v>45016.378506944442</v>
+        <v>45016.378506944398</v>
       </c>
       <c r="D180" t="s">
         <v>65</v>
@@ -9596,7 +9630,7 @@
         <v>36</v>
       </c>
       <c r="B181" s="1">
-        <v>45016.379224537042</v>
+        <v>45016.379224536999</v>
       </c>
       <c r="D181" t="s">
         <v>30</v>
@@ -9631,7 +9665,7 @@
         <v>36</v>
       </c>
       <c r="B182" s="1">
-        <v>45016.379918981482</v>
+        <v>45016.379918981504</v>
       </c>
       <c r="D182" t="s">
         <v>65</v>
@@ -9666,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B183" s="1">
-        <v>45016.380289351851</v>
+        <v>45016.380289351902</v>
       </c>
       <c r="D183" t="s">
         <v>30</v>
@@ -9701,7 +9735,7 @@
         <v>36</v>
       </c>
       <c r="B184" s="1">
-        <v>45016.380381944437</v>
+        <v>45016.3803819444</v>
       </c>
       <c r="D184" t="s">
         <v>30</v>
@@ -9806,7 +9840,7 @@
         <v>36</v>
       </c>
       <c r="B187" s="1">
-        <v>45016.381423611107</v>
+        <v>45016.381423611099</v>
       </c>
       <c r="D187" t="s">
         <v>30</v>
@@ -9841,7 +9875,7 @@
         <v>36</v>
       </c>
       <c r="B188" s="1">
-        <v>45016.397083333337</v>
+        <v>45016.397083333301</v>
       </c>
       <c r="D188" t="s">
         <v>30</v>
@@ -9876,7 +9910,7 @@
         <v>38</v>
       </c>
       <c r="B189" s="1">
-        <v>45016.407071759262</v>
+        <v>45016.407071759299</v>
       </c>
       <c r="C189">
         <v>7</v>
@@ -9929,7 +9963,7 @@
         <v>38</v>
       </c>
       <c r="B190" s="1">
-        <v>45016.411932870367</v>
+        <v>45016.411932870396</v>
       </c>
       <c r="C190">
         <v>549</v>
@@ -9982,7 +10016,7 @@
         <v>36</v>
       </c>
       <c r="B191" s="1">
-        <v>45016.41574074074</v>
+        <v>45016.415740740696</v>
       </c>
       <c r="D191" t="s">
         <v>30</v>
@@ -10017,7 +10051,7 @@
         <v>36</v>
       </c>
       <c r="B192" s="1">
-        <v>45016.421979166669</v>
+        <v>45016.421979166698</v>
       </c>
       <c r="D192" t="s">
         <v>30</v>
@@ -10052,7 +10086,7 @@
         <v>38</v>
       </c>
       <c r="B193" s="1">
-        <v>45016.424479166657</v>
+        <v>45016.424479166701</v>
       </c>
       <c r="C193">
         <v>149</v>
@@ -10105,7 +10139,7 @@
         <v>38</v>
       </c>
       <c r="B194" s="1">
-        <v>45016.428032407413</v>
+        <v>45016.428032407399</v>
       </c>
       <c r="C194">
         <v>19</v>
@@ -10158,7 +10192,7 @@
         <v>38</v>
       </c>
       <c r="B195" s="1">
-        <v>45016.438587962963</v>
+        <v>45016.438587962999</v>
       </c>
       <c r="C195">
         <v>513</v>
@@ -10211,7 +10245,7 @@
         <v>36</v>
       </c>
       <c r="B196" s="1">
-        <v>45016.440879629627</v>
+        <v>45016.440879629597</v>
       </c>
       <c r="D196" t="s">
         <v>30</v>
@@ -10246,7 +10280,7 @@
         <v>36</v>
       </c>
       <c r="B197" s="1">
-        <v>45016.448495370372</v>
+        <v>45016.448495370401</v>
       </c>
       <c r="D197" t="s">
         <v>30</v>
@@ -10281,7 +10315,7 @@
         <v>29</v>
       </c>
       <c r="B198" s="1">
-        <v>45016.461458333331</v>
+        <v>45016.461458333302</v>
       </c>
       <c r="C198">
         <v>45</v>
@@ -10331,7 +10365,7 @@
         <v>38</v>
       </c>
       <c r="B199" s="1">
-        <v>45016.463333333333</v>
+        <v>45016.463333333297</v>
       </c>
       <c r="C199">
         <v>311</v>
@@ -10384,7 +10418,7 @@
         <v>29</v>
       </c>
       <c r="B200" s="1">
-        <v>45016.464363425926</v>
+        <v>45016.464363425897</v>
       </c>
       <c r="C200">
         <v>160</v>
@@ -10434,7 +10468,7 @@
         <v>38</v>
       </c>
       <c r="B201" s="1">
-        <v>45016.466226851851</v>
+        <v>45016.466226851902</v>
       </c>
       <c r="C201">
         <v>417</v>
@@ -10487,7 +10521,7 @@
         <v>29</v>
       </c>
       <c r="B202" s="1">
-        <v>45016.474178240736</v>
+        <v>45016.4741782407</v>
       </c>
       <c r="C202">
         <v>47</v>
@@ -10537,7 +10571,7 @@
         <v>36</v>
       </c>
       <c r="B203" s="1">
-        <v>45016.476979166669</v>
+        <v>45016.476979166699</v>
       </c>
       <c r="D203" t="s">
         <v>63</v>
@@ -10572,7 +10606,7 @@
         <v>29</v>
       </c>
       <c r="B204" s="1">
-        <v>45016.485474537039</v>
+        <v>45016.485474537003</v>
       </c>
       <c r="C204">
         <v>296</v>
@@ -10622,7 +10656,7 @@
         <v>36</v>
       </c>
       <c r="B205" s="1">
-        <v>45016.486157407409</v>
+        <v>45016.486157407402</v>
       </c>
       <c r="D205" t="s">
         <v>37</v>
@@ -10710,7 +10744,7 @@
         <v>29</v>
       </c>
       <c r="B207" s="1">
-        <v>45016.489942129629</v>
+        <v>45016.4899421296</v>
       </c>
       <c r="C207">
         <v>4792</v>
@@ -10760,7 +10794,7 @@
         <v>36</v>
       </c>
       <c r="B208" s="1">
-        <v>45016.503888888888</v>
+        <v>45016.503888888903</v>
       </c>
       <c r="D208" t="s">
         <v>65</v>
@@ -10795,7 +10829,7 @@
         <v>36</v>
       </c>
       <c r="B209" s="1">
-        <v>45016.50577546296</v>
+        <v>45016.505775463003</v>
       </c>
       <c r="D209" t="s">
         <v>30</v>
@@ -10830,7 +10864,7 @@
         <v>38</v>
       </c>
       <c r="B210" s="1">
-        <v>45016.512557870366</v>
+        <v>45016.512557870403</v>
       </c>
       <c r="C210">
         <v>99</v>
@@ -10883,7 +10917,7 @@
         <v>36</v>
       </c>
       <c r="B211" s="1">
-        <v>45016.51358796296</v>
+        <v>45016.513587963003</v>
       </c>
       <c r="D211" t="s">
         <v>30</v>
@@ -10918,7 +10952,7 @@
         <v>36</v>
       </c>
       <c r="B212" s="1">
-        <v>45016.514965277784</v>
+        <v>45016.514965277798</v>
       </c>
       <c r="D212" t="s">
         <v>65</v>
@@ -10953,7 +10987,7 @@
         <v>36</v>
       </c>
       <c r="B213" s="1">
-        <v>45016.515162037038</v>
+        <v>45016.515162037002</v>
       </c>
       <c r="D213" t="s">
         <v>65</v>
@@ -11023,7 +11057,7 @@
         <v>36</v>
       </c>
       <c r="B215" s="1">
-        <v>45016.516631944447</v>
+        <v>45016.516631944498</v>
       </c>
       <c r="D215" t="s">
         <v>65</v>
@@ -11058,7 +11092,7 @@
         <v>36</v>
       </c>
       <c r="B216" s="1">
-        <v>45016.517013888893</v>
+        <v>45016.517013888901</v>
       </c>
       <c r="D216" t="s">
         <v>37</v>
@@ -11093,7 +11127,7 @@
         <v>36</v>
       </c>
       <c r="B217" s="1">
-        <v>45016.517430555563</v>
+        <v>45016.517430555599</v>
       </c>
       <c r="D217" t="s">
         <v>65</v>
@@ -11128,7 +11162,7 @@
         <v>36</v>
       </c>
       <c r="B218" s="1">
-        <v>45016.517916666657</v>
+        <v>45016.5179166667</v>
       </c>
       <c r="D218" t="s">
         <v>30</v>
@@ -11198,7 +11232,7 @@
         <v>36</v>
       </c>
       <c r="B220" s="1">
-        <v>45016.519212962958</v>
+        <v>45016.519212963001</v>
       </c>
       <c r="D220" t="s">
         <v>30</v>
@@ -11233,7 +11267,7 @@
         <v>36</v>
       </c>
       <c r="B221" s="1">
-        <v>45016.519884259258</v>
+        <v>45016.519884259302</v>
       </c>
       <c r="D221" t="s">
         <v>30</v>
@@ -11268,7 +11302,7 @@
         <v>36</v>
       </c>
       <c r="B222" s="1">
-        <v>45016.520787037043</v>
+        <v>45016.520787037</v>
       </c>
       <c r="D222" t="s">
         <v>65</v>
@@ -11303,7 +11337,7 @@
         <v>36</v>
       </c>
       <c r="B223" s="1">
-        <v>45016.521134259259</v>
+        <v>45016.521134259303</v>
       </c>
       <c r="D223" t="s">
         <v>30</v>
@@ -11338,7 +11372,7 @@
         <v>36</v>
       </c>
       <c r="B224" s="1">
-        <v>45016.522083333337</v>
+        <v>45016.522083333301</v>
       </c>
       <c r="D224" t="s">
         <v>30</v>
@@ -11373,7 +11407,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="1">
-        <v>45016.525324074071</v>
+        <v>45016.5253240741</v>
       </c>
       <c r="D225" t="s">
         <v>30</v>
@@ -11511,7 +11545,7 @@
         <v>29</v>
       </c>
       <c r="B228" s="1">
-        <v>45016.580057870371</v>
+        <v>45016.5800578704</v>
       </c>
       <c r="C228">
         <v>142</v>
@@ -11561,7 +11595,7 @@
         <v>29</v>
       </c>
       <c r="B229" s="1">
-        <v>45016.589618055557</v>
+        <v>45016.589618055601</v>
       </c>
       <c r="C229">
         <v>245</v>
@@ -11661,7 +11695,7 @@
         <v>38</v>
       </c>
       <c r="B231" s="1">
-        <v>45016.649039351847</v>
+        <v>45016.649039351898</v>
       </c>
       <c r="C231">
         <v>276</v>
@@ -11714,7 +11748,7 @@
         <v>36</v>
       </c>
       <c r="B232" s="1">
-        <v>45016.652071759258</v>
+        <v>45016.652071759301</v>
       </c>
       <c r="D232" t="s">
         <v>37</v>
@@ -11749,7 +11783,7 @@
         <v>36</v>
       </c>
       <c r="B233" s="1">
-        <v>45016.657731481479</v>
+        <v>45016.6577314815</v>
       </c>
       <c r="D233" t="s">
         <v>64</v>
@@ -11819,7 +11853,7 @@
         <v>29</v>
       </c>
       <c r="B235" s="1">
-        <v>45016.670231481483</v>
+        <v>45016.670231481497</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -11919,7 +11953,7 @@
         <v>29</v>
       </c>
       <c r="B237" s="1">
-        <v>45016.68608796296</v>
+        <v>45016.686087962997</v>
       </c>
       <c r="C237">
         <v>7</v>
@@ -11969,7 +12003,7 @@
         <v>29</v>
       </c>
       <c r="B238" s="1">
-        <v>45016.692650462966</v>
+        <v>45016.692650463003</v>
       </c>
       <c r="C238">
         <v>12</v>
@@ -12019,7 +12053,7 @@
         <v>29</v>
       </c>
       <c r="B239" s="1">
-        <v>45016.693726851852</v>
+        <v>45016.693726851903</v>
       </c>
       <c r="C239">
         <v>4522</v>
@@ -12069,7 +12103,7 @@
         <v>36</v>
       </c>
       <c r="B240" s="1">
-        <v>45016.697222222218</v>
+        <v>45016.697222222203</v>
       </c>
       <c r="D240" t="s">
         <v>64</v>
@@ -12104,7 +12138,7 @@
         <v>36</v>
       </c>
       <c r="B241" s="1">
-        <v>45016.698368055557</v>
+        <v>45016.6983680556</v>
       </c>
       <c r="D241" t="s">
         <v>64</v>
@@ -12139,7 +12173,7 @@
         <v>36</v>
       </c>
       <c r="B242" s="1">
-        <v>45016.698680555557</v>
+        <v>45016.698680555601</v>
       </c>
       <c r="D242" t="s">
         <v>30</v>
@@ -12174,7 +12208,7 @@
         <v>36</v>
       </c>
       <c r="B243" s="1">
-        <v>45016.698900462958</v>
+        <v>45016.698900463001</v>
       </c>
       <c r="D243" t="s">
         <v>30</v>
@@ -12209,7 +12243,7 @@
         <v>36</v>
       </c>
       <c r="B244" s="1">
-        <v>45016.699189814812</v>
+        <v>45016.699189814797</v>
       </c>
       <c r="D244" t="s">
         <v>64</v>
@@ -12244,7 +12278,7 @@
         <v>36</v>
       </c>
       <c r="B245" s="1">
-        <v>45016.699675925927</v>
+        <v>45016.699675925898</v>
       </c>
       <c r="D245" t="s">
         <v>64</v>
@@ -12279,7 +12313,7 @@
         <v>36</v>
       </c>
       <c r="B246" s="1">
-        <v>45016.700231481482</v>
+        <v>45016.700231481504</v>
       </c>
       <c r="D246" t="s">
         <v>30</v>
@@ -12314,7 +12348,7 @@
         <v>36</v>
       </c>
       <c r="B247" s="1">
-        <v>45016.700960648152</v>
+        <v>45016.700960648202</v>
       </c>
       <c r="D247" t="s">
         <v>30</v>
@@ -12384,7 +12418,7 @@
         <v>36</v>
       </c>
       <c r="B249" s="1">
-        <v>45016.701898148152</v>
+        <v>45016.701898148203</v>
       </c>
       <c r="D249" t="s">
         <v>64</v>
@@ -12454,7 +12488,7 @@
         <v>36</v>
       </c>
       <c r="B251" s="1">
-        <v>45016.702604166669</v>
+        <v>45016.702604166698</v>
       </c>
       <c r="D251" t="s">
         <v>30</v>
@@ -12489,7 +12523,7 @@
         <v>36</v>
       </c>
       <c r="B252" s="1">
-        <v>45016.703020833331</v>
+        <v>45016.703020833302</v>
       </c>
       <c r="D252" t="s">
         <v>64</v>
@@ -12524,7 +12558,7 @@
         <v>36</v>
       </c>
       <c r="B253" s="1">
-        <v>45016.708414351851</v>
+        <v>45016.708414351902</v>
       </c>
       <c r="D253" t="s">
         <v>37</v>
@@ -12559,7 +12593,7 @@
         <v>36</v>
       </c>
       <c r="B254" s="1">
-        <v>45016.70894675926</v>
+        <v>45016.708946759303</v>
       </c>
       <c r="D254" t="s">
         <v>30</v>
@@ -12594,7 +12628,7 @@
         <v>36</v>
       </c>
       <c r="B255" s="1">
-        <v>45016.72011574074</v>
+        <v>45016.720115740703</v>
       </c>
       <c r="D255" t="s">
         <v>30</v>
@@ -12629,7 +12663,7 @@
         <v>36</v>
       </c>
       <c r="B256" s="1">
-        <v>45016.734803240739</v>
+        <v>45016.734803240703</v>
       </c>
       <c r="D256" t="s">
         <v>64</v>
@@ -12664,7 +12698,7 @@
         <v>36</v>
       </c>
       <c r="B257" s="1">
-        <v>45016.737708333327</v>
+        <v>45016.737708333298</v>
       </c>
       <c r="D257" t="s">
         <v>37</v>
@@ -12699,7 +12733,7 @@
         <v>36</v>
       </c>
       <c r="B258" s="1">
-        <v>45016.74009259259</v>
+        <v>45016.740092592598</v>
       </c>
       <c r="D258" t="s">
         <v>37</v>
@@ -12734,7 +12768,7 @@
         <v>36</v>
       </c>
       <c r="B259" s="1">
-        <v>45016.740902777783</v>
+        <v>45016.740902777798</v>
       </c>
       <c r="D259" t="s">
         <v>37</v>
@@ -12804,7 +12838,7 @@
         <v>36</v>
       </c>
       <c r="B261" s="1">
-        <v>45016.741909722223</v>
+        <v>45016.741909722201</v>
       </c>
       <c r="D261" t="s">
         <v>37</v>
@@ -12839,7 +12873,7 @@
         <v>36</v>
       </c>
       <c r="B262" s="1">
-        <v>45016.745254629634</v>
+        <v>45016.745254629597</v>
       </c>
       <c r="D262" t="s">
         <v>30</v>
@@ -12874,7 +12908,7 @@
         <v>29</v>
       </c>
       <c r="B263" s="1">
-        <v>45016.758784722217</v>
+        <v>45016.758784722202</v>
       </c>
       <c r="C263">
         <v>517</v>
@@ -12924,7 +12958,7 @@
         <v>29</v>
       </c>
       <c r="B264" s="1">
-        <v>45016.773668981477</v>
+        <v>45016.773668981499</v>
       </c>
       <c r="C264">
         <v>159</v>
@@ -12974,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="B265" s="1">
-        <v>45016.784918981481</v>
+        <v>45016.784918981502</v>
       </c>
       <c r="C265">
         <v>3176</v>
@@ -13024,7 +13058,7 @@
         <v>29</v>
       </c>
       <c r="B266" s="1">
-        <v>45016.866064814807</v>
+        <v>45016.8660648148</v>
       </c>
       <c r="C266">
         <v>16200</v>
@@ -13127,7 +13161,7 @@
         <v>38</v>
       </c>
       <c r="B268" s="1">
-        <v>45016.888043981482</v>
+        <v>45016.888043981497</v>
       </c>
       <c r="C268">
         <v>4</v>
@@ -13180,7 +13214,7 @@
         <v>38</v>
       </c>
       <c r="B269" s="1">
-        <v>45016.88958333333</v>
+        <v>45016.889583333301</v>
       </c>
       <c r="C269">
         <v>19</v>
@@ -13233,7 +13267,7 @@
         <v>36</v>
       </c>
       <c r="B270" s="1">
-        <v>45016.893310185187</v>
+        <v>45016.893310185202</v>
       </c>
       <c r="D270" t="s">
         <v>37</v>
@@ -13268,7 +13302,7 @@
         <v>36</v>
       </c>
       <c r="B271" s="1">
-        <v>45016.894965277781</v>
+        <v>45016.894965277803</v>
       </c>
       <c r="D271" t="s">
         <v>30</v>
@@ -13303,7 +13337,7 @@
         <v>36</v>
       </c>
       <c r="B272" s="1">
-        <v>45016.895277777781</v>
+        <v>45016.895277777803</v>
       </c>
       <c r="D272" t="s">
         <v>37</v>
@@ -13338,7 +13372,7 @@
         <v>36</v>
       </c>
       <c r="B273" s="1">
-        <v>45016.896064814813</v>
+        <v>45016.896064814799</v>
       </c>
       <c r="D273" t="s">
         <v>30</v>
@@ -13373,7 +13407,7 @@
         <v>36</v>
       </c>
       <c r="B274" s="1">
-        <v>45016.896377314813</v>
+        <v>45016.896377314799</v>
       </c>
       <c r="D274" t="s">
         <v>37</v>
@@ -13408,7 +13442,7 @@
         <v>36</v>
       </c>
       <c r="B275" s="1">
-        <v>45016.896828703713</v>
+        <v>45016.896828703699</v>
       </c>
       <c r="D275" t="s">
         <v>30</v>
@@ -13443,7 +13477,7 @@
         <v>38</v>
       </c>
       <c r="B276" s="1">
-        <v>45016.923657407409</v>
+        <v>45016.923657407402</v>
       </c>
       <c r="C276">
         <v>7</v>
@@ -13621,7 +13655,7 @@
         <v>36</v>
       </c>
       <c r="B278" s="1">
-        <v>45016.941932870373</v>
+        <v>45016.941932870403</v>
       </c>
       <c r="D278" t="s">
         <v>30</v>
@@ -13656,7 +13690,7 @@
         <v>36</v>
       </c>
       <c r="B279" s="1">
-        <v>45016.94295138889</v>
+        <v>45016.942951388897</v>
       </c>
       <c r="D279" t="s">
         <v>30</v>
@@ -13691,7 +13725,7 @@
         <v>36</v>
       </c>
       <c r="B280" s="1">
-        <v>45016.943460648137</v>
+        <v>45016.943460648101</v>
       </c>
       <c r="D280" t="s">
         <v>30</v>
@@ -13726,7 +13760,7 @@
         <v>36</v>
       </c>
       <c r="B281" s="1">
-        <v>45016.943842592591</v>
+        <v>45016.943842592598</v>
       </c>
       <c r="D281" t="s">
         <v>65</v>
@@ -13761,7 +13795,7 @@
         <v>36</v>
       </c>
       <c r="B282" s="1">
-        <v>45016.944386574083</v>
+        <v>45016.944386574098</v>
       </c>
       <c r="D282" t="s">
         <v>65</v>
@@ -13796,7 +13830,7 @@
         <v>36</v>
       </c>
       <c r="B283" s="1">
-        <v>45016.944710648153</v>
+        <v>45016.944710648197</v>
       </c>
       <c r="D283" t="s">
         <v>30</v>
@@ -13831,7 +13865,7 @@
         <v>36</v>
       </c>
       <c r="B284" s="1">
-        <v>45016.944849537038</v>
+        <v>45016.944849537002</v>
       </c>
       <c r="D284" t="s">
         <v>30</v>
@@ -13866,7 +13900,7 @@
         <v>36</v>
       </c>
       <c r="B285" s="1">
-        <v>45016.945543981477</v>
+        <v>45016.945543981499</v>
       </c>
       <c r="D285" t="s">
         <v>65</v>
@@ -13901,7 +13935,7 @@
         <v>36</v>
       </c>
       <c r="B286" s="1">
-        <v>45016.945567129631</v>
+        <v>45016.945567129602</v>
       </c>
       <c r="D286" t="s">
         <v>30</v>
@@ -13936,7 +13970,7 @@
         <v>36</v>
       </c>
       <c r="B287" s="1">
-        <v>45016.945798611108</v>
+        <v>45016.945798611101</v>
       </c>
       <c r="D287" t="s">
         <v>30</v>
@@ -14006,7 +14040,7 @@
         <v>36</v>
       </c>
       <c r="B289" s="1">
-        <v>45016.946388888893</v>
+        <v>45016.9463888889</v>
       </c>
       <c r="D289" t="s">
         <v>45</v>
@@ -14041,7 +14075,7 @@
         <v>36</v>
       </c>
       <c r="B290" s="1">
-        <v>45016.946446759262</v>
+        <v>45016.946446759299</v>
       </c>
       <c r="D290" t="s">
         <v>65</v>
@@ -14076,7 +14110,7 @@
         <v>36</v>
       </c>
       <c r="B291" s="1">
-        <v>45016.946944444448</v>
+        <v>45016.946944444499</v>
       </c>
       <c r="D291" t="s">
         <v>30</v>
@@ -14111,7 +14145,7 @@
         <v>36</v>
       </c>
       <c r="B292" s="1">
-        <v>45016.947685185187</v>
+        <v>45016.947685185201</v>
       </c>
       <c r="D292" t="s">
         <v>83</v>
@@ -14167,7 +14201,7 @@
         <v>36</v>
       </c>
       <c r="B293" s="1">
-        <v>45016.947858796288</v>
+        <v>45016.947858796302</v>
       </c>
       <c r="D293" t="s">
         <v>65</v>
@@ -14202,7 +14236,7 @@
         <v>36</v>
       </c>
       <c r="B294" s="1">
-        <v>45016.94804398148</v>
+        <v>45016.948043981502</v>
       </c>
       <c r="D294" t="s">
         <v>30</v>
@@ -14237,7 +14271,7 @@
         <v>36</v>
       </c>
       <c r="B295" s="1">
-        <v>45016.948888888888</v>
+        <v>45016.948888888903</v>
       </c>
       <c r="D295" t="s">
         <v>65</v>
@@ -14272,7 +14306,7 @@
         <v>36</v>
       </c>
       <c r="B296" s="1">
-        <v>45016.949236111112</v>
+        <v>45016.949236111097</v>
       </c>
       <c r="D296" t="s">
         <v>30</v>
@@ -14307,7 +14341,7 @@
         <v>36</v>
       </c>
       <c r="B297" s="1">
-        <v>45016.949826388889</v>
+        <v>45016.949826388904</v>
       </c>
       <c r="D297" t="s">
         <v>65</v>
@@ -14342,7 +14376,7 @@
         <v>36</v>
       </c>
       <c r="B298" s="1">
-        <v>45016.950462962966</v>
+        <v>45016.950462963003</v>
       </c>
       <c r="D298" t="s">
         <v>65</v>
@@ -14377,7 +14411,7 @@
         <v>38</v>
       </c>
       <c r="B299" s="1">
-        <v>45016.958298611113</v>
+        <v>45016.958298611098</v>
       </c>
       <c r="C299">
         <v>76</v>
@@ -14466,7 +14500,7 @@
         <v>36</v>
       </c>
       <c r="B300" s="1">
-        <v>45016.966620370367</v>
+        <v>45016.966620370396</v>
       </c>
       <c r="D300" t="s">
         <v>39</v>
@@ -14522,7 +14556,7 @@
         <v>36</v>
       </c>
       <c r="B301" s="1">
-        <v>45016.968252314808</v>
+        <v>45016.9682523148</v>
       </c>
       <c r="D301" t="s">
         <v>30</v>
@@ -14578,7 +14612,7 @@
         <v>36</v>
       </c>
       <c r="B302" s="1">
-        <v>45016.968946759262</v>
+        <v>45016.968946759298</v>
       </c>
       <c r="D302" t="s">
         <v>39</v>
@@ -14634,7 +14668,7 @@
         <v>36</v>
       </c>
       <c r="B303" s="1">
-        <v>45016.969618055547</v>
+        <v>45016.969618055598</v>
       </c>
       <c r="D303" t="s">
         <v>39</v>
@@ -14690,7 +14724,7 @@
         <v>36</v>
       </c>
       <c r="B304" s="1">
-        <v>45016.970300925917</v>
+        <v>45016.970300925903</v>
       </c>
       <c r="D304" t="s">
         <v>30</v>
@@ -14746,7 +14780,7 @@
         <v>36</v>
       </c>
       <c r="B305" s="1">
-        <v>45016.971006944441</v>
+        <v>45016.971006944397</v>
       </c>
       <c r="D305" t="s">
         <v>39</v>
@@ -14802,7 +14836,7 @@
         <v>36</v>
       </c>
       <c r="B306" s="1">
-        <v>45016.971782407411</v>
+        <v>45016.971782407403</v>
       </c>
       <c r="D306" t="s">
         <v>30</v>
@@ -14858,7 +14892,7 @@
         <v>36</v>
       </c>
       <c r="B307" s="1">
-        <v>45016.989155092589</v>
+        <v>45016.989155092597</v>
       </c>
       <c r="D307" t="s">
         <v>30</v>
@@ -14914,7 +14948,7 @@
         <v>36</v>
       </c>
       <c r="B308" s="1">
-        <v>45016.991122685176</v>
+        <v>45016.991122685198</v>
       </c>
       <c r="D308" t="s">
         <v>83</v>
@@ -14970,7 +15004,7 @@
         <v>36</v>
       </c>
       <c r="B309" s="1">
-        <v>45016.991215277783</v>
+        <v>45016.991215277798</v>
       </c>
       <c r="D309" t="s">
         <v>83</v>
@@ -15026,7 +15060,7 @@
         <v>36</v>
       </c>
       <c r="B310" s="1">
-        <v>45016.991574074083</v>
+        <v>45016.991574074098</v>
       </c>
       <c r="D310" t="s">
         <v>30</v>
@@ -15082,7 +15116,7 @@
         <v>36</v>
       </c>
       <c r="B311" s="1">
-        <v>45016.992048611108</v>
+        <v>45016.9920486111</v>
       </c>
       <c r="D311" t="s">
         <v>30</v>
@@ -15138,7 +15172,7 @@
         <v>36</v>
       </c>
       <c r="B312" s="1">
-        <v>45016.992372685178</v>
+        <v>45016.992372685199</v>
       </c>
       <c r="D312" t="s">
         <v>83</v>
@@ -15194,7 +15228,7 @@
         <v>36</v>
       </c>
       <c r="B313" s="1">
-        <v>45016.992777777778</v>
+        <v>45016.992777777799</v>
       </c>
       <c r="D313" t="s">
         <v>83</v>
@@ -15250,7 +15284,7 @@
         <v>36</v>
       </c>
       <c r="B314" s="1">
-        <v>45016.993148148147</v>
+        <v>45016.993148148198</v>
       </c>
       <c r="D314" t="s">
         <v>30</v>
@@ -15306,7 +15340,7 @@
         <v>36</v>
       </c>
       <c r="B315" s="1">
-        <v>45016.993379629632</v>
+        <v>45016.993379629603</v>
       </c>
       <c r="D315" t="s">
         <v>30</v>
@@ -15362,7 +15396,7 @@
         <v>36</v>
       </c>
       <c r="B316" s="1">
-        <v>45016.993981481479</v>
+        <v>45016.993981481501</v>
       </c>
       <c r="D316" t="s">
         <v>30</v>
@@ -15418,7 +15452,7 @@
         <v>36</v>
       </c>
       <c r="B317" s="1">
-        <v>45016.994513888887</v>
+        <v>45016.994513888902</v>
       </c>
       <c r="D317" t="s">
         <v>83</v>
@@ -15474,7 +15508,7 @@
         <v>36</v>
       </c>
       <c r="B318" s="1">
-        <v>45016.995034722233</v>
+        <v>45016.995034722197</v>
       </c>
       <c r="D318" t="s">
         <v>30</v>
@@ -15530,7 +15564,7 @@
         <v>36</v>
       </c>
       <c r="B319" s="1">
-        <v>45016.995694444442</v>
+        <v>45016.995694444398</v>
       </c>
       <c r="D319" t="s">
         <v>30</v>
@@ -15642,7 +15676,7 @@
         <v>38</v>
       </c>
       <c r="B321" s="1">
-        <v>45017.007037037038</v>
+        <v>45017.007037037001</v>
       </c>
       <c r="C321">
         <v>384</v>
@@ -15695,7 +15729,7 @@
         <v>36</v>
       </c>
       <c r="B322" s="1">
-        <v>45017.033842592587</v>
+        <v>45017.033842592602</v>
       </c>
       <c r="D322" t="s">
         <v>30</v>
@@ -15730,7 +15764,7 @@
         <v>36</v>
       </c>
       <c r="B323" s="1">
-        <v>45017.035601851851</v>
+        <v>45017.035601851901</v>
       </c>
       <c r="D323" t="s">
         <v>65</v>
@@ -15765,7 +15799,7 @@
         <v>36</v>
       </c>
       <c r="B324" s="1">
-        <v>45017.035833333342</v>
+        <v>45017.035833333299</v>
       </c>
       <c r="D324" t="s">
         <v>65</v>
@@ -15800,7 +15834,7 @@
         <v>36</v>
       </c>
       <c r="B325" s="1">
-        <v>45017.036261574067</v>
+        <v>45017.036261574103</v>
       </c>
       <c r="D325" t="s">
         <v>30</v>
@@ -15835,7 +15869,7 @@
         <v>36</v>
       </c>
       <c r="B326" s="1">
-        <v>45017.036527777767</v>
+        <v>45017.036527777796</v>
       </c>
       <c r="D326" t="s">
         <v>65</v>
@@ -15905,7 +15939,7 @@
         <v>36</v>
       </c>
       <c r="B328" s="1">
-        <v>45017.037152777782</v>
+        <v>45017.037152777797</v>
       </c>
       <c r="D328" t="s">
         <v>30</v>
@@ -15940,7 +15974,7 @@
         <v>36</v>
       </c>
       <c r="B329" s="1">
-        <v>45017.03802083333</v>
+        <v>45017.038020833301</v>
       </c>
       <c r="D329" t="s">
         <v>65</v>
@@ -15975,7 +16009,7 @@
         <v>36</v>
       </c>
       <c r="B330" s="1">
-        <v>45017.038136574083</v>
+        <v>45017.038136574098</v>
       </c>
       <c r="D330" t="s">
         <v>65</v>
@@ -16010,7 +16044,7 @@
         <v>36</v>
       </c>
       <c r="B331" s="1">
-        <v>45017.067418981482</v>
+        <v>45017.067418981504</v>
       </c>
       <c r="D331" t="s">
         <v>30</v>
@@ -16066,7 +16100,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="1">
-        <v>45017.067800925928</v>
+        <v>45017.067800925899</v>
       </c>
       <c r="D332" t="s">
         <v>83</v>
@@ -16122,7 +16156,7 @@
         <v>36</v>
       </c>
       <c r="B333" s="1">
-        <v>45017.093634259261</v>
+        <v>45017.093634259298</v>
       </c>
       <c r="D333" t="s">
         <v>30</v>
@@ -16157,7 +16191,7 @@
         <v>38</v>
       </c>
       <c r="B334" s="1">
-        <v>45017.106886574067</v>
+        <v>45017.106886574104</v>
       </c>
       <c r="C334">
         <v>27</v>
@@ -16210,7 +16244,7 @@
         <v>36</v>
       </c>
       <c r="B335" s="1">
-        <v>45017.117071759261</v>
+        <v>45017.117071759298</v>
       </c>
       <c r="D335" t="s">
         <v>30</v>
@@ -16245,7 +16279,7 @@
         <v>36</v>
       </c>
       <c r="B336" s="1">
-        <v>45017.119120370371</v>
+        <v>45017.1191203704</v>
       </c>
       <c r="D336" t="s">
         <v>64</v>
@@ -16315,7 +16349,7 @@
         <v>36</v>
       </c>
       <c r="B338" s="1">
-        <v>45017.120243055557</v>
+        <v>45017.1202430556</v>
       </c>
       <c r="D338" t="s">
         <v>30</v>
@@ -16350,7 +16384,7 @@
         <v>29</v>
       </c>
       <c r="B339" s="1">
-        <v>45017.205243055563</v>
+        <v>45017.2052430556</v>
       </c>
       <c r="C339">
         <v>32</v>
@@ -16400,7 +16434,7 @@
         <v>29</v>
       </c>
       <c r="B340" s="1">
-        <v>45017.212222222217</v>
+        <v>45017.212222222202</v>
       </c>
       <c r="C340">
         <v>110</v>
@@ -16450,7 +16484,7 @@
         <v>29</v>
       </c>
       <c r="B341" s="1">
-        <v>45017.214606481481</v>
+        <v>45017.214606481502</v>
       </c>
       <c r="C341">
         <v>2</v>
@@ -16500,7 +16534,7 @@
         <v>29</v>
       </c>
       <c r="B342" s="1">
-        <v>45017.223182870373</v>
+        <v>45017.223182870403</v>
       </c>
       <c r="C342">
         <v>32</v>
@@ -16600,7 +16634,7 @@
         <v>29</v>
       </c>
       <c r="B344" s="1">
-        <v>45017.235185185193</v>
+        <v>45017.2351851852</v>
       </c>
       <c r="C344">
         <v>120</v>
@@ -16650,7 +16684,7 @@
         <v>29</v>
       </c>
       <c r="B345" s="1">
-        <v>45017.243379629632</v>
+        <v>45017.243379629603</v>
       </c>
       <c r="C345">
         <v>1959</v>
@@ -16700,7 +16734,7 @@
         <v>29</v>
       </c>
       <c r="B346" s="1">
-        <v>45017.285636574074</v>
+        <v>45017.285636574103</v>
       </c>
       <c r="C346">
         <v>4150</v>
@@ -16750,7 +16784,7 @@
         <v>38</v>
       </c>
       <c r="B347" s="1">
-        <v>45017.334791666668</v>
+        <v>45017.334791666697</v>
       </c>
       <c r="C347">
         <v>512</v>
@@ -16839,7 +16873,7 @@
         <v>29</v>
       </c>
       <c r="B348" s="1">
-        <v>45017.348425925928</v>
+        <v>45017.348425925898</v>
       </c>
       <c r="C348">
         <v>126</v>
@@ -16889,7 +16923,7 @@
         <v>29</v>
       </c>
       <c r="B349" s="1">
-        <v>45017.359675925924</v>
+        <v>45017.359675925902</v>
       </c>
       <c r="C349">
         <v>1168</v>
@@ -16974,7 +17008,7 @@
         <v>36</v>
       </c>
       <c r="B351" s="1">
-        <v>45017.373344907413</v>
+        <v>45017.373344907399</v>
       </c>
       <c r="D351" t="s">
         <v>92</v>
@@ -17009,7 +17043,7 @@
         <v>36</v>
       </c>
       <c r="B352" s="1">
-        <v>45017.383090277777</v>
+        <v>45017.383090277799</v>
       </c>
       <c r="D352" t="s">
         <v>69</v>
@@ -17044,7 +17078,7 @@
         <v>36</v>
       </c>
       <c r="B353" s="1">
-        <v>45017.385740740741</v>
+        <v>45017.385740740698</v>
       </c>
       <c r="D353" t="s">
         <v>39</v>
@@ -17100,7 +17134,7 @@
         <v>36</v>
       </c>
       <c r="B354" s="1">
-        <v>45017.387395833342</v>
+        <v>45017.387395833299</v>
       </c>
       <c r="D354" t="s">
         <v>30</v>
@@ -17212,7 +17246,7 @@
         <v>36</v>
       </c>
       <c r="B356" s="1">
-        <v>45017.388865740737</v>
+        <v>45017.388865740701</v>
       </c>
       <c r="D356" t="s">
         <v>39</v>
@@ -17268,7 +17302,7 @@
         <v>36</v>
       </c>
       <c r="B357" s="1">
-        <v>45017.389016203713</v>
+        <v>45017.389016203699</v>
       </c>
       <c r="D357" t="s">
         <v>39</v>
@@ -17324,7 +17358,7 @@
         <v>29</v>
       </c>
       <c r="B358" s="1">
-        <v>45017.389502314807</v>
+        <v>45017.3895023148</v>
       </c>
       <c r="C358">
         <v>190</v>
@@ -17374,7 +17408,7 @@
         <v>36</v>
       </c>
       <c r="B359" s="1">
-        <v>45017.389803240738</v>
+        <v>45017.389803240701</v>
       </c>
       <c r="D359" t="s">
         <v>30</v>
@@ -17430,7 +17464,7 @@
         <v>36</v>
       </c>
       <c r="B360" s="1">
-        <v>45017.38989583333</v>
+        <v>45017.389895833301</v>
       </c>
       <c r="D360" t="s">
         <v>30</v>
@@ -17486,7 +17520,7 @@
         <v>36</v>
       </c>
       <c r="B361" s="1">
-        <v>45017.390069444453</v>
+        <v>45017.390069444496</v>
       </c>
       <c r="D361" t="s">
         <v>39</v>
@@ -17542,7 +17576,7 @@
         <v>36</v>
       </c>
       <c r="B362" s="1">
-        <v>45017.395300925928</v>
+        <v>45017.395300925898</v>
       </c>
       <c r="D362" t="s">
         <v>30</v>
@@ -17577,7 +17611,7 @@
         <v>29</v>
       </c>
       <c r="B363" s="1">
-        <v>45017.395972222221</v>
+        <v>45017.395972222199</v>
       </c>
       <c r="C363">
         <v>355</v>
@@ -17662,7 +17696,7 @@
         <v>29</v>
       </c>
       <c r="B365" s="1">
-        <v>45017.404745370368</v>
+        <v>45017.404745370397</v>
       </c>
       <c r="C365">
         <v>3</v>
@@ -17712,7 +17746,7 @@
         <v>29</v>
       </c>
       <c r="B366" s="1">
-        <v>45017.407025462962</v>
+        <v>45017.407025462999</v>
       </c>
       <c r="C366">
         <v>50</v>
@@ -17812,7 +17846,7 @@
         <v>29</v>
       </c>
       <c r="B368" s="1">
-        <v>45017.409537037027</v>
+        <v>45017.409537036998</v>
       </c>
       <c r="C368">
         <v>33</v>
@@ -17862,7 +17896,7 @@
         <v>38</v>
       </c>
       <c r="B369" s="1">
-        <v>45017.412152777782</v>
+        <v>45017.412152777797</v>
       </c>
       <c r="C369">
         <v>305</v>
@@ -17915,7 +17949,7 @@
         <v>38</v>
       </c>
       <c r="B370" s="1">
-        <v>45017.416122685187</v>
+        <v>45017.416122685201</v>
       </c>
       <c r="C370">
         <v>162</v>
@@ -18018,7 +18052,7 @@
         <v>29</v>
       </c>
       <c r="B372" s="1">
-        <v>45017.428842592592</v>
+        <v>45017.428842592599</v>
       </c>
       <c r="C372">
         <v>48</v>
@@ -18068,7 +18102,7 @@
         <v>36</v>
       </c>
       <c r="B373" s="1">
-        <v>45017.434837962966</v>
+        <v>45017.434837963003</v>
       </c>
       <c r="D373" t="s">
         <v>39</v>
@@ -18124,7 +18158,7 @@
         <v>36</v>
       </c>
       <c r="B374" s="1">
-        <v>45017.435428240737</v>
+        <v>45017.4354282407</v>
       </c>
       <c r="D374" t="s">
         <v>92</v>
@@ -18159,7 +18193,7 @@
         <v>29</v>
       </c>
       <c r="B375" s="1">
-        <v>45017.435729166667</v>
+        <v>45017.435729166697</v>
       </c>
       <c r="C375">
         <v>3</v>
@@ -18209,7 +18243,7 @@
         <v>29</v>
       </c>
       <c r="B376" s="1">
-        <v>45017.442615740743</v>
+        <v>45017.4426157407</v>
       </c>
       <c r="C376">
         <v>175</v>
@@ -18259,7 +18293,7 @@
         <v>38</v>
       </c>
       <c r="B377" s="1">
-        <v>45017.442777777767</v>
+        <v>45017.442777777796</v>
       </c>
       <c r="C377">
         <v>272</v>
@@ -18312,7 +18346,7 @@
         <v>36</v>
       </c>
       <c r="B378" s="1">
-        <v>45017.443460648137</v>
+        <v>45017.443460648101</v>
       </c>
       <c r="D378" t="s">
         <v>92</v>
@@ -18347,7 +18381,7 @@
         <v>29</v>
       </c>
       <c r="B379" s="1">
-        <v>45017.450590277767</v>
+        <v>45017.450590277796</v>
       </c>
       <c r="C379">
         <v>8</v>
@@ -18397,7 +18431,7 @@
         <v>29</v>
       </c>
       <c r="B380" s="1">
-        <v>45017.454467592594</v>
+        <v>45017.454467592601</v>
       </c>
       <c r="C380">
         <v>14</v>
@@ -18447,7 +18481,7 @@
         <v>29</v>
       </c>
       <c r="B381" s="1">
-        <v>45017.455127314817</v>
+        <v>45017.455127314803</v>
       </c>
       <c r="C381">
         <v>4106</v>
@@ -18497,7 +18531,7 @@
         <v>38</v>
       </c>
       <c r="B382" s="1">
-        <v>45017.464212962957</v>
+        <v>45017.464212963001</v>
       </c>
       <c r="C382">
         <v>295</v>
@@ -18550,7 +18584,7 @@
         <v>36</v>
       </c>
       <c r="B383" s="1">
-        <v>45017.466469907413</v>
+        <v>45017.466469907398</v>
       </c>
       <c r="D383" t="s">
         <v>39</v>
@@ -18606,7 +18640,7 @@
         <v>36</v>
       </c>
       <c r="B384" s="1">
-        <v>45017.472442129627</v>
+        <v>45017.472442129598</v>
       </c>
       <c r="D384" t="s">
         <v>65</v>
@@ -18641,7 +18675,7 @@
         <v>38</v>
       </c>
       <c r="B385" s="1">
-        <v>45017.481527777767</v>
+        <v>45017.481527777803</v>
       </c>
       <c r="C385">
         <v>452</v>
@@ -18694,7 +18728,7 @@
         <v>36</v>
       </c>
       <c r="B386" s="1">
-        <v>45017.491689814808</v>
+        <v>45017.4916898148</v>
       </c>
       <c r="D386" t="s">
         <v>92</v>
@@ -18729,7 +18763,7 @@
         <v>38</v>
       </c>
       <c r="B387" s="1">
-        <v>45017.496261574073</v>
+        <v>45017.496261574102</v>
       </c>
       <c r="C387">
         <v>35</v>
@@ -18782,7 +18816,7 @@
         <v>36</v>
       </c>
       <c r="B388" s="1">
-        <v>45017.509479166663</v>
+        <v>45017.5094791667</v>
       </c>
       <c r="D388" t="s">
         <v>30</v>
@@ -18891,7 +18925,7 @@
         <v>29</v>
       </c>
       <c r="B390" s="1">
-        <v>45017.527881944443</v>
+        <v>45017.527881944399</v>
       </c>
       <c r="C390">
         <v>1372</v>
@@ -18941,7 +18975,7 @@
         <v>36</v>
       </c>
       <c r="B391" s="1">
-        <v>45017.528067129628</v>
+        <v>45017.528067129599</v>
       </c>
       <c r="D391" t="s">
         <v>30</v>
@@ -18997,7 +19031,7 @@
         <v>38</v>
       </c>
       <c r="B392" s="1">
-        <v>45017.529050925928</v>
+        <v>45017.529050925899</v>
       </c>
       <c r="C392">
         <v>34</v>
@@ -19050,7 +19084,7 @@
         <v>36</v>
       </c>
       <c r="B393" s="1">
-        <v>45017.550208333327</v>
+        <v>45017.550208333298</v>
       </c>
       <c r="D393" t="s">
         <v>69</v>
@@ -19085,7 +19119,7 @@
         <v>29</v>
       </c>
       <c r="B394" s="1">
-        <v>45017.560254629629</v>
+        <v>45017.5602546296</v>
       </c>
       <c r="C394">
         <v>1494</v>
@@ -19135,7 +19169,7 @@
         <v>36</v>
       </c>
       <c r="B395" s="1">
-        <v>45017.570856481478</v>
+        <v>45017.5708564815</v>
       </c>
       <c r="D395" t="s">
         <v>49</v>
@@ -19191,7 +19225,7 @@
         <v>36</v>
       </c>
       <c r="B396" s="1">
-        <v>45017.574965277781</v>
+        <v>45017.574965277803</v>
       </c>
       <c r="D396" t="s">
         <v>92</v>
@@ -19226,7 +19260,7 @@
         <v>29</v>
       </c>
       <c r="B397" s="1">
-        <v>45017.584722222222</v>
+        <v>45017.5847222222</v>
       </c>
       <c r="C397">
         <v>152</v>
@@ -19276,7 +19310,7 @@
         <v>36</v>
       </c>
       <c r="B398" s="1">
-        <v>45017.585162037038</v>
+        <v>45017.585162037001</v>
       </c>
       <c r="D398" t="s">
         <v>30</v>
@@ -19332,7 +19366,7 @@
         <v>29</v>
       </c>
       <c r="B399" s="1">
-        <v>45017.596377314818</v>
+        <v>45017.596377314803</v>
       </c>
       <c r="C399">
         <v>4035</v>
@@ -19382,7 +19416,7 @@
         <v>36</v>
       </c>
       <c r="B400" s="1">
-        <v>45017.597627314812</v>
+        <v>45017.597627314797</v>
       </c>
       <c r="D400" t="s">
         <v>49</v>
@@ -19438,7 +19472,7 @@
         <v>36</v>
       </c>
       <c r="B401" s="1">
-        <v>45017.600636574083</v>
+        <v>45017.600636574098</v>
       </c>
       <c r="D401" t="s">
         <v>30</v>
@@ -19473,7 +19507,7 @@
         <v>36</v>
       </c>
       <c r="B402" s="1">
-        <v>45017.601030092592</v>
+        <v>45017.601030092599</v>
       </c>
       <c r="D402" t="s">
         <v>37</v>
@@ -19508,7 +19542,7 @@
         <v>36</v>
       </c>
       <c r="B403" s="1">
-        <v>45017.602650462963</v>
+        <v>45017.602650462999</v>
       </c>
       <c r="D403" t="s">
         <v>30</v>
@@ -19543,7 +19577,7 @@
         <v>36</v>
       </c>
       <c r="B404" s="1">
-        <v>45017.603321759263</v>
+        <v>45017.603321759299</v>
       </c>
       <c r="D404" t="s">
         <v>37</v>
@@ -19578,7 +19612,7 @@
         <v>36</v>
       </c>
       <c r="B405" s="1">
-        <v>45017.604120370372</v>
+        <v>45017.604120370401</v>
       </c>
       <c r="D405" t="s">
         <v>30</v>
@@ -19613,7 +19647,7 @@
         <v>36</v>
       </c>
       <c r="B406" s="1">
-        <v>45017.60497685185</v>
+        <v>45017.604976851901</v>
       </c>
       <c r="D406" t="s">
         <v>37</v>
@@ -19683,7 +19717,7 @@
         <v>36</v>
       </c>
       <c r="B408" s="1">
-        <v>45017.605590277781</v>
+        <v>45017.605590277803</v>
       </c>
       <c r="D408" t="s">
         <v>37</v>
@@ -19718,7 +19752,7 @@
         <v>36</v>
       </c>
       <c r="B409" s="1">
-        <v>45017.606365740743</v>
+        <v>45017.606365740699</v>
       </c>
       <c r="D409" t="s">
         <v>30</v>
@@ -19753,7 +19787,7 @@
         <v>36</v>
       </c>
       <c r="B410" s="1">
-        <v>45017.607083333343</v>
+        <v>45017.6070833333</v>
       </c>
       <c r="D410" t="s">
         <v>37</v>
@@ -19788,7 +19822,7 @@
         <v>36</v>
       </c>
       <c r="B411" s="1">
-        <v>45017.607881944437</v>
+        <v>45017.607881944401</v>
       </c>
       <c r="D411" t="s">
         <v>30</v>
@@ -19823,7 +19857,7 @@
         <v>38</v>
       </c>
       <c r="B412" s="1">
-        <v>45017.608391203707</v>
+        <v>45017.608391203699</v>
       </c>
       <c r="C412">
         <v>114</v>
@@ -19876,7 +19910,7 @@
         <v>36</v>
       </c>
       <c r="B413" s="1">
-        <v>45017.608657407407</v>
+        <v>45017.6086574074</v>
       </c>
       <c r="D413" t="s">
         <v>30</v>
@@ -19911,7 +19945,7 @@
         <v>36</v>
       </c>
       <c r="B414" s="1">
-        <v>45017.609224537038</v>
+        <v>45017.609224537002</v>
       </c>
       <c r="D414" t="s">
         <v>30</v>
@@ -19946,7 +19980,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="1">
-        <v>45017.609467592592</v>
+        <v>45017.6094675926</v>
       </c>
       <c r="D415" t="s">
         <v>37</v>
@@ -19981,7 +20015,7 @@
         <v>36</v>
       </c>
       <c r="B416" s="1">
-        <v>45017.610115740739</v>
+        <v>45017.610115740703</v>
       </c>
       <c r="D416" t="s">
         <v>30</v>
@@ -20016,7 +20050,7 @@
         <v>36</v>
       </c>
       <c r="B417" s="1">
-        <v>45017.610590277778</v>
+        <v>45017.6105902778</v>
       </c>
       <c r="D417" t="s">
         <v>37</v>
@@ -20051,7 +20085,7 @@
         <v>36</v>
       </c>
       <c r="B418" s="1">
-        <v>45017.610925925917</v>
+        <v>45017.610925925903</v>
       </c>
       <c r="D418" t="s">
         <v>37</v>
@@ -20086,7 +20120,7 @@
         <v>36</v>
       </c>
       <c r="B419" s="1">
-        <v>45017.611701388887</v>
+        <v>45017.611701388902</v>
       </c>
       <c r="D419" t="s">
         <v>30</v>
@@ -20121,7 +20155,7 @@
         <v>36</v>
       </c>
       <c r="B420" s="1">
-        <v>45017.61246527778</v>
+        <v>45017.612465277802</v>
       </c>
       <c r="D420" t="s">
         <v>30</v>
@@ -20156,7 +20190,7 @@
         <v>36</v>
       </c>
       <c r="B421" s="1">
-        <v>45017.612754629627</v>
+        <v>45017.612754629597</v>
       </c>
       <c r="D421" t="s">
         <v>37</v>
@@ -20191,7 +20225,7 @@
         <v>36</v>
       </c>
       <c r="B422" s="1">
-        <v>45017.613576388889</v>
+        <v>45017.613576388903</v>
       </c>
       <c r="D422" t="s">
         <v>30</v>
@@ -20226,7 +20260,7 @@
         <v>38</v>
       </c>
       <c r="B423" s="1">
-        <v>45017.619699074072</v>
+        <v>45017.619699074101</v>
       </c>
       <c r="C423">
         <v>290</v>
@@ -20315,7 +20349,7 @@
         <v>36</v>
       </c>
       <c r="B424" s="1">
-        <v>45017.648611111108</v>
+        <v>45017.648611111101</v>
       </c>
       <c r="D424" t="s">
         <v>30</v>
@@ -20371,7 +20405,7 @@
         <v>36</v>
       </c>
       <c r="B425" s="1">
-        <v>45017.650277777779</v>
+        <v>45017.650277777801</v>
       </c>
       <c r="D425" t="s">
         <v>30</v>
@@ -20427,7 +20461,7 @@
         <v>36</v>
       </c>
       <c r="B426" s="1">
-        <v>45017.653900462959</v>
+        <v>45017.653900463003</v>
       </c>
       <c r="D426" t="s">
         <v>30</v>
@@ -20462,7 +20496,7 @@
         <v>29</v>
       </c>
       <c r="B427" s="1">
-        <v>45017.660636574074</v>
+        <v>45017.660636574103</v>
       </c>
       <c r="C427">
         <v>2</v>
@@ -20612,7 +20646,7 @@
         <v>38</v>
       </c>
       <c r="B430" s="1">
-        <v>45017.67659722222</v>
+        <v>45017.676597222198</v>
       </c>
       <c r="C430">
         <v>311</v>
@@ -20665,7 +20699,7 @@
         <v>36</v>
       </c>
       <c r="B431" s="1">
-        <v>45017.713506944441</v>
+        <v>45017.713506944398</v>
       </c>
       <c r="D431" t="s">
         <v>49</v>
@@ -20721,7 +20755,7 @@
         <v>36</v>
       </c>
       <c r="B432" s="1">
-        <v>45017.716307870367</v>
+        <v>45017.716307870403</v>
       </c>
       <c r="D432" t="s">
         <v>30</v>
@@ -20777,7 +20811,7 @@
         <v>36</v>
       </c>
       <c r="B433" s="1">
-        <v>45017.716666666667</v>
+        <v>45017.716666666704</v>
       </c>
       <c r="D433" t="s">
         <v>49</v>
@@ -20833,7 +20867,7 @@
         <v>36</v>
       </c>
       <c r="B434" s="1">
-        <v>45017.717638888891</v>
+        <v>45017.717638888898</v>
       </c>
       <c r="D434" t="s">
         <v>83</v>
@@ -20889,7 +20923,7 @@
         <v>36</v>
       </c>
       <c r="B435" s="1">
-        <v>45017.718298611107</v>
+        <v>45017.7182986111</v>
       </c>
       <c r="D435" t="s">
         <v>83</v>
@@ -20945,7 +20979,7 @@
         <v>36</v>
       </c>
       <c r="B436" s="1">
-        <v>45017.718576388892</v>
+        <v>45017.718576388899</v>
       </c>
       <c r="D436" t="s">
         <v>30</v>
@@ -21057,7 +21091,7 @@
         <v>36</v>
       </c>
       <c r="B438" s="1">
-        <v>45017.719594907408</v>
+        <v>45017.719594907401</v>
       </c>
       <c r="D438" t="s">
         <v>30</v>
@@ -21113,7 +21147,7 @@
         <v>36</v>
       </c>
       <c r="B439" s="1">
-        <v>45017.720196759263</v>
+        <v>45017.720196759299</v>
       </c>
       <c r="D439" t="s">
         <v>83</v>
@@ -21169,7 +21203,7 @@
         <v>36</v>
       </c>
       <c r="B440" s="1">
-        <v>45017.720532407409</v>
+        <v>45017.720532407402</v>
       </c>
       <c r="D440" t="s">
         <v>83</v>
@@ -21225,7 +21259,7 @@
         <v>36</v>
       </c>
       <c r="B441" s="1">
-        <v>45017.72074074074</v>
+        <v>45017.720740740697</v>
       </c>
       <c r="D441" t="s">
         <v>30</v>
@@ -21281,7 +21315,7 @@
         <v>36</v>
       </c>
       <c r="B442" s="1">
-        <v>45017.720972222232</v>
+        <v>45017.720972222203</v>
       </c>
       <c r="D442" t="s">
         <v>30</v>
@@ -21337,7 +21371,7 @@
         <v>36</v>
       </c>
       <c r="B443" s="1">
-        <v>45017.721319444441</v>
+        <v>45017.721319444398</v>
       </c>
       <c r="D443" t="s">
         <v>30</v>
@@ -21393,7 +21427,7 @@
         <v>36</v>
       </c>
       <c r="B444" s="1">
-        <v>45017.721539351849</v>
+        <v>45017.7215393519</v>
       </c>
       <c r="D444" t="s">
         <v>83</v>
@@ -21449,7 +21483,7 @@
         <v>36</v>
       </c>
       <c r="B445" s="1">
-        <v>45017.722071759257</v>
+        <v>45017.722071759301</v>
       </c>
       <c r="D445" t="s">
         <v>83</v>
@@ -21561,7 +21595,7 @@
         <v>36</v>
       </c>
       <c r="B447" s="1">
-        <v>45017.752650462957</v>
+        <v>45017.752650463</v>
       </c>
       <c r="D447" t="s">
         <v>65</v>
@@ -21596,7 +21630,7 @@
         <v>29</v>
       </c>
       <c r="B448" s="1">
-        <v>45017.765416666669</v>
+        <v>45017.765416666698</v>
       </c>
       <c r="C448">
         <v>2213</v>
@@ -21702,7 +21736,7 @@
         <v>29</v>
       </c>
       <c r="B450" s="1">
-        <v>45017.814965277779</v>
+        <v>45017.814965277801</v>
       </c>
       <c r="C450">
         <v>5131</v>
@@ -21752,7 +21786,7 @@
         <v>38</v>
       </c>
       <c r="B451" s="1">
-        <v>45017.822245370371</v>
+        <v>45017.8222453704</v>
       </c>
       <c r="C451">
         <v>176</v>
@@ -21805,7 +21839,7 @@
         <v>38</v>
       </c>
       <c r="B452" s="1">
-        <v>45017.826388888891</v>
+        <v>45017.826388888898</v>
       </c>
       <c r="C452">
         <v>46</v>
@@ -21893,7 +21927,7 @@
         <v>36</v>
       </c>
       <c r="B454" s="1">
-        <v>45017.87777777778</v>
+        <v>45017.877777777801</v>
       </c>
       <c r="D454" t="s">
         <v>30</v>
@@ -21984,7 +22018,7 @@
         <v>36</v>
       </c>
       <c r="B456" s="1">
-        <v>45017.879756944443</v>
+        <v>45017.8797569444</v>
       </c>
       <c r="D456" t="s">
         <v>30</v>
@@ -22019,7 +22053,7 @@
         <v>36</v>
       </c>
       <c r="B457" s="1">
-        <v>45017.892928240741</v>
+        <v>45017.892928240697</v>
       </c>
       <c r="D457" t="s">
         <v>63</v>
@@ -22054,7 +22088,7 @@
         <v>36</v>
       </c>
       <c r="B458" s="1">
-        <v>45017.898935185192</v>
+        <v>45017.8989351852</v>
       </c>
       <c r="D458" t="s">
         <v>69</v>
@@ -22089,7 +22123,7 @@
         <v>36</v>
       </c>
       <c r="B459" s="1">
-        <v>45017.900601851848</v>
+        <v>45017.900601851899</v>
       </c>
       <c r="D459" t="s">
         <v>69</v>
@@ -22124,7 +22158,7 @@
         <v>36</v>
       </c>
       <c r="B460" s="1">
-        <v>45017.900821759264</v>
+        <v>45017.9008217593</v>
       </c>
       <c r="D460" t="s">
         <v>30</v>
@@ -22194,7 +22228,7 @@
         <v>36</v>
       </c>
       <c r="B462" s="1">
-        <v>45017.902384259258</v>
+        <v>45017.902384259301</v>
       </c>
       <c r="D462" t="s">
         <v>69</v>
@@ -22229,7 +22263,7 @@
         <v>36</v>
       </c>
       <c r="B463" s="1">
-        <v>45017.903136574067</v>
+        <v>45017.903136574103</v>
       </c>
       <c r="D463" t="s">
         <v>30</v>
@@ -22264,7 +22298,7 @@
         <v>36</v>
       </c>
       <c r="B464" s="1">
-        <v>45017.903599537043</v>
+        <v>45017.903599537</v>
       </c>
       <c r="D464" t="s">
         <v>69</v>
@@ -22299,7 +22333,7 @@
         <v>36</v>
       </c>
       <c r="B465" s="1">
-        <v>45017.90425925926</v>
+        <v>45017.904259259303</v>
       </c>
       <c r="D465" t="s">
         <v>30</v>
@@ -22334,7 +22368,7 @@
         <v>36</v>
       </c>
       <c r="B466" s="1">
-        <v>45017.904756944437</v>
+        <v>45017.904756944401</v>
       </c>
       <c r="D466" t="s">
         <v>69</v>
@@ -22369,7 +22403,7 @@
         <v>36</v>
       </c>
       <c r="B467" s="1">
-        <v>45017.904872685183</v>
+        <v>45017.904872685198</v>
       </c>
       <c r="D467" t="s">
         <v>69</v>
@@ -22439,7 +22473,7 @@
         <v>36</v>
       </c>
       <c r="B469" s="1">
-        <v>45017.906006944453</v>
+        <v>45017.906006944497</v>
       </c>
       <c r="D469" t="s">
         <v>30</v>
@@ -22474,7 +22508,7 @@
         <v>36</v>
       </c>
       <c r="B470" s="1">
-        <v>45017.906226851846</v>
+        <v>45017.906226851897</v>
       </c>
       <c r="D470" t="s">
         <v>69</v>
@@ -22509,7 +22543,7 @@
         <v>36</v>
       </c>
       <c r="B471" s="1">
-        <v>45017.914722222216</v>
+        <v>45017.914722222202</v>
       </c>
       <c r="D471" t="s">
         <v>30</v>
@@ -22544,7 +22578,7 @@
         <v>36</v>
       </c>
       <c r="B472" s="1">
-        <v>45017.932754629634</v>
+        <v>45017.932754629597</v>
       </c>
       <c r="D472" t="s">
         <v>30</v>
@@ -22579,7 +22613,7 @@
         <v>29</v>
       </c>
       <c r="B473" s="1">
-        <v>45017.936388888891</v>
+        <v>45017.936388888898</v>
       </c>
       <c r="C473">
         <v>35</v>
@@ -22629,7 +22663,7 @@
         <v>29</v>
       </c>
       <c r="B474" s="1">
-        <v>45017.942210648151</v>
+        <v>45017.942210648202</v>
       </c>
       <c r="C474">
         <v>8</v>
@@ -22679,7 +22713,7 @@
         <v>36</v>
       </c>
       <c r="B475" s="1">
-        <v>45017.945613425924</v>
+        <v>45017.945613425902</v>
       </c>
       <c r="D475" t="s">
         <v>30</v>
@@ -22714,7 +22748,7 @@
         <v>29</v>
       </c>
       <c r="B476" s="1">
-        <v>45017.946631944447</v>
+        <v>45017.946631944498</v>
       </c>
       <c r="C476">
         <v>377</v>
@@ -22764,7 +22798,7 @@
         <v>29</v>
       </c>
       <c r="B477" s="1">
-        <v>45017.960462962961</v>
+        <v>45017.960462962998</v>
       </c>
       <c r="C477">
         <v>4118</v>
@@ -22814,7 +22848,7 @@
         <v>36</v>
       </c>
       <c r="B478" s="1">
-        <v>45017.97457175926</v>
+        <v>45017.974571759303</v>
       </c>
       <c r="D478" t="s">
         <v>69</v>
@@ -22849,7 +22883,7 @@
         <v>36</v>
       </c>
       <c r="B479" s="1">
-        <v>45017.975752314807</v>
+        <v>45017.9757523148</v>
       </c>
       <c r="D479" t="s">
         <v>30</v>
@@ -22919,7 +22953,7 @@
         <v>36</v>
       </c>
       <c r="B481" s="1">
-        <v>45017.976747685178</v>
+        <v>45017.976747685199</v>
       </c>
       <c r="D481" t="s">
         <v>69</v>
@@ -22954,7 +22988,7 @@
         <v>36</v>
       </c>
       <c r="B482" s="1">
-        <v>45017.977326388893</v>
+        <v>45017.9773263889</v>
       </c>
       <c r="D482" t="s">
         <v>30</v>
@@ -22989,7 +23023,7 @@
         <v>36</v>
       </c>
       <c r="B483" s="1">
-        <v>45017.977858796286</v>
+        <v>45017.977858796301</v>
       </c>
       <c r="D483" t="s">
         <v>30</v>
@@ -23024,7 +23058,7 @@
         <v>36</v>
       </c>
       <c r="B484" s="1">
-        <v>45017.978229166663</v>
+        <v>45017.9782291667</v>
       </c>
       <c r="D484" t="s">
         <v>30</v>
@@ -23059,7 +23093,7 @@
         <v>36</v>
       </c>
       <c r="B485" s="1">
-        <v>45017.979108796288</v>
+        <v>45017.979108796302</v>
       </c>
       <c r="D485" t="s">
         <v>69</v>
@@ -23094,7 +23128,7 @@
         <v>36</v>
       </c>
       <c r="B486" s="1">
-        <v>45018.021053240736</v>
+        <v>45018.0210532407</v>
       </c>
       <c r="D486" t="s">
         <v>30</v>
@@ -23129,7 +23163,7 @@
         <v>36</v>
       </c>
       <c r="B487" s="1">
-        <v>45018.021516203713</v>
+        <v>45018.021516203698</v>
       </c>
       <c r="D487" t="s">
         <v>69</v>
@@ -23164,7 +23198,7 @@
         <v>36</v>
       </c>
       <c r="B488" s="1">
-        <v>45018.022002314807</v>
+        <v>45018.022002314799</v>
       </c>
       <c r="D488" t="s">
         <v>30</v>
@@ -23199,7 +23233,7 @@
         <v>36</v>
       </c>
       <c r="B489" s="1">
-        <v>45018.022662037038</v>
+        <v>45018.022662037001</v>
       </c>
       <c r="D489" t="s">
         <v>69</v>
@@ -23234,7 +23268,7 @@
         <v>36</v>
       </c>
       <c r="B490" s="1">
-        <v>45018.037974537037</v>
+        <v>45018.037974537001</v>
       </c>
       <c r="D490" t="s">
         <v>30</v>
@@ -23290,7 +23324,7 @@
         <v>36</v>
       </c>
       <c r="B491" s="1">
-        <v>45018.043761574067</v>
+        <v>45018.043761574103</v>
       </c>
       <c r="D491" t="s">
         <v>30</v>
@@ -23325,7 +23359,7 @@
         <v>36</v>
       </c>
       <c r="B492" s="1">
-        <v>45018.048900462964</v>
+        <v>45018.048900463</v>
       </c>
       <c r="D492" t="s">
         <v>37</v>
@@ -23360,7 +23394,7 @@
         <v>36</v>
       </c>
       <c r="B493" s="1">
-        <v>45018.05228009259</v>
+        <v>45018.052280092597</v>
       </c>
       <c r="D493" t="s">
         <v>92</v>
@@ -23395,7 +23429,7 @@
         <v>38</v>
       </c>
       <c r="B494" s="1">
-        <v>45018.05232638889</v>
+        <v>45018.052326388897</v>
       </c>
       <c r="C494">
         <v>594</v>
@@ -23448,7 +23482,7 @@
         <v>38</v>
       </c>
       <c r="B495" s="1">
-        <v>45018.052916666667</v>
+        <v>45018.052916666697</v>
       </c>
       <c r="C495">
         <v>199</v>
@@ -23501,7 +23535,7 @@
         <v>36</v>
       </c>
       <c r="B496" s="1">
-        <v>45018.055150462962</v>
+        <v>45018.055150462998</v>
       </c>
       <c r="D496" t="s">
         <v>45</v>
@@ -23536,7 +23570,7 @@
         <v>36</v>
       </c>
       <c r="B497" s="1">
-        <v>45018.057627314818</v>
+        <v>45018.057627314804</v>
       </c>
       <c r="D497" t="s">
         <v>45</v>
@@ -23606,7 +23640,7 @@
         <v>36</v>
       </c>
       <c r="B499" s="1">
-        <v>45018.058958333328</v>
+        <v>45018.058958333299</v>
       </c>
       <c r="D499" t="s">
         <v>30</v>
@@ -23641,7 +23675,7 @@
         <v>36</v>
       </c>
       <c r="B500" s="1">
-        <v>45018.059745370367</v>
+        <v>45018.059745370403</v>
       </c>
       <c r="D500" t="s">
         <v>30</v>
@@ -23676,7 +23710,7 @@
         <v>36</v>
       </c>
       <c r="B501" s="1">
-        <v>45018.060613425929</v>
+        <v>45018.0606134259</v>
       </c>
       <c r="D501" t="s">
         <v>45</v>
@@ -23711,7 +23745,7 @@
         <v>36</v>
       </c>
       <c r="B502" s="1">
-        <v>45018.061180555553</v>
+        <v>45018.061180555596</v>
       </c>
       <c r="D502" t="s">
         <v>45</v>
@@ -23746,7 +23780,7 @@
         <v>36</v>
       </c>
       <c r="B503" s="1">
-        <v>45018.061782407407</v>
+        <v>45018.0617824074</v>
       </c>
       <c r="D503" t="s">
         <v>30</v>
@@ -23781,7 +23815,7 @@
         <v>36</v>
       </c>
       <c r="B504" s="1">
-        <v>45018.062013888892</v>
+        <v>45018.062013888899</v>
       </c>
       <c r="D504" t="s">
         <v>45</v>
@@ -23816,7 +23850,7 @@
         <v>36</v>
       </c>
       <c r="B505" s="1">
-        <v>45018.06212962963</v>
+        <v>45018.062129629601</v>
       </c>
       <c r="D505" t="s">
         <v>45</v>
@@ -23851,7 +23885,7 @@
         <v>36</v>
       </c>
       <c r="B506" s="1">
-        <v>45018.062349537038</v>
+        <v>45018.062349537002</v>
       </c>
       <c r="D506" t="s">
         <v>30</v>
@@ -23886,7 +23920,7 @@
         <v>36</v>
       </c>
       <c r="B507" s="1">
-        <v>45018.062951388893</v>
+        <v>45018.0629513889</v>
       </c>
       <c r="D507" t="s">
         <v>30</v>
@@ -23921,7 +23955,7 @@
         <v>36</v>
       </c>
       <c r="B508" s="1">
-        <v>45018.063472222217</v>
+        <v>45018.063472222202</v>
       </c>
       <c r="D508" t="s">
         <v>45</v>
@@ -23956,7 +23990,7 @@
         <v>36</v>
       </c>
       <c r="B509" s="1">
-        <v>45018.063657407409</v>
+        <v>45018.063657407401</v>
       </c>
       <c r="D509" t="s">
         <v>30</v>
@@ -23991,7 +24025,7 @@
         <v>38</v>
       </c>
       <c r="B510" s="1">
-        <v>45018.071423611109</v>
+        <v>45018.071423611102</v>
       </c>
       <c r="C510">
         <v>336</v>
@@ -24044,7 +24078,7 @@
         <v>36</v>
       </c>
       <c r="B511" s="1">
-        <v>45018.090821759259</v>
+        <v>45018.090821759302</v>
       </c>
       <c r="D511" t="s">
         <v>92</v>
@@ -24079,7 +24113,7 @@
         <v>29</v>
       </c>
       <c r="B512" s="1">
-        <v>45018.091145833343</v>
+        <v>45018.091145833299</v>
       </c>
       <c r="C512">
         <v>707</v>
@@ -24129,7 +24163,7 @@
         <v>38</v>
       </c>
       <c r="B513" s="1">
-        <v>45018.098009259258</v>
+        <v>45018.098009259302</v>
       </c>
       <c r="C513">
         <v>462</v>
@@ -24182,7 +24216,7 @@
         <v>36</v>
       </c>
       <c r="B514" s="1">
-        <v>45018.099131944437</v>
+        <v>45018.0991319444</v>
       </c>
       <c r="D514" t="s">
         <v>37</v>
@@ -24217,7 +24251,7 @@
         <v>29</v>
       </c>
       <c r="B515" s="1">
-        <v>45018.106956018521</v>
+        <v>45018.106956018499</v>
       </c>
       <c r="C515">
         <v>246</v>
@@ -24267,7 +24301,7 @@
         <v>29</v>
       </c>
       <c r="B516" s="1">
-        <v>45018.117488425924</v>
+        <v>45018.117488425902</v>
       </c>
       <c r="C516">
         <v>6</v>
@@ -24317,7 +24351,7 @@
         <v>29</v>
       </c>
       <c r="B517" s="1">
-        <v>45018.128194444442</v>
+        <v>45018.128194444398</v>
       </c>
       <c r="C517">
         <v>8</v>
@@ -24367,7 +24401,7 @@
         <v>29</v>
       </c>
       <c r="B518" s="1">
-        <v>45018.134872685187</v>
+        <v>45018.134872685201</v>
       </c>
       <c r="C518">
         <v>118</v>
@@ -24417,7 +24451,7 @@
         <v>29</v>
       </c>
       <c r="B519" s="1">
-        <v>45018.137430555558</v>
+        <v>45018.137430555602</v>
       </c>
       <c r="C519">
         <v>6</v>
@@ -24467,7 +24501,7 @@
         <v>29</v>
       </c>
       <c r="B520" s="1">
-        <v>45018.146689814806</v>
+        <v>45018.146689814799</v>
       </c>
       <c r="C520">
         <v>3</v>
@@ -24517,7 +24551,7 @@
         <v>29</v>
       </c>
       <c r="B521" s="1">
-        <v>45018.157523148147</v>
+        <v>45018.157523148198</v>
       </c>
       <c r="C521">
         <v>5</v>
@@ -24617,7 +24651,7 @@
         <v>36</v>
       </c>
       <c r="B523" s="1">
-        <v>45018.210474537038</v>
+        <v>45018.210474537002</v>
       </c>
       <c r="D523" t="s">
         <v>30</v>
@@ -24652,7 +24686,7 @@
         <v>29</v>
       </c>
       <c r="B524" s="1">
-        <v>45018.220972222232</v>
+        <v>45018.220972222203</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -24702,7 +24736,7 @@
         <v>29</v>
       </c>
       <c r="B525" s="1">
-        <v>45018.226851851847</v>
+        <v>45018.226851851898</v>
       </c>
       <c r="C525">
         <v>230</v>
@@ -24752,7 +24786,7 @@
         <v>29</v>
       </c>
       <c r="B526" s="1">
-        <v>45018.243275462963</v>
+        <v>45018.243275462999</v>
       </c>
       <c r="C526">
         <v>1757</v>
@@ -24802,7 +24836,7 @@
         <v>29</v>
       </c>
       <c r="B527" s="1">
-        <v>45018.26871527778</v>
+        <v>45018.268715277802</v>
       </c>
       <c r="C527">
         <v>919</v>
@@ -24852,7 +24886,7 @@
         <v>36</v>
       </c>
       <c r="B528" s="1">
-        <v>45018.284594907411</v>
+        <v>45018.284594907404</v>
       </c>
       <c r="D528" t="s">
         <v>37</v>
@@ -24887,7 +24921,7 @@
         <v>36</v>
       </c>
       <c r="B529" s="1">
-        <v>45018.286111111112</v>
+        <v>45018.286111111098</v>
       </c>
       <c r="D529" t="s">
         <v>37</v>
@@ -24922,7 +24956,7 @@
         <v>36</v>
       </c>
       <c r="B530" s="1">
-        <v>45018.286620370367</v>
+        <v>45018.286620370403</v>
       </c>
       <c r="D530" t="s">
         <v>30</v>
@@ -24992,7 +25026,7 @@
         <v>36</v>
       </c>
       <c r="B532" s="1">
-        <v>45018.287037037036</v>
+        <v>45018.287037037</v>
       </c>
       <c r="D532" t="s">
         <v>37</v>
@@ -25027,7 +25061,7 @@
         <v>36</v>
       </c>
       <c r="B533" s="1">
-        <v>45018.287210648137</v>
+        <v>45018.287210648101</v>
       </c>
       <c r="D533" t="s">
         <v>30</v>
@@ -25062,7 +25096,7 @@
         <v>36</v>
       </c>
       <c r="B534" s="1">
-        <v>45018.288090277783</v>
+        <v>45018.288090277798</v>
       </c>
       <c r="D534" t="s">
         <v>37</v>
@@ -25097,7 +25131,7 @@
         <v>36</v>
       </c>
       <c r="B535" s="1">
-        <v>45018.288414351853</v>
+        <v>45018.288414351897</v>
       </c>
       <c r="D535" t="s">
         <v>30</v>
@@ -25132,7 +25166,7 @@
         <v>36</v>
       </c>
       <c r="B536" s="1">
-        <v>45018.288645833331</v>
+        <v>45018.288645833301</v>
       </c>
       <c r="D536" t="s">
         <v>30</v>
@@ -25167,7 +25201,7 @@
         <v>36</v>
       </c>
       <c r="B537" s="1">
-        <v>45018.289247685178</v>
+        <v>45018.289247685199</v>
       </c>
       <c r="D537" t="s">
         <v>37</v>
@@ -25202,7 +25236,7 @@
         <v>36</v>
       </c>
       <c r="B538" s="1">
-        <v>45018.289560185192</v>
+        <v>45018.2895601852</v>
       </c>
       <c r="D538" t="s">
         <v>30</v>
@@ -25237,7 +25271,7 @@
         <v>36</v>
       </c>
       <c r="B539" s="1">
-        <v>45018.289780092593</v>
+        <v>45018.2897800926</v>
       </c>
       <c r="D539" t="s">
         <v>37</v>
@@ -25272,7 +25306,7 @@
         <v>36</v>
       </c>
       <c r="B540" s="1">
-        <v>45018.289872685193</v>
+        <v>45018.2898726852</v>
       </c>
       <c r="D540" t="s">
         <v>37</v>
@@ -25307,7 +25341,7 @@
         <v>29</v>
       </c>
       <c r="B541" s="1">
-        <v>45018.292939814812</v>
+        <v>45018.292939814797</v>
       </c>
       <c r="C541">
         <v>903</v>
@@ -25407,7 +25441,7 @@
         <v>36</v>
       </c>
       <c r="B543" s="1">
-        <v>45018.31826388889</v>
+        <v>45018.318263888897</v>
       </c>
       <c r="D543" t="s">
         <v>30</v>
@@ -25442,7 +25476,7 @@
         <v>36</v>
       </c>
       <c r="B544" s="1">
-        <v>45018.328252314823</v>
+        <v>45018.328252314801</v>
       </c>
       <c r="D544" t="s">
         <v>30</v>
@@ -25477,7 +25511,7 @@
         <v>36</v>
       </c>
       <c r="B545" s="1">
-        <v>45018.351388888892</v>
+        <v>45018.351388888899</v>
       </c>
       <c r="D545" t="s">
         <v>30</v>
@@ -25512,7 +25546,7 @@
         <v>36</v>
       </c>
       <c r="B546" s="1">
-        <v>45018.352893518517</v>
+        <v>45018.352893518502</v>
       </c>
       <c r="D546" t="s">
         <v>69</v>
@@ -25547,7 +25581,7 @@
         <v>36</v>
       </c>
       <c r="B547" s="1">
-        <v>45018.353032407409</v>
+        <v>45018.353032407402</v>
       </c>
       <c r="D547" t="s">
         <v>69</v>
@@ -25582,7 +25616,7 @@
         <v>36</v>
       </c>
       <c r="B548" s="1">
-        <v>45018.353842592587</v>
+        <v>45018.353842592602</v>
       </c>
       <c r="D548" t="s">
         <v>30</v>
@@ -25617,7 +25651,7 @@
         <v>36</v>
       </c>
       <c r="B549" s="1">
-        <v>45018.354456018518</v>
+        <v>45018.354456018496</v>
       </c>
       <c r="D549" t="s">
         <v>69</v>
@@ -25652,7 +25686,7 @@
         <v>36</v>
       </c>
       <c r="B550" s="1">
-        <v>45018.354872685188</v>
+        <v>45018.354872685202</v>
       </c>
       <c r="D550" t="s">
         <v>69</v>
@@ -25687,7 +25721,7 @@
         <v>36</v>
       </c>
       <c r="B551" s="1">
-        <v>45018.355127314811</v>
+        <v>45018.355127314797</v>
       </c>
       <c r="D551" t="s">
         <v>30</v>
@@ -25722,7 +25756,7 @@
         <v>36</v>
       </c>
       <c r="B552" s="1">
-        <v>45018.355636574073</v>
+        <v>45018.355636574102</v>
       </c>
       <c r="D552" t="s">
         <v>37</v>
@@ -25757,7 +25791,7 @@
         <v>36</v>
       </c>
       <c r="B553" s="1">
-        <v>45018.355636574073</v>
+        <v>45018.355636574102</v>
       </c>
       <c r="D553" t="s">
         <v>30</v>
@@ -25792,7 +25826,7 @@
         <v>36</v>
       </c>
       <c r="B554" s="1">
-        <v>45018.356030092589</v>
+        <v>45018.356030092596</v>
       </c>
       <c r="D554" t="s">
         <v>69</v>
@@ -25827,7 +25861,7 @@
         <v>36</v>
       </c>
       <c r="B555" s="1">
-        <v>45018.356550925928</v>
+        <v>45018.356550925899</v>
       </c>
       <c r="D555" t="s">
         <v>30</v>
@@ -25897,7 +25931,7 @@
         <v>36</v>
       </c>
       <c r="B557" s="1">
-        <v>45018.356956018521</v>
+        <v>45018.356956018499</v>
       </c>
       <c r="D557" t="s">
         <v>92</v>
@@ -25932,7 +25966,7 @@
         <v>36</v>
       </c>
       <c r="B558" s="1">
-        <v>45018.357361111113</v>
+        <v>45018.357361111099</v>
       </c>
       <c r="D558" t="s">
         <v>69</v>
@@ -25967,7 +26001,7 @@
         <v>36</v>
       </c>
       <c r="B559" s="1">
-        <v>45018.357604166667</v>
+        <v>45018.357604166697</v>
       </c>
       <c r="D559" t="s">
         <v>30</v>
@@ -26002,7 +26036,7 @@
         <v>36</v>
       </c>
       <c r="B560" s="1">
-        <v>45018.357928240737</v>
+        <v>45018.357928240701</v>
       </c>
       <c r="D560" t="s">
         <v>69</v>
@@ -26037,7 +26071,7 @@
         <v>36</v>
       </c>
       <c r="B561" s="1">
-        <v>45018.358020833337</v>
+        <v>45018.358020833301</v>
       </c>
       <c r="D561" t="s">
         <v>30</v>
@@ -26072,7 +26106,7 @@
         <v>36</v>
       </c>
       <c r="B562" s="1">
-        <v>45018.358622685177</v>
+        <v>45018.358622685198</v>
       </c>
       <c r="D562" t="s">
         <v>30</v>
@@ -26107,7 +26141,7 @@
         <v>36</v>
       </c>
       <c r="B563" s="1">
-        <v>45018.35864583333</v>
+        <v>45018.358645833301</v>
       </c>
       <c r="D563" t="s">
         <v>92</v>
@@ -26142,7 +26176,7 @@
         <v>36</v>
       </c>
       <c r="B564" s="1">
-        <v>45018.359432870369</v>
+        <v>45018.359432870398</v>
       </c>
       <c r="D564" t="s">
         <v>69</v>
@@ -26177,7 +26211,7 @@
         <v>36</v>
       </c>
       <c r="B565" s="1">
-        <v>45018.359456018523</v>
+        <v>45018.359456018501</v>
       </c>
       <c r="D565" t="s">
         <v>92</v>
@@ -26212,7 +26246,7 @@
         <v>36</v>
       </c>
       <c r="B566" s="1">
-        <v>45018.360358796293</v>
+        <v>45018.360358796301</v>
       </c>
       <c r="D566" t="s">
         <v>30</v>
@@ -26247,7 +26281,7 @@
         <v>36</v>
       </c>
       <c r="B567" s="1">
-        <v>45018.361006944448</v>
+        <v>45018.361006944499</v>
       </c>
       <c r="D567" t="s">
         <v>30</v>
@@ -26282,7 +26316,7 @@
         <v>36</v>
       </c>
       <c r="B568" s="1">
-        <v>45018.361354166656</v>
+        <v>45018.3613541667</v>
       </c>
       <c r="D568" t="s">
         <v>92</v>
@@ -26317,7 +26351,7 @@
         <v>36</v>
       </c>
       <c r="B569" s="1">
-        <v>45018.362175925933</v>
+        <v>45018.362175925897</v>
       </c>
       <c r="D569" t="s">
         <v>30</v>
@@ -26387,7 +26421,7 @@
         <v>36</v>
       </c>
       <c r="B571" s="1">
-        <v>45018.368321759262</v>
+        <v>45018.368321759299</v>
       </c>
       <c r="D571" t="s">
         <v>30</v>
@@ -26422,7 +26456,7 @@
         <v>36</v>
       </c>
       <c r="B572" s="1">
-        <v>45018.369131944448</v>
+        <v>45018.369131944499</v>
       </c>
       <c r="D572" t="s">
         <v>37</v>
@@ -26457,7 +26491,7 @@
         <v>36</v>
       </c>
       <c r="B573" s="1">
-        <v>45018.369942129633</v>
+        <v>45018.369942129597</v>
       </c>
       <c r="D573" t="s">
         <v>30</v>
@@ -26527,7 +26561,7 @@
         <v>36</v>
       </c>
       <c r="B575" s="1">
-        <v>45018.370810185188</v>
+        <v>45018.370810185203</v>
       </c>
       <c r="D575" t="s">
         <v>30</v>
@@ -26562,7 +26596,7 @@
         <v>36</v>
       </c>
       <c r="B576" s="1">
-        <v>45018.371435185189</v>
+        <v>45018.371435185203</v>
       </c>
       <c r="D576" t="s">
         <v>37</v>
@@ -26597,7 +26631,7 @@
         <v>36</v>
       </c>
       <c r="B577" s="1">
-        <v>45018.372118055559</v>
+        <v>45018.372118055602</v>
       </c>
       <c r="D577" t="s">
         <v>37</v>
@@ -26632,7 +26666,7 @@
         <v>36</v>
       </c>
       <c r="B578" s="1">
-        <v>45018.372650462959</v>
+        <v>45018.372650463003</v>
       </c>
       <c r="D578" t="s">
         <v>30</v>
@@ -26667,7 +26701,7 @@
         <v>36</v>
       </c>
       <c r="B579" s="1">
-        <v>45018.373159722221</v>
+        <v>45018.373159722199</v>
       </c>
       <c r="D579" t="s">
         <v>30</v>
@@ -26702,7 +26736,7 @@
         <v>36</v>
       </c>
       <c r="B580" s="1">
-        <v>45018.374930555547</v>
+        <v>45018.374930555598</v>
       </c>
       <c r="D580" t="s">
         <v>37</v>
@@ -26772,7 +26806,7 @@
         <v>36</v>
       </c>
       <c r="B582" s="1">
-        <v>45018.375706018523</v>
+        <v>45018.375706018502</v>
       </c>
       <c r="D582" t="s">
         <v>30</v>
@@ -26807,7 +26841,7 @@
         <v>36</v>
       </c>
       <c r="B583" s="1">
-        <v>45018.376527777778</v>
+        <v>45018.3765277778</v>
       </c>
       <c r="D583" t="s">
         <v>37</v>
@@ -26842,7 +26876,7 @@
         <v>36</v>
       </c>
       <c r="B584" s="1">
-        <v>45018.377013888887</v>
+        <v>45018.377013888901</v>
       </c>
       <c r="D584" t="s">
         <v>37</v>
@@ -26877,7 +26911,7 @@
         <v>36</v>
       </c>
       <c r="B585" s="1">
-        <v>45018.377199074072</v>
+        <v>45018.377199074101</v>
       </c>
       <c r="D585" t="s">
         <v>30</v>
@@ -26912,7 +26946,7 @@
         <v>36</v>
       </c>
       <c r="B586" s="1">
-        <v>45018.377442129633</v>
+        <v>45018.377442129597</v>
       </c>
       <c r="D586" t="s">
         <v>37</v>
@@ -26947,7 +26981,7 @@
         <v>36</v>
       </c>
       <c r="B587" s="1">
-        <v>45018.37804398148</v>
+        <v>45018.378043981502</v>
       </c>
       <c r="D587" t="s">
         <v>37</v>
@@ -26982,7 +27016,7 @@
         <v>36</v>
       </c>
       <c r="B588" s="1">
-        <v>45018.378587962958</v>
+        <v>45018.378587963001</v>
       </c>
       <c r="D588" t="s">
         <v>30</v>
@@ -27017,7 +27051,7 @@
         <v>36</v>
       </c>
       <c r="B589" s="1">
-        <v>45018.378993055558</v>
+        <v>45018.378993055601</v>
       </c>
       <c r="D589" t="s">
         <v>30</v>
@@ -27052,7 +27086,7 @@
         <v>36</v>
       </c>
       <c r="B590" s="1">
-        <v>45018.379490740743</v>
+        <v>45018.379490740699</v>
       </c>
       <c r="D590" t="s">
         <v>37</v>
@@ -27087,7 +27121,7 @@
         <v>36</v>
       </c>
       <c r="B591" s="1">
-        <v>45018.380243055559</v>
+        <v>45018.380243055602</v>
       </c>
       <c r="D591" t="s">
         <v>37</v>
@@ -27122,7 +27156,7 @@
         <v>36</v>
       </c>
       <c r="B592" s="1">
-        <v>45018.380856481483</v>
+        <v>45018.380856481497</v>
       </c>
       <c r="D592" t="s">
         <v>30</v>
@@ -27157,7 +27191,7 @@
         <v>36</v>
       </c>
       <c r="B593" s="1">
-        <v>45018.381319444437</v>
+        <v>45018.381319444401</v>
       </c>
       <c r="D593" t="s">
         <v>37</v>
@@ -27192,7 +27226,7 @@
         <v>36</v>
       </c>
       <c r="B594" s="1">
-        <v>45018.395300925928</v>
+        <v>45018.395300925898</v>
       </c>
       <c r="D594" t="s">
         <v>92</v>
@@ -27227,7 +27261,7 @@
         <v>38</v>
       </c>
       <c r="B595" s="1">
-        <v>45018.407476851848</v>
+        <v>45018.407476851899</v>
       </c>
       <c r="C595">
         <v>285</v>
@@ -27280,7 +27314,7 @@
         <v>38</v>
       </c>
       <c r="B596" s="1">
-        <v>45018.411261574067</v>
+        <v>45018.411261574103</v>
       </c>
       <c r="C596">
         <v>372</v>
@@ -27333,7 +27367,7 @@
         <v>38</v>
       </c>
       <c r="B597" s="1">
-        <v>45018.418634259258</v>
+        <v>45018.418634259302</v>
       </c>
       <c r="C597">
         <v>108</v>
@@ -27386,7 +27420,7 @@
         <v>29</v>
       </c>
       <c r="B598" s="1">
-        <v>45018.424618055556</v>
+        <v>45018.4246180556</v>
       </c>
       <c r="C598">
         <v>27</v>
@@ -27436,7 +27470,7 @@
         <v>29</v>
       </c>
       <c r="B599" s="1">
-        <v>45018.426342592589</v>
+        <v>45018.426342592596</v>
       </c>
       <c r="C599">
         <v>302</v>
@@ -27486,7 +27520,7 @@
         <v>38</v>
       </c>
       <c r="B600" s="1">
-        <v>45018.433148148149</v>
+        <v>45018.4331481482</v>
       </c>
       <c r="C600">
         <v>326</v>
@@ -27539,7 +27573,7 @@
         <v>29</v>
       </c>
       <c r="B601" s="1">
-        <v>45018.434444444443</v>
+        <v>45018.4344444444</v>
       </c>
       <c r="C601">
         <v>129</v>
@@ -27589,7 +27623,7 @@
         <v>36</v>
       </c>
       <c r="B602" s="1">
-        <v>45018.434907407413</v>
+        <v>45018.434907407398</v>
       </c>
       <c r="D602" t="s">
         <v>69</v>
@@ -27624,7 +27658,7 @@
         <v>36</v>
       </c>
       <c r="B603" s="1">
-        <v>45018.436990740738</v>
+        <v>45018.436990740702</v>
       </c>
       <c r="D603" t="s">
         <v>69</v>
@@ -27659,7 +27693,7 @@
         <v>36</v>
       </c>
       <c r="B604" s="1">
-        <v>45018.437291666669</v>
+        <v>45018.437291666698</v>
       </c>
       <c r="D604" t="s">
         <v>30</v>
@@ -27694,7 +27728,7 @@
         <v>38</v>
       </c>
       <c r="B605" s="1">
-        <v>45018.437800925924</v>
+        <v>45018.437800925902</v>
       </c>
       <c r="C605">
         <v>196</v>
@@ -27747,7 +27781,7 @@
         <v>36</v>
       </c>
       <c r="B606" s="1">
-        <v>45018.437835648147</v>
+        <v>45018.437835648198</v>
       </c>
       <c r="D606" t="s">
         <v>69</v>
@@ -27782,7 +27816,7 @@
         <v>36</v>
       </c>
       <c r="B607" s="1">
-        <v>45018.437939814823</v>
+        <v>45018.437939814801</v>
       </c>
       <c r="D607" t="s">
         <v>92</v>
@@ -27817,7 +27851,7 @@
         <v>36</v>
       </c>
       <c r="B608" s="1">
-        <v>45018.438761574071</v>
+        <v>45018.4387615741</v>
       </c>
       <c r="D608" t="s">
         <v>30</v>
@@ -27852,7 +27886,7 @@
         <v>36</v>
       </c>
       <c r="B609" s="1">
-        <v>45018.438946759263</v>
+        <v>45018.438946759299</v>
       </c>
       <c r="D609" t="s">
         <v>30</v>
@@ -27887,7 +27921,7 @@
         <v>36</v>
       </c>
       <c r="B610" s="1">
-        <v>45018.439571759263</v>
+        <v>45018.4395717593</v>
       </c>
       <c r="D610" t="s">
         <v>69</v>
@@ -27922,7 +27956,7 @@
         <v>36</v>
       </c>
       <c r="B611" s="1">
-        <v>45018.44021990741</v>
+        <v>45018.440219907403</v>
       </c>
       <c r="D611" t="s">
         <v>30</v>
@@ -27957,7 +27991,7 @@
         <v>29</v>
       </c>
       <c r="B612" s="1">
-        <v>45018.442928240736</v>
+        <v>45018.4429282407</v>
       </c>
       <c r="C612">
         <v>3455</v>
@@ -28007,7 +28041,7 @@
         <v>36</v>
       </c>
       <c r="B613" s="1">
-        <v>45018.446145833332</v>
+        <v>45018.446145833303</v>
       </c>
       <c r="D613" t="s">
         <v>92</v>
@@ -28042,7 +28076,7 @@
         <v>36</v>
       </c>
       <c r="B614" s="1">
-        <v>45018.44803240741</v>
+        <v>45018.448032407403</v>
       </c>
       <c r="D614" t="s">
         <v>30</v>
@@ -28077,7 +28111,7 @@
         <v>36</v>
       </c>
       <c r="B615" s="1">
-        <v>45018.44835648148</v>
+        <v>45018.448356481502</v>
       </c>
       <c r="D615" t="s">
         <v>30</v>
@@ -28112,7 +28146,7 @@
         <v>36</v>
       </c>
       <c r="B616" s="1">
-        <v>45018.448738425926</v>
+        <v>45018.448738425897</v>
       </c>
       <c r="D616" t="s">
         <v>30</v>
@@ -28147,7 +28181,7 @@
         <v>36</v>
       </c>
       <c r="B617" s="1">
-        <v>45018.448912037027</v>
+        <v>45018.448912036998</v>
       </c>
       <c r="D617" t="s">
         <v>92</v>
@@ -28182,7 +28216,7 @@
         <v>36</v>
       </c>
       <c r="B618" s="1">
-        <v>45018.449479166673</v>
+        <v>45018.449479166702</v>
       </c>
       <c r="D618" t="s">
         <v>92</v>
@@ -28217,7 +28251,7 @@
         <v>36</v>
       </c>
       <c r="B619" s="1">
-        <v>45018.449664351851</v>
+        <v>45018.449664351901</v>
       </c>
       <c r="D619" t="s">
         <v>92</v>
@@ -28252,7 +28286,7 @@
         <v>36</v>
       </c>
       <c r="B620" s="1">
-        <v>45018.450162037043</v>
+        <v>45018.450162036999</v>
       </c>
       <c r="D620" t="s">
         <v>30</v>
@@ -28287,7 +28321,7 @@
         <v>36</v>
       </c>
       <c r="B621" s="1">
-        <v>45018.460844907408</v>
+        <v>45018.4608449074</v>
       </c>
       <c r="D621" t="s">
         <v>30</v>
@@ -28322,7 +28356,7 @@
         <v>36</v>
       </c>
       <c r="B622" s="1">
-        <v>45018.463194444441</v>
+        <v>45018.463194444397</v>
       </c>
       <c r="D622" t="s">
         <v>30</v>
@@ -28357,7 +28391,7 @@
         <v>36</v>
       </c>
       <c r="B623" s="1">
-        <v>45018.463379629633</v>
+        <v>45018.463379629597</v>
       </c>
       <c r="D623" t="s">
         <v>30</v>
@@ -28392,7 +28426,7 @@
         <v>36</v>
       </c>
       <c r="B624" s="1">
-        <v>45018.46402777778</v>
+        <v>45018.464027777802</v>
       </c>
       <c r="D624" t="s">
         <v>30</v>
@@ -28427,7 +28461,7 @@
         <v>36</v>
       </c>
       <c r="B625" s="1">
-        <v>45018.464571759258</v>
+        <v>45018.464571759301</v>
       </c>
       <c r="D625" t="s">
         <v>37</v>
@@ -28462,7 +28496,7 @@
         <v>36</v>
       </c>
       <c r="B626" s="1">
-        <v>45018.465173611112</v>
+        <v>45018.465173611097</v>
       </c>
       <c r="D626" t="s">
         <v>30</v>
@@ -28497,7 +28531,7 @@
         <v>36</v>
       </c>
       <c r="B627" s="1">
-        <v>45018.465949074067</v>
+        <v>45018.465949074103</v>
       </c>
       <c r="D627" t="s">
         <v>30</v>
@@ -28532,7 +28566,7 @@
         <v>36</v>
       </c>
       <c r="B628" s="1">
-        <v>45018.466192129628</v>
+        <v>45018.466192129599</v>
       </c>
       <c r="D628" t="s">
         <v>37</v>
@@ -28567,7 +28601,7 @@
         <v>36</v>
       </c>
       <c r="B629" s="1">
-        <v>45018.466631944437</v>
+        <v>45018.4666319444</v>
       </c>
       <c r="D629" t="s">
         <v>37</v>
@@ -28602,7 +28636,7 @@
         <v>36</v>
       </c>
       <c r="B630" s="1">
-        <v>45018.466840277782</v>
+        <v>45018.466840277797</v>
       </c>
       <c r="D630" t="s">
         <v>30</v>
@@ -28637,7 +28671,7 @@
         <v>36</v>
       </c>
       <c r="B631" s="1">
-        <v>45018.467094907413</v>
+        <v>45018.467094907399</v>
       </c>
       <c r="D631" t="s">
         <v>30</v>
@@ -28672,7 +28706,7 @@
         <v>36</v>
       </c>
       <c r="B632" s="1">
-        <v>45018.467280092591</v>
+        <v>45018.467280092598</v>
       </c>
       <c r="D632" t="s">
         <v>30</v>
@@ -28707,7 +28741,7 @@
         <v>36</v>
       </c>
       <c r="B633" s="1">
-        <v>45018.511018518519</v>
+        <v>45018.511018518497</v>
       </c>
       <c r="D633" t="s">
         <v>30</v>
@@ -28763,7 +28797,7 @@
         <v>29</v>
       </c>
       <c r="B634" s="1">
-        <v>45018.514664351853</v>
+        <v>45018.514664351896</v>
       </c>
       <c r="C634">
         <v>5</v>
@@ -28813,7 +28847,7 @@
         <v>29</v>
       </c>
       <c r="B635" s="1">
-        <v>45018.515266203707</v>
+        <v>45018.5152662037</v>
       </c>
       <c r="C635">
         <v>11</v>
@@ -28863,7 +28897,7 @@
         <v>29</v>
       </c>
       <c r="B636" s="1">
-        <v>45018.517048611109</v>
+        <v>45018.517048611102</v>
       </c>
       <c r="C636">
         <v>18</v>
@@ -28913,7 +28947,7 @@
         <v>29</v>
       </c>
       <c r="B637" s="1">
-        <v>45018.524837962963</v>
+        <v>45018.524837962999</v>
       </c>
       <c r="C637">
         <v>34</v>
@@ -28963,7 +28997,7 @@
         <v>36</v>
       </c>
       <c r="B638" s="1">
-        <v>45018.526979166672</v>
+        <v>45018.526979166701</v>
       </c>
       <c r="D638" t="s">
         <v>30</v>
@@ -29033,7 +29067,7 @@
         <v>36</v>
       </c>
       <c r="B640" s="1">
-        <v>45018.528680555559</v>
+        <v>45018.528680555602</v>
       </c>
       <c r="D640" t="s">
         <v>30</v>
@@ -29068,7 +29102,7 @@
         <v>29</v>
       </c>
       <c r="B641" s="1">
-        <v>45018.528900462959</v>
+        <v>45018.528900463003</v>
       </c>
       <c r="C641">
         <v>66</v>
@@ -29118,7 +29152,7 @@
         <v>36</v>
       </c>
       <c r="B642" s="1">
-        <v>45018.529120370367</v>
+        <v>45018.529120370396</v>
       </c>
       <c r="D642" t="s">
         <v>69</v>
@@ -29153,7 +29187,7 @@
         <v>36</v>
       </c>
       <c r="B643" s="1">
-        <v>45018.529918981483</v>
+        <v>45018.529918981498</v>
       </c>
       <c r="D643" t="s">
         <v>69</v>
@@ -29188,7 +29222,7 @@
         <v>36</v>
       </c>
       <c r="B644" s="1">
-        <v>45018.530335648153</v>
+        <v>45018.530335648204</v>
       </c>
       <c r="D644" t="s">
         <v>30</v>
@@ -29223,7 +29257,7 @@
         <v>36</v>
       </c>
       <c r="B645" s="1">
-        <v>45018.531122685177</v>
+        <v>45018.531122685199</v>
       </c>
       <c r="D645" t="s">
         <v>30</v>
@@ -29258,7 +29292,7 @@
         <v>36</v>
       </c>
       <c r="B646" s="1">
-        <v>45018.531331018523</v>
+        <v>45018.531331018501</v>
       </c>
       <c r="D646" t="s">
         <v>69</v>
@@ -29293,7 +29327,7 @@
         <v>36</v>
       </c>
       <c r="B647" s="1">
-        <v>45018.531435185178</v>
+        <v>45018.531435185199</v>
       </c>
       <c r="D647" t="s">
         <v>69</v>
@@ -29328,7 +29362,7 @@
         <v>36</v>
       </c>
       <c r="B648" s="1">
-        <v>45018.531909722216</v>
+        <v>45018.531909722202</v>
       </c>
       <c r="D648" t="s">
         <v>69</v>
@@ -29363,7 +29397,7 @@
         <v>29</v>
       </c>
       <c r="B649" s="1">
-        <v>45018.532430555562</v>
+        <v>45018.532430555599</v>
       </c>
       <c r="C649">
         <v>7909</v>
@@ -29448,7 +29482,7 @@
         <v>36</v>
       </c>
       <c r="B651" s="1">
-        <v>45018.53334490741</v>
+        <v>45018.533344907402</v>
       </c>
       <c r="D651" t="s">
         <v>69</v>
@@ -29483,7 +29517,7 @@
         <v>36</v>
       </c>
       <c r="B652" s="1">
-        <v>45018.534039351849</v>
+        <v>45018.5340393519</v>
       </c>
       <c r="D652" t="s">
         <v>69</v>
@@ -29553,7 +29587,7 @@
         <v>36</v>
       </c>
       <c r="B654" s="1">
-        <v>45018.535497685189</v>
+        <v>45018.535497685203</v>
       </c>
       <c r="D654" t="s">
         <v>30</v>
@@ -29588,7 +29622,7 @@
         <v>36</v>
       </c>
       <c r="B655" s="1">
-        <v>45018.537060185183</v>
+        <v>45018.537060185197</v>
       </c>
       <c r="D655" t="s">
         <v>30</v>
@@ -29623,7 +29657,7 @@
         <v>38</v>
       </c>
       <c r="B656" s="1">
-        <v>45018.559988425928</v>
+        <v>45018.559988425899</v>
       </c>
       <c r="C656">
         <v>446</v>
@@ -29712,7 +29746,7 @@
         <v>38</v>
       </c>
       <c r="B657" s="1">
-        <v>45018.564293981479</v>
+        <v>45018.564293981501</v>
       </c>
       <c r="C657">
         <v>442</v>
@@ -29801,7 +29835,7 @@
         <v>36</v>
       </c>
       <c r="B658" s="1">
-        <v>45018.58353009259</v>
+        <v>45018.583530092597</v>
       </c>
       <c r="D658" t="s">
         <v>83</v>
@@ -29857,7 +29891,7 @@
         <v>38</v>
       </c>
       <c r="B659" s="1">
-        <v>45018.593773148154</v>
+        <v>45018.593773148197</v>
       </c>
       <c r="C659">
         <v>357</v>
@@ -29910,7 +29944,7 @@
         <v>38</v>
       </c>
       <c r="B660" s="1">
-        <v>45018.604710648149</v>
+        <v>45018.6047106482</v>
       </c>
       <c r="C660">
         <v>485</v>
@@ -29999,7 +30033,7 @@
         <v>36</v>
       </c>
       <c r="B661" s="1">
-        <v>45018.61377314815</v>
+        <v>45018.613773148201</v>
       </c>
       <c r="D661" t="s">
         <v>63</v>
@@ -30034,7 +30068,7 @@
         <v>38</v>
       </c>
       <c r="B662" s="1">
-        <v>45018.613807870373</v>
+        <v>45018.613807870403</v>
       </c>
       <c r="C662">
         <v>422</v>
@@ -30087,7 +30121,7 @@
         <v>36</v>
       </c>
       <c r="B663" s="1">
-        <v>45018.61515046296</v>
+        <v>45018.615150463003</v>
       </c>
       <c r="D663" t="s">
         <v>63</v>
@@ -30122,7 +30156,7 @@
         <v>36</v>
       </c>
       <c r="B664" s="1">
-        <v>45018.615439814806</v>
+        <v>45018.615439814799</v>
       </c>
       <c r="D664" t="s">
         <v>30</v>
@@ -30157,7 +30191,7 @@
         <v>36</v>
       </c>
       <c r="B665" s="1">
-        <v>45018.615879629629</v>
+        <v>45018.6158796296</v>
       </c>
       <c r="D665" t="s">
         <v>30</v>
@@ -30192,7 +30226,7 @@
         <v>36</v>
       </c>
       <c r="B666" s="1">
-        <v>45018.616111111107</v>
+        <v>45018.6161111111</v>
       </c>
       <c r="D666" t="s">
         <v>63</v>
@@ -30227,7 +30261,7 @@
         <v>36</v>
       </c>
       <c r="B667" s="1">
-        <v>45018.617002314822</v>
+        <v>45018.617002314801</v>
       </c>
       <c r="D667" t="s">
         <v>30</v>
@@ -30262,7 +30296,7 @@
         <v>36</v>
       </c>
       <c r="B668" s="1">
-        <v>45018.617129629631</v>
+        <v>45018.617129629602</v>
       </c>
       <c r="D668" t="s">
         <v>30</v>
@@ -30297,7 +30331,7 @@
         <v>36</v>
       </c>
       <c r="B669" s="1">
-        <v>45018.617673611108</v>
+        <v>45018.617673611101</v>
       </c>
       <c r="D669" t="s">
         <v>30</v>
@@ -30367,7 +30401,7 @@
         <v>36</v>
       </c>
       <c r="B671" s="1">
-        <v>45018.618622685193</v>
+        <v>45018.618622685201</v>
       </c>
       <c r="D671" t="s">
         <v>63</v>
@@ -30402,7 +30436,7 @@
         <v>36</v>
       </c>
       <c r="B672" s="1">
-        <v>45018.619340277779</v>
+        <v>45018.619340277801</v>
       </c>
       <c r="D672" t="s">
         <v>30</v>
@@ -30437,7 +30471,7 @@
         <v>36</v>
       </c>
       <c r="B673" s="1">
-        <v>45018.619930555556</v>
+        <v>45018.6199305556</v>
       </c>
       <c r="D673" t="s">
         <v>30</v>
@@ -30472,7 +30506,7 @@
         <v>36</v>
       </c>
       <c r="B674" s="1">
-        <v>45018.620648148149</v>
+        <v>45018.6206481482</v>
       </c>
       <c r="D674" t="s">
         <v>63</v>
@@ -30507,7 +30541,7 @@
         <v>36</v>
       </c>
       <c r="B675" s="1">
-        <v>45018.620868055557</v>
+        <v>45018.620868055601</v>
       </c>
       <c r="D675" t="s">
         <v>30</v>
@@ -30542,7 +30576,7 @@
         <v>36</v>
       </c>
       <c r="B676" s="1">
-        <v>45018.621840277781</v>
+        <v>45018.621840277803</v>
       </c>
       <c r="D676" t="s">
         <v>37</v>
@@ -30577,7 +30611,7 @@
         <v>38</v>
       </c>
       <c r="B677" s="1">
-        <v>45018.651863425926</v>
+        <v>45018.651863425897</v>
       </c>
       <c r="C677">
         <v>270</v>
@@ -30722,7 +30756,7 @@
         <v>36</v>
       </c>
       <c r="B679" s="1">
-        <v>45018.654583333337</v>
+        <v>45018.6545833333</v>
       </c>
       <c r="D679" t="s">
         <v>30</v>
@@ -30834,7 +30868,7 @@
         <v>36</v>
       </c>
       <c r="B681" s="1">
-        <v>45018.656111111108</v>
+        <v>45018.6561111111</v>
       </c>
       <c r="D681" t="s">
         <v>30</v>
@@ -30890,7 +30924,7 @@
         <v>36</v>
       </c>
       <c r="B682" s="1">
-        <v>45018.656354166669</v>
+        <v>45018.656354166698</v>
       </c>
       <c r="D682" t="s">
         <v>83</v>
@@ -30946,7 +30980,7 @@
         <v>36</v>
       </c>
       <c r="B683" s="1">
-        <v>45018.656689814823</v>
+        <v>45018.656689814801</v>
       </c>
       <c r="D683" t="s">
         <v>83</v>
@@ -31002,7 +31036,7 @@
         <v>36</v>
       </c>
       <c r="B684" s="1">
-        <v>45018.657222222217</v>
+        <v>45018.657222222202</v>
       </c>
       <c r="D684" t="s">
         <v>30</v>
@@ -31058,7 +31092,7 @@
         <v>36</v>
       </c>
       <c r="B685" s="1">
-        <v>45018.657557870371</v>
+        <v>45018.6575578704</v>
       </c>
       <c r="D685" t="s">
         <v>30</v>
@@ -31114,7 +31148,7 @@
         <v>36</v>
       </c>
       <c r="B686" s="1">
-        <v>45018.65828703704</v>
+        <v>45018.658287036997</v>
       </c>
       <c r="D686" t="s">
         <v>83</v>
@@ -31170,7 +31204,7 @@
         <v>36</v>
       </c>
       <c r="B687" s="1">
-        <v>45018.658472222232</v>
+        <v>45018.658472222203</v>
       </c>
       <c r="D687" t="s">
         <v>30</v>
@@ -31338,7 +31372,7 @@
         <v>36</v>
       </c>
       <c r="B690" s="1">
-        <v>45018.659918981481</v>
+        <v>45018.659918981502</v>
       </c>
       <c r="D690" t="s">
         <v>30</v>
@@ -31394,7 +31428,7 @@
         <v>36</v>
       </c>
       <c r="B691" s="1">
-        <v>45018.660462962973</v>
+        <v>45018.660462963002</v>
       </c>
       <c r="D691" t="s">
         <v>83</v>
@@ -31450,7 +31484,7 @@
         <v>29</v>
       </c>
       <c r="B692" s="1">
-        <v>45018.685868055552</v>
+        <v>45018.685868055603</v>
       </c>
       <c r="C692">
         <v>4</v>
@@ -31500,7 +31534,7 @@
         <v>36</v>
       </c>
       <c r="B693" s="1">
-        <v>45018.687349537038</v>
+        <v>45018.687349537002</v>
       </c>
       <c r="D693" t="s">
         <v>65</v>
@@ -31535,7 +31569,7 @@
         <v>36</v>
       </c>
       <c r="B694" s="1">
-        <v>45018.688217592593</v>
+        <v>45018.6882175926</v>
       </c>
       <c r="D694" t="s">
         <v>30</v>
@@ -31570,7 +31604,7 @@
         <v>36</v>
       </c>
       <c r="B695" s="1">
-        <v>45018.688472222217</v>
+        <v>45018.688472222202</v>
       </c>
       <c r="D695" t="s">
         <v>65</v>
@@ -31605,7 +31639,7 @@
         <v>36</v>
       </c>
       <c r="B696" s="1">
-        <v>45018.689317129632</v>
+        <v>45018.689317129603</v>
       </c>
       <c r="D696" t="s">
         <v>30</v>
@@ -31640,7 +31674,7 @@
         <v>36</v>
       </c>
       <c r="B697" s="1">
-        <v>45018.689629629633</v>
+        <v>45018.689629629604</v>
       </c>
       <c r="D697" t="s">
         <v>30</v>
@@ -31675,7 +31709,7 @@
         <v>36</v>
       </c>
       <c r="B698" s="1">
-        <v>45018.690555555557</v>
+        <v>45018.6905555556</v>
       </c>
       <c r="D698" t="s">
         <v>65</v>
@@ -31710,7 +31744,7 @@
         <v>36</v>
       </c>
       <c r="B699" s="1">
-        <v>45018.690879629627</v>
+        <v>45018.690879629597</v>
       </c>
       <c r="D699" t="s">
         <v>65</v>
@@ -31745,7 +31779,7 @@
         <v>36</v>
       </c>
       <c r="B700" s="1">
-        <v>45018.69158564815</v>
+        <v>45018.691585648201</v>
       </c>
       <c r="D700" t="s">
         <v>30</v>
@@ -31780,7 +31814,7 @@
         <v>29</v>
       </c>
       <c r="B701" s="1">
-        <v>45018.691666666673</v>
+        <v>45018.691666666702</v>
       </c>
       <c r="C701">
         <v>2090</v>
@@ -31830,7 +31864,7 @@
         <v>36</v>
       </c>
       <c r="B702" s="1">
-        <v>45018.692118055558</v>
+        <v>45018.692118055602</v>
       </c>
       <c r="D702" t="s">
         <v>65</v>
@@ -31865,7 +31899,7 @@
         <v>36</v>
       </c>
       <c r="B703" s="1">
-        <v>45018.692314814813</v>
+        <v>45018.692314814798</v>
       </c>
       <c r="D703" t="s">
         <v>30</v>
@@ -31900,7 +31934,7 @@
         <v>36</v>
       </c>
       <c r="B704" s="1">
-        <v>45018.69258101852</v>
+        <v>45018.692581018498</v>
       </c>
       <c r="D704" t="s">
         <v>30</v>
@@ -31935,7 +31969,7 @@
         <v>36</v>
       </c>
       <c r="B705" s="1">
-        <v>45018.693425925929</v>
+        <v>45018.6934259259</v>
       </c>
       <c r="D705" t="s">
         <v>65</v>
@@ -31970,7 +32004,7 @@
         <v>36</v>
       </c>
       <c r="B706" s="1">
-        <v>45018.694027777783</v>
+        <v>45018.694027777798</v>
       </c>
       <c r="D706" t="s">
         <v>30</v>
@@ -32005,7 +32039,7 @@
         <v>36</v>
       </c>
       <c r="B707" s="1">
-        <v>45018.694710648153</v>
+        <v>45018.694710648197</v>
       </c>
       <c r="D707" t="s">
         <v>65</v>
@@ -32040,7 +32074,7 @@
         <v>36</v>
       </c>
       <c r="B708" s="1">
-        <v>45018.695532407408</v>
+        <v>45018.695532407401</v>
       </c>
       <c r="D708" t="s">
         <v>30</v>
@@ -32075,7 +32109,7 @@
         <v>36</v>
       </c>
       <c r="B709" s="1">
-        <v>45018.696122685193</v>
+        <v>45018.6961226852</v>
       </c>
       <c r="D709" t="s">
         <v>30</v>
@@ -32110,7 +32144,7 @@
         <v>38</v>
       </c>
       <c r="B710" s="1">
-        <v>45018.713946759257</v>
+        <v>45018.713946759301</v>
       </c>
       <c r="C710">
         <v>93</v>
@@ -32198,7 +32232,7 @@
         <v>36</v>
       </c>
       <c r="B712" s="1">
-        <v>45018.720636574071</v>
+        <v>45018.7206365741</v>
       </c>
       <c r="D712" t="s">
         <v>37</v>
@@ -32233,7 +32267,7 @@
         <v>36</v>
       </c>
       <c r="B713" s="1">
-        <v>45018.721331018518</v>
+        <v>45018.721331018503</v>
       </c>
       <c r="D713" t="s">
         <v>37</v>
@@ -32268,7 +32302,7 @@
         <v>36</v>
       </c>
       <c r="B714" s="1">
-        <v>45018.723541666674</v>
+        <v>45018.723541666703</v>
       </c>
       <c r="D714" t="s">
         <v>37</v>
@@ -32303,7 +32337,7 @@
         <v>36</v>
       </c>
       <c r="B715" s="1">
-        <v>45018.736134259263</v>
+        <v>45018.736134259299</v>
       </c>
       <c r="D715" t="s">
         <v>30</v>
@@ -32338,7 +32372,7 @@
         <v>38</v>
       </c>
       <c r="B716" s="1">
-        <v>45018.736840277779</v>
+        <v>45018.736840277801</v>
       </c>
       <c r="C716">
         <v>106</v>
@@ -32427,7 +32461,7 @@
         <v>36</v>
       </c>
       <c r="B717" s="1">
-        <v>45018.738587962973</v>
+        <v>45018.738587963002</v>
       </c>
       <c r="D717" t="s">
         <v>30</v>
@@ -32462,7 +32496,7 @@
         <v>36</v>
       </c>
       <c r="B718" s="1">
-        <v>45018.739918981482</v>
+        <v>45018.739918981497</v>
       </c>
       <c r="D718" t="s">
         <v>30</v>
@@ -32497,7 +32531,7 @@
         <v>29</v>
       </c>
       <c r="B719" s="1">
-        <v>45018.740451388891</v>
+        <v>45018.740451388898</v>
       </c>
       <c r="C719">
         <v>64</v>
@@ -32582,7 +32616,7 @@
         <v>36</v>
       </c>
       <c r="B721" s="1">
-        <v>45018.741111111107</v>
+        <v>45018.7411111111</v>
       </c>
       <c r="D721" t="s">
         <v>65</v>
@@ -32617,7 +32651,7 @@
         <v>36</v>
       </c>
       <c r="B722" s="1">
-        <v>45018.742002314822</v>
+        <v>45018.742002314801</v>
       </c>
       <c r="D722" t="s">
         <v>30</v>
@@ -32652,7 +32686,7 @@
         <v>38</v>
       </c>
       <c r="B723" s="1">
-        <v>45018.742002314822</v>
+        <v>45018.742002314801</v>
       </c>
       <c r="C723">
         <v>39</v>
@@ -32705,7 +32739,7 @@
         <v>36</v>
       </c>
       <c r="B724" s="1">
-        <v>45018.742662037039</v>
+        <v>45018.742662037002</v>
       </c>
       <c r="D724" t="s">
         <v>30</v>
@@ -32740,7 +32774,7 @@
         <v>36</v>
       </c>
       <c r="B725" s="1">
-        <v>45018.743541666663</v>
+        <v>45018.743541666699</v>
       </c>
       <c r="D725" t="s">
         <v>65</v>
@@ -32775,7 +32809,7 @@
         <v>36</v>
       </c>
       <c r="B726" s="1">
-        <v>45018.743634259263</v>
+        <v>45018.743634259299</v>
       </c>
       <c r="D726" t="s">
         <v>65</v>
@@ -32810,7 +32844,7 @@
         <v>36</v>
       </c>
       <c r="B727" s="1">
-        <v>45018.744108796287</v>
+        <v>45018.744108796302</v>
       </c>
       <c r="D727" t="s">
         <v>65</v>
@@ -32845,7 +32879,7 @@
         <v>29</v>
       </c>
       <c r="B728" s="1">
-        <v>45018.744976851849</v>
+        <v>45018.7449768519</v>
       </c>
       <c r="C728">
         <v>2</v>
@@ -32895,7 +32929,7 @@
         <v>36</v>
       </c>
       <c r="B729" s="1">
-        <v>45018.745023148149</v>
+        <v>45018.7450231482</v>
       </c>
       <c r="D729" t="s">
         <v>30</v>
@@ -32930,7 +32964,7 @@
         <v>36</v>
       </c>
       <c r="B730" s="1">
-        <v>45018.745439814818</v>
+        <v>45018.745439814797</v>
       </c>
       <c r="D730" t="s">
         <v>30</v>
@@ -32965,7 +32999,7 @@
         <v>36</v>
       </c>
       <c r="B731" s="1">
-        <v>45018.746111111112</v>
+        <v>45018.746111111097</v>
       </c>
       <c r="D731" t="s">
         <v>65</v>
@@ -33085,7 +33119,7 @@
         <v>36</v>
       </c>
       <c r="B734" s="1">
-        <v>45018.747662037043</v>
+        <v>45018.747662037</v>
       </c>
       <c r="D734" t="s">
         <v>30</v>
@@ -33120,7 +33154,7 @@
         <v>36</v>
       </c>
       <c r="B735" s="1">
-        <v>45018.749212962961</v>
+        <v>45018.749212962997</v>
       </c>
       <c r="D735" t="s">
         <v>39</v>
@@ -33176,7 +33210,7 @@
         <v>29</v>
       </c>
       <c r="B736" s="1">
-        <v>45018.756273148138</v>
+        <v>45018.756273148101</v>
       </c>
       <c r="C736">
         <v>708</v>
@@ -33226,7 +33260,7 @@
         <v>29</v>
       </c>
       <c r="B737" s="1">
-        <v>45018.773842592593</v>
+        <v>45018.7738425926</v>
       </c>
       <c r="C737">
         <v>1410</v>
@@ -33276,7 +33310,7 @@
         <v>36</v>
       </c>
       <c r="B738" s="1">
-        <v>45018.776226851849</v>
+        <v>45018.7762268519</v>
       </c>
       <c r="D738" t="s">
         <v>30</v>
@@ -33311,7 +33345,7 @@
         <v>36</v>
       </c>
       <c r="B739" s="1">
-        <v>45018.784918981481</v>
+        <v>45018.784918981502</v>
       </c>
       <c r="D739" t="s">
         <v>39</v>
@@ -33367,7 +33401,7 @@
         <v>38</v>
       </c>
       <c r="B740" s="1">
-        <v>45018.789363425924</v>
+        <v>45018.789363425902</v>
       </c>
       <c r="C740">
         <v>154</v>
@@ -33456,7 +33490,7 @@
         <v>38</v>
       </c>
       <c r="B741" s="1">
-        <v>45018.793240740742</v>
+        <v>45018.793240740699</v>
       </c>
       <c r="C741">
         <v>497</v>
@@ -33509,7 +33543,7 @@
         <v>36</v>
       </c>
       <c r="B742" s="1">
-        <v>45018.797465277778</v>
+        <v>45018.797465277799</v>
       </c>
       <c r="D742" t="s">
         <v>39</v>
@@ -33565,7 +33599,7 @@
         <v>36</v>
       </c>
       <c r="B743" s="1">
-        <v>45018.804791666669</v>
+        <v>45018.804791666698</v>
       </c>
       <c r="D743" t="s">
         <v>30</v>
@@ -33600,7 +33634,7 @@
         <v>36</v>
       </c>
       <c r="B744" s="1">
-        <v>45018.805590277778</v>
+        <v>45018.8055902778</v>
       </c>
       <c r="D744" t="s">
         <v>30</v>
@@ -33635,7 +33669,7 @@
         <v>36</v>
       </c>
       <c r="B745" s="1">
-        <v>45018.805902777778</v>
+        <v>45018.8059027778</v>
       </c>
       <c r="D745" t="s">
         <v>65</v>
@@ -33670,7 +33704,7 @@
         <v>36</v>
       </c>
       <c r="B746" s="1">
-        <v>45018.806423611109</v>
+        <v>45018.806423611102</v>
       </c>
       <c r="D746" t="s">
         <v>30</v>
@@ -33740,7 +33774,7 @@
         <v>36</v>
       </c>
       <c r="B748" s="1">
-        <v>45018.807719907411</v>
+        <v>45018.807719907403</v>
       </c>
       <c r="D748" t="s">
         <v>65</v>
@@ -33775,7 +33809,7 @@
         <v>36</v>
       </c>
       <c r="B749" s="1">
-        <v>45018.80804398148</v>
+        <v>45018.808043981502</v>
       </c>
       <c r="D749" t="s">
         <v>65</v>
@@ -33845,7 +33879,7 @@
         <v>36</v>
       </c>
       <c r="B751" s="1">
-        <v>45018.808634259258</v>
+        <v>45018.808634259301</v>
       </c>
       <c r="D751" t="s">
         <v>30</v>
@@ -33880,7 +33914,7 @@
         <v>36</v>
       </c>
       <c r="B752" s="1">
-        <v>45018.80872685185</v>
+        <v>45018.808726851901</v>
       </c>
       <c r="D752" t="s">
         <v>30</v>
@@ -33936,7 +33970,7 @@
         <v>36</v>
       </c>
       <c r="B753" s="1">
-        <v>45018.808912037042</v>
+        <v>45018.808912036999</v>
       </c>
       <c r="D753" t="s">
         <v>30</v>
@@ -33971,7 +34005,7 @@
         <v>36</v>
       </c>
       <c r="B754" s="1">
-        <v>45018.809120370373</v>
+        <v>45018.809120370403</v>
       </c>
       <c r="D754" t="s">
         <v>65</v>
@@ -34006,7 +34040,7 @@
         <v>36</v>
       </c>
       <c r="B755" s="1">
-        <v>45018.809618055559</v>
+        <v>45018.809618055602</v>
       </c>
       <c r="D755" t="s">
         <v>39</v>
@@ -34062,7 +34096,7 @@
         <v>36</v>
       </c>
       <c r="B756" s="1">
-        <v>45018.809756944444</v>
+        <v>45018.8097569444</v>
       </c>
       <c r="D756" t="s">
         <v>30</v>
@@ -34097,7 +34131,7 @@
         <v>29</v>
       </c>
       <c r="B757" s="1">
-        <v>45018.810069444437</v>
+        <v>45018.8100694444</v>
       </c>
       <c r="C757">
         <v>383</v>
@@ -34197,7 +34231,7 @@
         <v>36</v>
       </c>
       <c r="B759" s="1">
-        <v>45018.810324074067</v>
+        <v>45018.810324074097</v>
       </c>
       <c r="D759" t="s">
         <v>30</v>
@@ -34232,7 +34266,7 @@
         <v>36</v>
       </c>
       <c r="B760" s="1">
-        <v>45018.810891203713</v>
+        <v>45018.810891203699</v>
       </c>
       <c r="D760" t="s">
         <v>30</v>
@@ -34288,7 +34322,7 @@
         <v>36</v>
       </c>
       <c r="B761" s="1">
-        <v>45018.811006944437</v>
+        <v>45018.811006944401</v>
       </c>
       <c r="D761" t="s">
         <v>65</v>
@@ -34323,7 +34357,7 @@
         <v>36</v>
       </c>
       <c r="B762" s="1">
-        <v>45018.81322916667</v>
+        <v>45018.813229166699</v>
       </c>
       <c r="D762" t="s">
         <v>30</v>
@@ -34379,7 +34413,7 @@
         <v>36</v>
       </c>
       <c r="B763" s="1">
-        <v>45018.813564814824</v>
+        <v>45018.813564814802</v>
       </c>
       <c r="D763" t="s">
         <v>30</v>
@@ -34491,7 +34525,7 @@
         <v>36</v>
       </c>
       <c r="B765" s="1">
-        <v>45018.814293981479</v>
+        <v>45018.814293981501</v>
       </c>
       <c r="D765" t="s">
         <v>39</v>
@@ -34582,7 +34616,7 @@
         <v>36</v>
       </c>
       <c r="B767" s="1">
-        <v>45018.814826388887</v>
+        <v>45018.814826388902</v>
       </c>
       <c r="D767" t="s">
         <v>30</v>
@@ -34638,7 +34672,7 @@
         <v>36</v>
       </c>
       <c r="B768" s="1">
-        <v>45018.815636574072</v>
+        <v>45018.815636574102</v>
       </c>
       <c r="D768" t="s">
         <v>30</v>
@@ -34750,7 +34784,7 @@
         <v>36</v>
       </c>
       <c r="B770" s="1">
-        <v>45018.817303240743</v>
+        <v>45018.817303240699</v>
       </c>
       <c r="D770" t="s">
         <v>39</v>
@@ -34806,7 +34840,7 @@
         <v>29</v>
       </c>
       <c r="B771" s="1">
-        <v>45018.818993055553</v>
+        <v>45018.818993055596</v>
       </c>
       <c r="C771">
         <v>41</v>
@@ -34856,7 +34890,7 @@
         <v>29</v>
       </c>
       <c r="B772" s="1">
-        <v>45018.828784722216</v>
+        <v>45018.828784722202</v>
       </c>
       <c r="C772">
         <v>11</v>
@@ -34906,7 +34940,7 @@
         <v>36</v>
       </c>
       <c r="B773" s="1">
-        <v>45018.832037037027</v>
+        <v>45018.832037036998</v>
       </c>
       <c r="D773" t="s">
         <v>30</v>
@@ -34962,7 +34996,7 @@
         <v>29</v>
       </c>
       <c r="B774" s="1">
-        <v>45018.84034722222</v>
+        <v>45018.840347222198</v>
       </c>
       <c r="C774">
         <v>16200</v>
@@ -35012,7 +35046,7 @@
         <v>38</v>
       </c>
       <c r="B775" s="1">
-        <v>45018.84715277778</v>
+        <v>45018.847152777802</v>
       </c>
       <c r="C775">
         <v>259</v>
@@ -35065,7 +35099,7 @@
         <v>38</v>
       </c>
       <c r="B776" s="1">
-        <v>45018.852986111109</v>
+        <v>45018.852986111102</v>
       </c>
       <c r="C776">
         <v>441</v>
@@ -35118,7 +35152,7 @@
         <v>36</v>
       </c>
       <c r="B777" s="1">
-        <v>45018.857743055552</v>
+        <v>45018.857743055603</v>
       </c>
       <c r="D777" t="s">
         <v>30</v>
@@ -35174,7 +35208,7 @@
         <v>36</v>
       </c>
       <c r="B778" s="1">
-        <v>45018.862349537027</v>
+        <v>45018.862349536997</v>
       </c>
       <c r="D778" t="s">
         <v>30</v>
@@ -35209,7 +35243,7 @@
         <v>36</v>
       </c>
       <c r="B779" s="1">
-        <v>45018.863900462973</v>
+        <v>45018.863900463002</v>
       </c>
       <c r="D779" t="s">
         <v>30</v>
@@ -35244,7 +35278,7 @@
         <v>36</v>
       </c>
       <c r="B780" s="1">
-        <v>45018.864305555559</v>
+        <v>45018.864305555602</v>
       </c>
       <c r="D780" t="s">
         <v>65</v>
@@ -35279,7 +35313,7 @@
         <v>36</v>
       </c>
       <c r="B781" s="1">
-        <v>45018.86482638889</v>
+        <v>45018.864826388897</v>
       </c>
       <c r="D781" t="s">
         <v>30</v>
@@ -35314,7 +35348,7 @@
         <v>36</v>
       </c>
       <c r="B782" s="1">
-        <v>45018.865081018521</v>
+        <v>45018.865081018499</v>
       </c>
       <c r="D782" t="s">
         <v>65</v>
@@ -35349,7 +35383,7 @@
         <v>36</v>
       </c>
       <c r="B783" s="1">
-        <v>45018.865740740737</v>
+        <v>45018.865740740701</v>
       </c>
       <c r="D783" t="s">
         <v>30</v>
@@ -35384,7 +35418,7 @@
         <v>36</v>
       </c>
       <c r="B784" s="1">
-        <v>45018.866226851853</v>
+        <v>45018.866226851896</v>
       </c>
       <c r="D784" t="s">
         <v>65</v>
@@ -35419,7 +35453,7 @@
         <v>36</v>
       </c>
       <c r="B785" s="1">
-        <v>45018.866365740738</v>
+        <v>45018.866365740701</v>
       </c>
       <c r="D785" t="s">
         <v>65</v>
@@ -35454,7 +35488,7 @@
         <v>36</v>
       </c>
       <c r="B786" s="1">
-        <v>45018.866944444453</v>
+        <v>45018.866944444497</v>
       </c>
       <c r="D786" t="s">
         <v>30</v>
@@ -35489,7 +35523,7 @@
         <v>36</v>
       </c>
       <c r="B787" s="1">
-        <v>45018.867280092592</v>
+        <v>45018.8672800926</v>
       </c>
       <c r="D787" t="s">
         <v>65</v>
@@ -35524,7 +35558,7 @@
         <v>36</v>
       </c>
       <c r="B788" s="1">
-        <v>45018.867731481478</v>
+        <v>45018.8677314815</v>
       </c>
       <c r="D788" t="s">
         <v>30</v>
@@ -35559,7 +35593,7 @@
         <v>36</v>
       </c>
       <c r="B789" s="1">
-        <v>45018.868460648147</v>
+        <v>45018.868460648198</v>
       </c>
       <c r="D789" t="s">
         <v>65</v>
@@ -35594,7 +35628,7 @@
         <v>36</v>
       </c>
       <c r="B790" s="1">
-        <v>45018.868819444448</v>
+        <v>45018.868819444499</v>
       </c>
       <c r="D790" t="s">
         <v>65</v>
@@ -35629,7 +35663,7 @@
         <v>36</v>
       </c>
       <c r="B791" s="1">
-        <v>45018.869050925918</v>
+        <v>45018.869050925903</v>
       </c>
       <c r="D791" t="s">
         <v>30</v>
@@ -35664,7 +35698,7 @@
         <v>36</v>
       </c>
       <c r="B792" s="1">
-        <v>45018.876817129632</v>
+        <v>45018.876817129603</v>
       </c>
       <c r="D792" t="s">
         <v>30</v>
@@ -35720,7 +35754,7 @@
         <v>38</v>
       </c>
       <c r="B793" s="1">
-        <v>45018.878379629627</v>
+        <v>45018.878379629597</v>
       </c>
       <c r="C793">
         <v>96</v>
@@ -35773,7 +35807,7 @@
         <v>38</v>
       </c>
       <c r="B794" s="1">
-        <v>45018.878888888888</v>
+        <v>45018.878888888903</v>
       </c>
       <c r="C794">
         <v>268</v>
@@ -35862,7 +35896,7 @@
         <v>38</v>
       </c>
       <c r="B795" s="1">
-        <v>45018.881805555553</v>
+        <v>45018.881805555597</v>
       </c>
       <c r="C795">
         <v>538</v>
@@ -35971,7 +36005,7 @@
         <v>36</v>
       </c>
       <c r="B797" s="1">
-        <v>45018.901979166672</v>
+        <v>45018.901979166701</v>
       </c>
       <c r="D797" t="s">
         <v>39</v>
@@ -36027,7 +36061,7 @@
         <v>36</v>
       </c>
       <c r="B798" s="1">
-        <v>45018.902430555558</v>
+        <v>45018.902430555601</v>
       </c>
       <c r="D798" t="s">
         <v>30</v>
@@ -36083,7 +36117,7 @@
         <v>36</v>
       </c>
       <c r="B799" s="1">
-        <v>45018.902685185189</v>
+        <v>45018.902685185203</v>
       </c>
       <c r="D799" t="s">
         <v>30</v>
@@ -36139,7 +36173,7 @@
         <v>36</v>
       </c>
       <c r="B800" s="1">
-        <v>45018.903298611112</v>
+        <v>45018.903298611098</v>
       </c>
       <c r="D800" t="s">
         <v>39</v>
@@ -36195,7 +36229,7 @@
         <v>36</v>
       </c>
       <c r="B801" s="1">
-        <v>45018.903495370367</v>
+        <v>45018.903495370403</v>
       </c>
       <c r="D801" t="s">
         <v>30</v>
@@ -36251,7 +36285,7 @@
         <v>36</v>
       </c>
       <c r="B802" s="1">
-        <v>45018.904039351852</v>
+        <v>45018.904039351903</v>
       </c>
       <c r="D802" t="s">
         <v>39</v>
@@ -36307,7 +36341,7 @@
         <v>36</v>
       </c>
       <c r="B803" s="1">
-        <v>45018.904513888891</v>
+        <v>45018.904513888898</v>
       </c>
       <c r="D803" t="s">
         <v>39</v>
@@ -36419,7 +36453,7 @@
         <v>36</v>
       </c>
       <c r="B805" s="1">
-        <v>45018.905787037038</v>
+        <v>45018.905787037002</v>
       </c>
       <c r="D805" t="s">
         <v>30</v>
@@ -36475,7 +36509,7 @@
         <v>36</v>
       </c>
       <c r="B806" s="1">
-        <v>45018.909270833326</v>
+        <v>45018.909270833297</v>
       </c>
       <c r="D806" t="s">
         <v>39</v>
@@ -36531,7 +36565,7 @@
         <v>38</v>
       </c>
       <c r="B807" s="1">
-        <v>45018.910474537042</v>
+        <v>45018.910474536999</v>
       </c>
       <c r="C807">
         <v>588</v>
@@ -36584,7 +36618,7 @@
         <v>36</v>
       </c>
       <c r="B808" s="1">
-        <v>45018.970983796287</v>
+        <v>45018.970983796302</v>
       </c>
       <c r="D808" t="s">
         <v>30</v>
@@ -36619,7 +36653,7 @@
         <v>36</v>
       </c>
       <c r="B809" s="1">
-        <v>45018.984085648153</v>
+        <v>45018.984085648197</v>
       </c>
       <c r="D809" t="s">
         <v>30</v>
@@ -36654,7 +36688,7 @@
         <v>36</v>
       </c>
       <c r="B810" s="1">
-        <v>45018.992476851847</v>
+        <v>45018.992476851898</v>
       </c>
       <c r="D810" t="s">
         <v>92</v>
@@ -36689,7 +36723,7 @@
         <v>36</v>
       </c>
       <c r="B811" s="1">
-        <v>45019.008692129632</v>
+        <v>45019.008692129602</v>
       </c>
       <c r="D811" t="s">
         <v>69</v>
@@ -36724,7 +36758,7 @@
         <v>36</v>
       </c>
       <c r="B812" s="1">
-        <v>45019.009756944448</v>
+        <v>45019.009756944499</v>
       </c>
       <c r="D812" t="s">
         <v>69</v>
@@ -36759,7 +36793,7 @@
         <v>36</v>
       </c>
       <c r="B813" s="1">
-        <v>45019.010335648149</v>
+        <v>45019.0103356482</v>
       </c>
       <c r="D813" t="s">
         <v>30</v>
@@ -36794,7 +36828,7 @@
         <v>36</v>
       </c>
       <c r="B814" s="1">
-        <v>45019.010439814818</v>
+        <v>45019.010439814803</v>
       </c>
       <c r="D814" t="s">
         <v>30</v>
@@ -36829,7 +36863,7 @@
         <v>36</v>
       </c>
       <c r="B815" s="1">
-        <v>45019.01059027778</v>
+        <v>45019.010590277801</v>
       </c>
       <c r="D815" t="s">
         <v>30</v>
@@ -36864,7 +36898,7 @@
         <v>36</v>
       </c>
       <c r="B816" s="1">
-        <v>45019.011053240742</v>
+        <v>45019.011053240698</v>
       </c>
       <c r="D816" t="s">
         <v>30</v>
@@ -36899,7 +36933,7 @@
         <v>36</v>
       </c>
       <c r="B817" s="1">
-        <v>45019.011712962973</v>
+        <v>45019.011712963002</v>
       </c>
       <c r="D817" t="s">
         <v>69</v>
@@ -36934,7 +36968,7 @@
         <v>36</v>
       </c>
       <c r="B818" s="1">
-        <v>45019.012337962973</v>
+        <v>45019.012337963002</v>
       </c>
       <c r="D818" t="s">
         <v>30</v>
@@ -36969,7 +37003,7 @@
         <v>36</v>
       </c>
       <c r="B819" s="1">
-        <v>45019.013229166667</v>
+        <v>45019.013229166703</v>
       </c>
       <c r="D819" t="s">
         <v>69</v>
@@ -37004,7 +37038,7 @@
         <v>38</v>
       </c>
       <c r="B820" s="1">
-        <v>45019.027395833327</v>
+        <v>45019.027395833298</v>
       </c>
       <c r="C820">
         <v>592</v>
@@ -37093,7 +37127,7 @@
         <v>36</v>
       </c>
       <c r="B821" s="1">
-        <v>45019.02847222222</v>
+        <v>45019.028472222199</v>
       </c>
       <c r="D821" t="s">
         <v>30</v>
@@ -37128,7 +37162,7 @@
         <v>36</v>
       </c>
       <c r="B822" s="1">
-        <v>45019.032673611109</v>
+        <v>45019.032673611102</v>
       </c>
       <c r="D822" t="s">
         <v>65</v>
@@ -37163,7 +37197,7 @@
         <v>36</v>
       </c>
       <c r="B823" s="1">
-        <v>45019.045011574082</v>
+        <v>45019.045011574097</v>
       </c>
       <c r="D823" t="s">
         <v>65</v>
@@ -37198,7 +37232,7 @@
         <v>36</v>
       </c>
       <c r="B824" s="1">
-        <v>45019.046365740738</v>
+        <v>45019.046365740702</v>
       </c>
       <c r="D824" t="s">
         <v>30</v>
@@ -37233,7 +37267,7 @@
         <v>36</v>
       </c>
       <c r="B825" s="1">
-        <v>45019.046956018523</v>
+        <v>45019.046956018501</v>
       </c>
       <c r="D825" t="s">
         <v>65</v>
@@ -37268,7 +37302,7 @@
         <v>36</v>
       </c>
       <c r="B826" s="1">
-        <v>45019.047222222223</v>
+        <v>45019.047222222202</v>
       </c>
       <c r="D826" t="s">
         <v>65</v>
@@ -37303,7 +37337,7 @@
         <v>36</v>
       </c>
       <c r="B827" s="1">
-        <v>45019.047951388893</v>
+        <v>45019.0479513889</v>
       </c>
       <c r="D827" t="s">
         <v>30</v>
@@ -37338,7 +37372,7 @@
         <v>36</v>
       </c>
       <c r="B828" s="1">
-        <v>45019.048402777778</v>
+        <v>45019.0484027778</v>
       </c>
       <c r="D828" t="s">
         <v>30</v>
@@ -37373,7 +37407,7 @@
         <v>36</v>
       </c>
       <c r="B829" s="1">
-        <v>45019.049085648148</v>
+        <v>45019.049085648199</v>
       </c>
       <c r="D829" t="s">
         <v>65</v>
@@ -37408,7 +37442,7 @@
         <v>36</v>
       </c>
       <c r="B830" s="1">
-        <v>45019.049513888887</v>
+        <v>45019.049513888902</v>
       </c>
       <c r="D830" t="s">
         <v>30</v>
@@ -37443,7 +37477,7 @@
         <v>36</v>
       </c>
       <c r="B831" s="1">
-        <v>45019.053113425929</v>
+        <v>45019.0531134259</v>
       </c>
       <c r="D831" t="s">
         <v>30</v>
@@ -37478,7 +37512,7 @@
         <v>36</v>
       </c>
       <c r="B832" s="1">
-        <v>45019.054930555547</v>
+        <v>45019.054930555598</v>
       </c>
       <c r="D832" t="s">
         <v>63</v>
@@ -37513,7 +37547,7 @@
         <v>36</v>
       </c>
       <c r="B833" s="1">
-        <v>45019.055694444447</v>
+        <v>45019.055694444498</v>
       </c>
       <c r="D833" t="s">
         <v>63</v>
@@ -37548,7 +37582,7 @@
         <v>36</v>
       </c>
       <c r="B834" s="1">
-        <v>45019.055914351848</v>
+        <v>45019.055914351899</v>
       </c>
       <c r="D834" t="s">
         <v>30</v>
@@ -37583,7 +37617,7 @@
         <v>36</v>
       </c>
       <c r="B835" s="1">
-        <v>45019.056597222218</v>
+        <v>45019.056597222203</v>
       </c>
       <c r="D835" t="s">
         <v>30</v>
@@ -37618,7 +37652,7 @@
         <v>36</v>
       </c>
       <c r="B836" s="1">
-        <v>45019.057071759264</v>
+        <v>45019.0570717593</v>
       </c>
       <c r="D836" t="s">
         <v>63</v>
@@ -37653,7 +37687,7 @@
         <v>36</v>
       </c>
       <c r="B837" s="1">
-        <v>45019.057962962957</v>
+        <v>45019.057962963001</v>
       </c>
       <c r="D837" t="s">
         <v>30</v>
@@ -37723,7 +37757,7 @@
         <v>36</v>
       </c>
       <c r="B839" s="1">
-        <v>45019.059212962973</v>
+        <v>45019.059212963002</v>
       </c>
       <c r="D839" t="s">
         <v>63</v>
@@ -37758,7 +37792,7 @@
         <v>36</v>
       </c>
       <c r="B840" s="1">
-        <v>45019.059907407413</v>
+        <v>45019.059907407398</v>
       </c>
       <c r="D840" t="s">
         <v>30</v>
@@ -37793,7 +37827,7 @@
         <v>36</v>
       </c>
       <c r="B841" s="1">
-        <v>45019.060613425929</v>
+        <v>45019.0606134259</v>
       </c>
       <c r="D841" t="s">
         <v>63</v>
@@ -37828,7 +37862,7 @@
         <v>38</v>
       </c>
       <c r="B842" s="1">
-        <v>45019.061064814807</v>
+        <v>45019.061064814799</v>
       </c>
       <c r="C842">
         <v>566</v>
@@ -37916,7 +37950,7 @@
         <v>36</v>
       </c>
       <c r="B844" s="1">
-        <v>45019.061655092592</v>
+        <v>45019.061655092599</v>
       </c>
       <c r="D844" t="s">
         <v>30</v>
@@ -37951,7 +37985,7 @@
         <v>38</v>
       </c>
       <c r="B845" s="1">
-        <v>45019.063263888893</v>
+        <v>45019.0632638889</v>
       </c>
       <c r="C845">
         <v>264</v>
@@ -38004,7 +38038,7 @@
         <v>38</v>
       </c>
       <c r="B846" s="1">
-        <v>45019.082881944443</v>
+        <v>45019.0828819444</v>
       </c>
       <c r="C846">
         <v>96</v>
@@ -38057,7 +38091,7 @@
         <v>36</v>
       </c>
       <c r="B847" s="1">
-        <v>45019.102199074077</v>
+        <v>45019.102199074099</v>
       </c>
       <c r="D847" t="s">
         <v>69</v>
@@ -38092,7 +38126,7 @@
         <v>36</v>
       </c>
       <c r="B848" s="1">
-        <v>45019.10355324074</v>
+        <v>45019.103553240697</v>
       </c>
       <c r="D848" t="s">
         <v>69</v>
@@ -38127,7 +38161,7 @@
         <v>36</v>
       </c>
       <c r="B849" s="1">
-        <v>45019.104004629633</v>
+        <v>45019.104004629597</v>
       </c>
       <c r="D849" t="s">
         <v>30</v>
@@ -38162,7 +38196,7 @@
         <v>36</v>
       </c>
       <c r="B850" s="1">
-        <v>45019.104178240741</v>
+        <v>45019.104178240697</v>
       </c>
       <c r="D850" t="s">
         <v>30</v>
@@ -38197,7 +38231,7 @@
         <v>36</v>
       </c>
       <c r="B851" s="1">
-        <v>45019.104930555557</v>
+        <v>45019.104930555601</v>
       </c>
       <c r="D851" t="s">
         <v>69</v>
@@ -38267,7 +38301,7 @@
         <v>36</v>
       </c>
       <c r="B853" s="1">
-        <v>45019.105752314812</v>
+        <v>45019.105752314797</v>
       </c>
       <c r="D853" t="s">
         <v>69</v>
@@ -38302,7 +38336,7 @@
         <v>36</v>
       </c>
       <c r="B854" s="1">
-        <v>45019.106400462973</v>
+        <v>45019.106400463003</v>
       </c>
       <c r="D854" t="s">
         <v>69</v>
@@ -38337,7 +38371,7 @@
         <v>36</v>
       </c>
       <c r="B855" s="1">
-        <v>45019.10900462963</v>
+        <v>45019.109004629601</v>
       </c>
       <c r="D855" t="s">
         <v>63</v>
@@ -38372,7 +38406,7 @@
         <v>36</v>
       </c>
       <c r="B856" s="1">
-        <v>45019.138680555552</v>
+        <v>45019.138680555603</v>
       </c>
       <c r="D856" t="s">
         <v>92</v>
@@ -38407,7 +38441,7 @@
         <v>36</v>
       </c>
       <c r="B857" s="1">
-        <v>45019.140023148153</v>
+        <v>45019.140023148197</v>
       </c>
       <c r="D857" t="s">
         <v>92</v>
@@ -38442,7 +38476,7 @@
         <v>36</v>
       </c>
       <c r="B858" s="1">
-        <v>45019.140092592592</v>
+        <v>45019.140092592599</v>
       </c>
       <c r="D858" t="s">
         <v>92</v>
@@ -38477,7 +38511,7 @@
         <v>36</v>
       </c>
       <c r="B859" s="1">
-        <v>45019.140416666669</v>
+        <v>45019.140416666698</v>
       </c>
       <c r="D859" t="s">
         <v>92</v>
@@ -38512,7 +38546,7 @@
         <v>36</v>
       </c>
       <c r="B860" s="1">
-        <v>45019.141192129631</v>
+        <v>45019.141192129602</v>
       </c>
       <c r="D860" t="s">
         <v>127</v>
@@ -38568,7 +38602,7 @@
         <v>36</v>
       </c>
       <c r="B861" s="1">
-        <v>45019.141296296293</v>
+        <v>45019.1412962963</v>
       </c>
       <c r="D861" t="s">
         <v>30</v>
@@ -38603,7 +38637,7 @@
         <v>36</v>
       </c>
       <c r="B862" s="1">
-        <v>45019.142094907409</v>
+        <v>45019.142094907402</v>
       </c>
       <c r="D862" t="s">
         <v>92</v>
@@ -38638,7 +38672,7 @@
         <v>36</v>
       </c>
       <c r="B863" s="1">
-        <v>45019.142939814818</v>
+        <v>45019.142939814803</v>
       </c>
       <c r="D863" t="s">
         <v>30</v>
@@ -38673,7 +38707,7 @@
         <v>36</v>
       </c>
       <c r="B864" s="1">
-        <v>45019.143090277779</v>
+        <v>45019.143090277801</v>
       </c>
       <c r="D864" t="s">
         <v>127</v>
@@ -38764,7 +38798,7 @@
         <v>36</v>
       </c>
       <c r="B866" s="1">
-        <v>45019.143877314818</v>
+        <v>45019.143877314797</v>
       </c>
       <c r="D866" t="s">
         <v>30</v>
@@ -38820,7 +38854,7 @@
         <v>36</v>
       </c>
       <c r="B867" s="1">
-        <v>45019.144293981481</v>
+        <v>45019.144293981502</v>
       </c>
       <c r="D867" t="s">
         <v>92</v>
@@ -38855,7 +38889,7 @@
         <v>36</v>
       </c>
       <c r="B868" s="1">
-        <v>45019.14466435185</v>
+        <v>45019.144664351901</v>
       </c>
       <c r="D868" t="s">
         <v>30</v>
@@ -38911,7 +38945,7 @@
         <v>36</v>
       </c>
       <c r="B869" s="1">
-        <v>45019.144849537042</v>
+        <v>45019.144849536999</v>
       </c>
       <c r="D869" t="s">
         <v>30</v>
@@ -38946,7 +38980,7 @@
         <v>36</v>
       </c>
       <c r="B870" s="1">
-        <v>45019.144976851851</v>
+        <v>45019.144976851901</v>
       </c>
       <c r="D870" t="s">
         <v>127</v>
@@ -39058,7 +39092,7 @@
         <v>36</v>
       </c>
       <c r="B872" s="1">
-        <v>45019.145925925928</v>
+        <v>45019.145925925899</v>
       </c>
       <c r="D872" t="s">
         <v>30</v>
@@ -39114,7 +39148,7 @@
         <v>36</v>
       </c>
       <c r="B873" s="1">
-        <v>45019.146539351852</v>
+        <v>45019.146539351903</v>
       </c>
       <c r="D873" t="s">
         <v>30</v>
@@ -39170,7 +39204,7 @@
         <v>36</v>
       </c>
       <c r="B874" s="1">
-        <v>45019.147152777783</v>
+        <v>45019.147152777798</v>
       </c>
       <c r="D874" t="s">
         <v>127</v>
@@ -39226,7 +39260,7 @@
         <v>36</v>
       </c>
       <c r="B875" s="1">
-        <v>45019.147372685176</v>
+        <v>45019.147372685198</v>
       </c>
       <c r="D875" t="s">
         <v>127</v>
@@ -39282,7 +39316,7 @@
         <v>36</v>
       </c>
       <c r="B876" s="1">
-        <v>45019.147951388892</v>
+        <v>45019.147951388899</v>
       </c>
       <c r="D876" t="s">
         <v>30</v>
@@ -39338,7 +39372,7 @@
         <v>36</v>
       </c>
       <c r="B877" s="1">
-        <v>45019.161585648151</v>
+        <v>45019.161585648202</v>
       </c>
       <c r="D877" t="s">
         <v>30</v>
@@ -39373,7 +39407,7 @@
         <v>36</v>
       </c>
       <c r="B878" s="1">
-        <v>45019.163217592592</v>
+        <v>45019.163217592599</v>
       </c>
       <c r="D878" t="s">
         <v>30</v>
@@ -39408,7 +39442,7 @@
         <v>36</v>
       </c>
       <c r="B879" s="1">
-        <v>45019.163645833331</v>
+        <v>45019.163645833301</v>
       </c>
       <c r="D879" t="s">
         <v>65</v>
@@ -39443,7 +39477,7 @@
         <v>36</v>
       </c>
       <c r="B880" s="1">
-        <v>45019.164444444446</v>
+        <v>45019.164444444497</v>
       </c>
       <c r="D880" t="s">
         <v>65</v>
@@ -39478,7 +39512,7 @@
         <v>36</v>
       </c>
       <c r="B881" s="1">
-        <v>45019.164814814823</v>
+        <v>45019.164814814802</v>
       </c>
       <c r="D881" t="s">
         <v>30</v>
@@ -39513,7 +39547,7 @@
         <v>36</v>
       </c>
       <c r="B882" s="1">
-        <v>45019.165150462963</v>
+        <v>45019.165150462999</v>
       </c>
       <c r="D882" t="s">
         <v>65</v>
@@ -39548,7 +39582,7 @@
         <v>36</v>
       </c>
       <c r="B883" s="1">
-        <v>45019.165543981479</v>
+        <v>45019.1655439815</v>
       </c>
       <c r="D883" t="s">
         <v>65</v>
@@ -39583,7 +39617,7 @@
         <v>36</v>
       </c>
       <c r="B884" s="1">
-        <v>45019.166087962964</v>
+        <v>45019.166087963</v>
       </c>
       <c r="D884" t="s">
         <v>65</v>
@@ -39618,7 +39652,7 @@
         <v>36</v>
       </c>
       <c r="B885" s="1">
-        <v>45019.166689814818</v>
+        <v>45019.166689814803</v>
       </c>
       <c r="D885" t="s">
         <v>30</v>
@@ -39653,7 +39687,7 @@
         <v>36</v>
       </c>
       <c r="B886" s="1">
-        <v>45019.167268518519</v>
+        <v>45019.167268518497</v>
       </c>
       <c r="D886" t="s">
         <v>30</v>
@@ -39688,7 +39722,7 @@
         <v>36</v>
       </c>
       <c r="B887" s="1">
-        <v>45019.185289351852</v>
+        <v>45019.185289351903</v>
       </c>
       <c r="D887" t="s">
         <v>30</v>
@@ -39723,7 +39757,7 @@
         <v>36</v>
       </c>
       <c r="B888" s="1">
-        <v>45019.191064814811</v>
+        <v>45019.191064814797</v>
       </c>
       <c r="D888" t="s">
         <v>64</v>
@@ -39758,7 +39792,7 @@
         <v>38</v>
       </c>
       <c r="B889" s="1">
-        <v>45019.194502314807</v>
+        <v>45019.1945023148</v>
       </c>
       <c r="C889">
         <v>394</v>
@@ -39847,7 +39881,7 @@
         <v>36</v>
       </c>
       <c r="B890" s="1">
-        <v>45019.204363425917</v>
+        <v>45019.204363425903</v>
       </c>
       <c r="D890" t="s">
         <v>64</v>
@@ -39882,7 +39916,7 @@
         <v>36</v>
       </c>
       <c r="B891" s="1">
-        <v>45019.21162037037</v>
+        <v>45019.211620370399</v>
       </c>
       <c r="D891" t="s">
         <v>127</v>
@@ -39938,7 +39972,7 @@
         <v>36</v>
       </c>
       <c r="B892" s="1">
-        <v>45019.213969907411</v>
+        <v>45019.213969907403</v>
       </c>
       <c r="D892" t="s">
         <v>30</v>
@@ -40106,7 +40140,7 @@
         <v>36</v>
       </c>
       <c r="B895" s="1">
-        <v>45019.215543981481</v>
+        <v>45019.215543981503</v>
       </c>
       <c r="D895" t="s">
         <v>30</v>
@@ -40162,7 +40196,7 @@
         <v>36</v>
       </c>
       <c r="B896" s="1">
-        <v>45019.215798611112</v>
+        <v>45019.215798611098</v>
       </c>
       <c r="D896" t="s">
         <v>30</v>
@@ -40218,7 +40252,7 @@
         <v>36</v>
       </c>
       <c r="B897" s="1">
-        <v>45019.216215277767</v>
+        <v>45019.216215277796</v>
       </c>
       <c r="D897" t="s">
         <v>127</v>
@@ -40274,7 +40308,7 @@
         <v>36</v>
       </c>
       <c r="B898" s="1">
-        <v>45019.21638888889</v>
+        <v>45019.216388888897</v>
       </c>
       <c r="D898" t="s">
         <v>127</v>
@@ -40330,7 +40364,7 @@
         <v>36</v>
       </c>
       <c r="B899" s="1">
-        <v>45019.228263888886</v>
+        <v>45019.228263888901</v>
       </c>
       <c r="D899" t="s">
         <v>30</v>
@@ -40365,7 +40399,7 @@
         <v>36</v>
       </c>
       <c r="B900" s="1">
-        <v>45019.230081018519</v>
+        <v>45019.230081018497</v>
       </c>
       <c r="D900" t="s">
         <v>30</v>
@@ -40400,7 +40434,7 @@
         <v>36</v>
       </c>
       <c r="B901" s="1">
-        <v>45019.230914351851</v>
+        <v>45019.230914351901</v>
       </c>
       <c r="D901" t="s">
         <v>65</v>
@@ -40435,7 +40469,7 @@
         <v>36</v>
       </c>
       <c r="B902" s="1">
-        <v>45019.23128472222</v>
+        <v>45019.231284722198</v>
       </c>
       <c r="D902" t="s">
         <v>65</v>
@@ -40470,7 +40504,7 @@
         <v>36</v>
       </c>
       <c r="B903" s="1">
-        <v>45019.231817129628</v>
+        <v>45019.231817129599</v>
       </c>
       <c r="D903" t="s">
         <v>30</v>
@@ -40505,7 +40539,7 @@
         <v>36</v>
       </c>
       <c r="B904" s="1">
-        <v>45019.232349537036</v>
+        <v>45019.232349537</v>
       </c>
       <c r="D904" t="s">
         <v>30</v>
@@ -40575,7 +40609,7 @@
         <v>36</v>
       </c>
       <c r="B906" s="1">
-        <v>45019.233657407407</v>
+        <v>45019.2336574074</v>
       </c>
       <c r="D906" t="s">
         <v>30</v>
@@ -40610,7 +40644,7 @@
         <v>36</v>
       </c>
       <c r="B907" s="1">
-        <v>45019.234143518523</v>
+        <v>45019.234143518501</v>
       </c>
       <c r="D907" t="s">
         <v>65</v>
@@ -40645,7 +40679,7 @@
         <v>36</v>
       </c>
       <c r="B908" s="1">
-        <v>45019.234583333331</v>
+        <v>45019.234583333302</v>
       </c>
       <c r="D908" t="s">
         <v>65</v>
@@ -40680,7 +40714,7 @@
         <v>36</v>
       </c>
       <c r="B909" s="1">
-        <v>45019.234768518523</v>
+        <v>45019.234768518501</v>
       </c>
       <c r="D909" t="s">
         <v>30</v>
@@ -40715,7 +40749,7 @@
         <v>36</v>
       </c>
       <c r="B910" s="1">
-        <v>45019.235231481478</v>
+        <v>45019.2352314815</v>
       </c>
       <c r="D910" t="s">
         <v>65</v>
@@ -40750,7 +40784,7 @@
         <v>36</v>
       </c>
       <c r="B911" s="1">
-        <v>45019.235694444447</v>
+        <v>45019.235694444498</v>
       </c>
       <c r="D911" t="s">
         <v>65</v>
@@ -40785,7 +40819,7 @@
         <v>36</v>
       </c>
       <c r="B912" s="1">
-        <v>45019.236504629633</v>
+        <v>45019.236504629604</v>
       </c>
       <c r="D912" t="s">
         <v>30</v>
@@ -40820,7 +40854,7 @@
         <v>36</v>
       </c>
       <c r="B913" s="1">
-        <v>45019.236921296288</v>
+        <v>45019.236921296302</v>
       </c>
       <c r="D913" t="s">
         <v>65</v>
@@ -40855,7 +40889,7 @@
         <v>36</v>
       </c>
       <c r="B914" s="1">
-        <v>45019.237002314818</v>
+        <v>45019.237002314803</v>
       </c>
       <c r="D914" t="s">
         <v>64</v>
@@ -40890,7 +40924,7 @@
         <v>38</v>
       </c>
       <c r="B915" s="1">
-        <v>45019.28802083333</v>
+        <v>45019.288020833301</v>
       </c>
       <c r="C915">
         <v>561</v>
@@ -40943,7 +40977,7 @@
         <v>36</v>
       </c>
       <c r="B916" s="1">
-        <v>45019.300462962958</v>
+        <v>45019.300462963001</v>
       </c>
       <c r="D916" t="s">
         <v>30</v>
@@ -40978,7 +41012,7 @@
         <v>38</v>
       </c>
       <c r="B917" s="1">
-        <v>45019.311388888891</v>
+        <v>45019.311388888898</v>
       </c>
       <c r="C917">
         <v>568</v>
@@ -41066,7 +41100,7 @@
         <v>36</v>
       </c>
       <c r="B919" s="1">
-        <v>45019.313761574071</v>
+        <v>45019.3137615741</v>
       </c>
       <c r="D919" t="s">
         <v>30</v>
@@ -41101,7 +41135,7 @@
         <v>36</v>
       </c>
       <c r="B920" s="1">
-        <v>45019.314201388886</v>
+        <v>45019.314201388901</v>
       </c>
       <c r="D920" t="s">
         <v>69</v>
@@ -41136,7 +41170,7 @@
         <v>36</v>
       </c>
       <c r="B921" s="1">
-        <v>45019.31453703704</v>
+        <v>45019.314537036997</v>
       </c>
       <c r="D921" t="s">
         <v>69</v>
@@ -41171,7 +41205,7 @@
         <v>36</v>
       </c>
       <c r="B922" s="1">
-        <v>45019.314745370371</v>
+        <v>45019.3147453704</v>
       </c>
       <c r="D922" t="s">
         <v>30</v>
@@ -41206,7 +41240,7 @@
         <v>36</v>
       </c>
       <c r="B923" s="1">
-        <v>45019.315092592587</v>
+        <v>45019.315092592602</v>
       </c>
       <c r="D923" t="s">
         <v>69</v>
@@ -41241,7 +41275,7 @@
         <v>36</v>
       </c>
       <c r="B924" s="1">
-        <v>45019.315844907411</v>
+        <v>45019.315844907404</v>
       </c>
       <c r="D924" t="s">
         <v>30</v>
@@ -41346,7 +41380,7 @@
         <v>36</v>
       </c>
       <c r="B927" s="1">
-        <v>45019.317129629628</v>
+        <v>45019.317129629599</v>
       </c>
       <c r="D927" t="s">
         <v>30</v>
@@ -41416,7 +41450,7 @@
         <v>36</v>
       </c>
       <c r="B929" s="1">
-        <v>45019.317476851851</v>
+        <v>45019.317476851902</v>
       </c>
       <c r="D929" t="s">
         <v>49</v>
@@ -41472,7 +41506,7 @@
         <v>36</v>
       </c>
       <c r="B930" s="1">
-        <v>45019.352118055547</v>
+        <v>45019.352118055598</v>
       </c>
       <c r="D930" t="s">
         <v>39</v>
@@ -41528,7 +41562,7 @@
         <v>38</v>
       </c>
       <c r="B931" s="1">
-        <v>45019.360219907408</v>
+        <v>45019.360219907401</v>
       </c>
       <c r="C931">
         <v>237</v>
@@ -41581,7 +41615,7 @@
         <v>38</v>
       </c>
       <c r="B932" s="1">
-        <v>45019.366747685177</v>
+        <v>45019.366747685199</v>
       </c>
       <c r="C932">
         <v>437</v>
@@ -41705,7 +41739,7 @@
         <v>38</v>
       </c>
       <c r="B934" s="1">
-        <v>45019.373738425929</v>
+        <v>45019.3737384259</v>
       </c>
       <c r="C934">
         <v>8</v>
@@ -41794,7 +41828,7 @@
         <v>36</v>
       </c>
       <c r="B935" s="1">
-        <v>45019.385752314818</v>
+        <v>45019.385752314804</v>
       </c>
       <c r="D935" t="s">
         <v>30</v>
@@ -41829,7 +41863,7 @@
         <v>36</v>
       </c>
       <c r="B936" s="1">
-        <v>45019.387928240743</v>
+        <v>45019.3879282407</v>
       </c>
       <c r="D936" t="s">
         <v>30</v>
@@ -41885,7 +41919,7 @@
         <v>36</v>
       </c>
       <c r="B937" s="1">
-        <v>45019.409143518518</v>
+        <v>45019.409143518496</v>
       </c>
       <c r="D937" t="s">
         <v>49</v>
@@ -41941,7 +41975,7 @@
         <v>36</v>
       </c>
       <c r="B938" s="1">
-        <v>45019.417199074072</v>
+        <v>45019.417199074102</v>
       </c>
       <c r="D938" t="s">
         <v>64</v>
@@ -42011,7 +42045,7 @@
         <v>36</v>
       </c>
       <c r="B940" s="1">
-        <v>45019.419085648151</v>
+        <v>45019.419085648202</v>
       </c>
       <c r="D940" t="s">
         <v>64</v>
@@ -42046,7 +42080,7 @@
         <v>36</v>
       </c>
       <c r="B941" s="1">
-        <v>45019.41983796296</v>
+        <v>45019.419837963003</v>
       </c>
       <c r="D941" t="s">
         <v>30</v>
@@ -42081,7 +42115,7 @@
         <v>36</v>
       </c>
       <c r="B942" s="1">
-        <v>45019.420289351852</v>
+        <v>45019.420289351903</v>
       </c>
       <c r="D942" t="s">
         <v>64</v>
@@ -42116,7 +42150,7 @@
         <v>36</v>
       </c>
       <c r="B943" s="1">
-        <v>45019.420717592591</v>
+        <v>45019.420717592599</v>
       </c>
       <c r="D943" t="s">
         <v>30</v>
@@ -42186,7 +42220,7 @@
         <v>36</v>
       </c>
       <c r="B945" s="1">
-        <v>45019.421469907407</v>
+        <v>45019.4214699074</v>
       </c>
       <c r="D945" t="s">
         <v>30</v>
@@ -42221,7 +42255,7 @@
         <v>36</v>
       </c>
       <c r="B946" s="1">
-        <v>45019.422361111108</v>
+        <v>45019.422361111101</v>
       </c>
       <c r="D946" t="s">
         <v>64</v>
@@ -42256,7 +42290,7 @@
         <v>36</v>
       </c>
       <c r="B947" s="1">
-        <v>45019.422615740739</v>
+        <v>45019.422615740703</v>
       </c>
       <c r="D947" t="s">
         <v>64</v>
@@ -42347,7 +42381,7 @@
         <v>36</v>
       </c>
       <c r="B949" s="1">
-        <v>45019.436006944437</v>
+        <v>45019.436006944401</v>
       </c>
       <c r="D949" t="s">
         <v>30</v>
@@ -42382,7 +42416,7 @@
         <v>36</v>
       </c>
       <c r="B950" s="1">
-        <v>45019.438101851847</v>
+        <v>45019.438101851898</v>
       </c>
       <c r="D950" t="s">
         <v>30</v>
@@ -42417,7 +42451,7 @@
         <v>38</v>
       </c>
       <c r="B951" s="1">
-        <v>45019.43891203704</v>
+        <v>45019.438912037003</v>
       </c>
       <c r="C951">
         <v>399</v>
@@ -42526,7 +42560,7 @@
         <v>36</v>
       </c>
       <c r="B953" s="1">
-        <v>45019.466631944437</v>
+        <v>45019.4666319444</v>
       </c>
       <c r="D953" t="s">
         <v>39</v>
@@ -42638,7 +42672,7 @@
         <v>36</v>
       </c>
       <c r="B955" s="1">
-        <v>45019.468414351853</v>
+        <v>45019.468414351897</v>
       </c>
       <c r="D955" t="s">
         <v>39</v>
@@ -42694,7 +42728,7 @@
         <v>36</v>
       </c>
       <c r="B956" s="1">
-        <v>45019.468877314823</v>
+        <v>45019.468877314801</v>
       </c>
       <c r="D956" t="s">
         <v>30</v>
@@ -42750,7 +42784,7 @@
         <v>36</v>
       </c>
       <c r="B957" s="1">
-        <v>45019.469201388893</v>
+        <v>45019.4692013889</v>
       </c>
       <c r="D957" t="s">
         <v>39</v>
@@ -42806,7 +42840,7 @@
         <v>36</v>
       </c>
       <c r="B958" s="1">
-        <v>45019.469629629632</v>
+        <v>45019.469629629602</v>
       </c>
       <c r="D958" t="s">
         <v>39</v>
@@ -42862,7 +42896,7 @@
         <v>36</v>
       </c>
       <c r="B959" s="1">
-        <v>45019.470208333332</v>
+        <v>45019.470208333303</v>
       </c>
       <c r="D959" t="s">
         <v>30</v>
@@ -42918,7 +42952,7 @@
         <v>36</v>
       </c>
       <c r="B960" s="1">
-        <v>45019.470381944448</v>
+        <v>45019.470381944499</v>
       </c>
       <c r="D960" t="s">
         <v>39</v>
@@ -42974,7 +43008,7 @@
         <v>36</v>
       </c>
       <c r="B961" s="1">
-        <v>45019.470729166656</v>
+        <v>45019.4707291667</v>
       </c>
       <c r="D961" t="s">
         <v>39</v>
@@ -43086,7 +43120,7 @@
         <v>36</v>
       </c>
       <c r="B963" s="1">
-        <v>45019.484965277778</v>
+        <v>45019.484965277799</v>
       </c>
       <c r="D963" t="s">
         <v>49</v>
@@ -43142,7 +43176,7 @@
         <v>36</v>
       </c>
       <c r="B964" s="1">
-        <v>45019.495185185187</v>
+        <v>45019.495185185202</v>
       </c>
       <c r="D964" t="s">
         <v>30</v>
@@ -43177,7 +43211,7 @@
         <v>38</v>
       </c>
       <c r="B965" s="1">
-        <v>45019.500497685192</v>
+        <v>45019.5004976852</v>
       </c>
       <c r="C965">
         <v>441</v>
@@ -43230,7 +43264,7 @@
         <v>36</v>
       </c>
       <c r="B966" s="1">
-        <v>45019.508043981477</v>
+        <v>45019.508043981499</v>
       </c>
       <c r="D966" t="s">
         <v>30</v>
@@ -43265,7 +43299,7 @@
         <v>36</v>
       </c>
       <c r="B967" s="1">
-        <v>45019.526087962957</v>
+        <v>45019.526087963</v>
       </c>
       <c r="D967" t="s">
         <v>83</v>
@@ -43321,7 +43355,7 @@
         <v>38</v>
       </c>
       <c r="B968" s="1">
-        <v>45019.529328703713</v>
+        <v>45019.529328703698</v>
       </c>
       <c r="C968">
         <v>324</v>
@@ -43410,7 +43444,7 @@
         <v>38</v>
       </c>
       <c r="B969" s="1">
-        <v>45019.530914351853</v>
+        <v>45019.530914351897</v>
       </c>
       <c r="C969">
         <v>557</v>
@@ -43463,7 +43497,7 @@
         <v>38</v>
       </c>
       <c r="B970" s="1">
-        <v>45019.553263888891</v>
+        <v>45019.553263888898</v>
       </c>
       <c r="C970">
         <v>205</v>
@@ -43552,7 +43586,7 @@
         <v>36</v>
       </c>
       <c r="B971" s="1">
-        <v>45019.575555555559</v>
+        <v>45019.575555555602</v>
       </c>
       <c r="D971" t="s">
         <v>65</v>
@@ -43587,7 +43621,7 @@
         <v>36</v>
       </c>
       <c r="B972" s="1">
-        <v>45019.576412037037</v>
+        <v>45019.576412037</v>
       </c>
       <c r="D972" t="s">
         <v>30</v>
@@ -43622,7 +43656,7 @@
         <v>36</v>
       </c>
       <c r="B973" s="1">
-        <v>45019.577326388891</v>
+        <v>45019.577326388899</v>
       </c>
       <c r="D973" t="s">
         <v>65</v>
@@ -43657,7 +43691,7 @@
         <v>36</v>
       </c>
       <c r="B974" s="1">
-        <v>45019.577928240738</v>
+        <v>45019.577928240702</v>
       </c>
       <c r="D974" t="s">
         <v>30</v>
@@ -43692,7 +43726,7 @@
         <v>36</v>
       </c>
       <c r="B975" s="1">
-        <v>45019.578599537039</v>
+        <v>45019.578599537002</v>
       </c>
       <c r="D975" t="s">
         <v>64</v>
@@ -43727,7 +43761,7 @@
         <v>36</v>
       </c>
       <c r="B976" s="1">
-        <v>45019.578969907408</v>
+        <v>45019.578969907401</v>
       </c>
       <c r="D976" t="s">
         <v>37</v>
@@ -43762,7 +43796,7 @@
         <v>36</v>
       </c>
       <c r="B977" s="1">
-        <v>45019.579270833332</v>
+        <v>45019.579270833303</v>
       </c>
       <c r="D977" t="s">
         <v>37</v>
@@ -43797,7 +43831,7 @@
         <v>36</v>
       </c>
       <c r="B978" s="1">
-        <v>45019.579317129632</v>
+        <v>45019.579317129603</v>
       </c>
       <c r="D978" t="s">
         <v>30</v>
@@ -43832,7 +43866,7 @@
         <v>36</v>
       </c>
       <c r="B979" s="1">
-        <v>45019.580023148148</v>
+        <v>45019.580023148199</v>
       </c>
       <c r="D979" t="s">
         <v>64</v>
@@ -43867,7 +43901,7 @@
         <v>36</v>
       </c>
       <c r="B980" s="1">
-        <v>45019.580092592587</v>
+        <v>45019.580092592601</v>
       </c>
       <c r="D980" t="s">
         <v>30</v>
@@ -43902,7 +43936,7 @@
         <v>36</v>
       </c>
       <c r="B981" s="1">
-        <v>45019.580497685187</v>
+        <v>45019.580497685201</v>
       </c>
       <c r="D981" t="s">
         <v>64</v>
@@ -43937,7 +43971,7 @@
         <v>36</v>
       </c>
       <c r="B982" s="1">
-        <v>45019.580787037034</v>
+        <v>45019.580787036997</v>
       </c>
       <c r="D982" t="s">
         <v>30</v>
@@ -43972,7 +44006,7 @@
         <v>36</v>
       </c>
       <c r="B983" s="1">
-        <v>45019.581145833326</v>
+        <v>45019.581145833297</v>
       </c>
       <c r="D983" t="s">
         <v>64</v>
@@ -44007,7 +44041,7 @@
         <v>36</v>
       </c>
       <c r="B984" s="1">
-        <v>45019.58153935185</v>
+        <v>45019.581539351901</v>
       </c>
       <c r="D984" t="s">
         <v>37</v>
@@ -44077,7 +44111,7 @@
         <v>36</v>
       </c>
       <c r="B986" s="1">
-        <v>45019.582303240742</v>
+        <v>45019.582303240699</v>
       </c>
       <c r="D986" t="s">
         <v>30</v>
@@ -44147,7 +44181,7 @@
         <v>36</v>
       </c>
       <c r="B988" s="1">
-        <v>45019.582511574074</v>
+        <v>45019.582511574103</v>
       </c>
       <c r="D988" t="s">
         <v>30</v>
@@ -44182,7 +44216,7 @@
         <v>36</v>
       </c>
       <c r="B989" s="1">
-        <v>45019.582881944443</v>
+        <v>45019.5828819444</v>
       </c>
       <c r="D989" t="s">
         <v>30</v>
@@ -44252,7 +44286,7 @@
         <v>36</v>
       </c>
       <c r="B991" s="1">
-        <v>45019.583368055559</v>
+        <v>45019.583368055602</v>
       </c>
       <c r="D991" t="s">
         <v>37</v>
@@ -44287,7 +44321,7 @@
         <v>36</v>
       </c>
       <c r="B992" s="1">
-        <v>45019.583726851852</v>
+        <v>45019.583726851903</v>
       </c>
       <c r="D992" t="s">
         <v>64</v>
@@ -44322,7 +44356,7 @@
         <v>36</v>
       </c>
       <c r="B993" s="1">
-        <v>45019.584027777782</v>
+        <v>45019.584027777797</v>
       </c>
       <c r="D993" t="s">
         <v>30</v>
@@ -44357,7 +44391,7 @@
         <v>36</v>
       </c>
       <c r="B994" s="1">
-        <v>45019.584097222221</v>
+        <v>45019.584097222199</v>
       </c>
       <c r="D994" t="s">
         <v>30</v>
@@ -44392,7 +44426,7 @@
         <v>36</v>
       </c>
       <c r="B995" s="1">
-        <v>45019.584363425929</v>
+        <v>45019.5843634259</v>
       </c>
       <c r="D995" t="s">
         <v>30</v>
@@ -44427,7 +44461,7 @@
         <v>36</v>
       </c>
       <c r="B996" s="1">
-        <v>45019.584432870368</v>
+        <v>45019.584432870397</v>
       </c>
       <c r="D996" t="s">
         <v>30</v>
@@ -44462,7 +44496,7 @@
         <v>36</v>
       </c>
       <c r="B997" s="1">
-        <v>45019.584849537037</v>
+        <v>45019.584849537001</v>
       </c>
       <c r="D997" t="s">
         <v>64</v>
@@ -44497,7 +44531,7 @@
         <v>36</v>
       </c>
       <c r="B998" s="1">
-        <v>45019.585497685177</v>
+        <v>45019.585497685199</v>
       </c>
       <c r="D998" t="s">
         <v>30</v>
@@ -44602,7 +44636,7 @@
         <v>36</v>
       </c>
       <c r="B1001" s="1">
-        <v>45019.587083333332</v>
+        <v>45019.587083333303</v>
       </c>
       <c r="D1001" t="s">
         <v>64</v>
@@ -44637,7 +44671,7 @@
         <v>36</v>
       </c>
       <c r="B1002" s="1">
-        <v>45019.59002314815</v>
+        <v>45019.590023148201</v>
       </c>
       <c r="D1002" t="s">
         <v>30</v>
@@ -44672,7 +44706,7 @@
         <v>36</v>
       </c>
       <c r="B1003" s="1">
-        <v>45019.591539351852</v>
+        <v>45019.591539351903</v>
       </c>
       <c r="D1003" t="s">
         <v>30</v>
@@ -44707,7 +44741,7 @@
         <v>36</v>
       </c>
       <c r="B1004" s="1">
-        <v>45019.591770833344</v>
+        <v>45019.5917708333</v>
       </c>
       <c r="D1004" t="s">
         <v>37</v>
@@ -44742,7 +44776,7 @@
         <v>36</v>
       </c>
       <c r="B1005" s="1">
-        <v>45019.592418981483</v>
+        <v>45019.592418981498</v>
       </c>
       <c r="D1005" t="s">
         <v>37</v>
@@ -44812,7 +44846,7 @@
         <v>36</v>
       </c>
       <c r="B1007" s="1">
-        <v>45019.593368055554</v>
+        <v>45019.593368055597</v>
       </c>
       <c r="D1007" t="s">
         <v>30</v>
@@ -44847,7 +44881,7 @@
         <v>36</v>
       </c>
       <c r="B1008" s="1">
-        <v>45019.594178240739</v>
+        <v>45019.594178240703</v>
       </c>
       <c r="D1008" t="s">
         <v>37</v>
@@ -44882,7 +44916,7 @@
         <v>36</v>
       </c>
       <c r="B1009" s="1">
-        <v>45019.594733796293</v>
+        <v>45019.594733796301</v>
       </c>
       <c r="D1009" t="s">
         <v>30</v>
@@ -44917,7 +44951,7 @@
         <v>36</v>
       </c>
       <c r="B1010" s="1">
-        <v>45019.595046296286</v>
+        <v>45019.595046296301</v>
       </c>
       <c r="D1010" t="s">
         <v>37</v>
@@ -44952,7 +44986,7 @@
         <v>36</v>
       </c>
       <c r="B1011" s="1">
-        <v>45019.595567129632</v>
+        <v>45019.595567129603</v>
       </c>
       <c r="D1011" t="s">
         <v>30</v>
@@ -44987,7 +45021,7 @@
         <v>36</v>
       </c>
       <c r="B1012" s="1">
-        <v>45019.596319444441</v>
+        <v>45019.596319444398</v>
       </c>
       <c r="D1012" t="s">
         <v>30</v>
@@ -45022,7 +45056,7 @@
         <v>36</v>
       </c>
       <c r="B1013" s="1">
-        <v>45019.59642361111</v>
+        <v>45019.596423611103</v>
       </c>
       <c r="D1013" t="s">
         <v>30</v>
@@ -45057,7 +45091,7 @@
         <v>36</v>
       </c>
       <c r="B1014" s="1">
-        <v>45019.596701388888</v>
+        <v>45019.596701388902</v>
       </c>
       <c r="D1014" t="s">
         <v>37</v>
@@ -45092,7 +45126,7 @@
         <v>36</v>
       </c>
       <c r="B1015" s="1">
-        <v>45019.597071759257</v>
+        <v>45019.597071759301</v>
       </c>
       <c r="D1015" t="s">
         <v>30</v>
@@ -45127,7 +45161,7 @@
         <v>36</v>
       </c>
       <c r="B1016" s="1">
-        <v>45019.597534722219</v>
+        <v>45019.597534722197</v>
       </c>
       <c r="D1016" t="s">
         <v>37</v>
@@ -45162,7 +45196,7 @@
         <v>36</v>
       </c>
       <c r="B1017" s="1">
-        <v>45019.59778935185</v>
+        <v>45019.597789351901</v>
       </c>
       <c r="D1017" t="s">
         <v>37</v>
@@ -45197,7 +45231,7 @@
         <v>36</v>
       </c>
       <c r="B1018" s="1">
-        <v>45019.599583333344</v>
+        <v>45019.5995833333</v>
       </c>
       <c r="D1018" t="s">
         <v>30</v>
@@ -45232,7 +45266,7 @@
         <v>38</v>
       </c>
       <c r="B1019" s="1">
-        <v>45019.601585648154</v>
+        <v>45019.601585648197</v>
       </c>
       <c r="C1019">
         <v>63</v>
@@ -45285,7 +45319,7 @@
         <v>38</v>
       </c>
       <c r="B1020" s="1">
-        <v>45019.604791666658</v>
+        <v>45019.604791666701</v>
       </c>
       <c r="C1020">
         <v>303</v>
@@ -45374,7 +45408,7 @@
         <v>36</v>
       </c>
       <c r="B1021" s="1">
-        <v>45019.638159722221</v>
+        <v>45019.638159722199</v>
       </c>
       <c r="D1021" t="s">
         <v>65</v>
@@ -45409,7 +45443,7 @@
         <v>36</v>
       </c>
       <c r="B1022" s="1">
-        <v>45019.649456018517</v>
+        <v>45019.649456018502</v>
       </c>
       <c r="D1022" t="s">
         <v>39</v>
@@ -45465,7 +45499,7 @@
         <v>38</v>
       </c>
       <c r="B1023" s="1">
-        <v>45019.662407407413</v>
+        <v>45019.662407407399</v>
       </c>
       <c r="C1023">
         <v>117</v>
@@ -45554,7 +45588,7 @@
         <v>38</v>
       </c>
       <c r="B1024" s="1">
-        <v>45019.664780092593</v>
+        <v>45019.6647800926</v>
       </c>
       <c r="C1024">
         <v>248</v>
@@ -45607,7 +45641,7 @@
         <v>36</v>
       </c>
       <c r="B1025" s="1">
-        <v>45019.665196759262</v>
+        <v>45019.665196759299</v>
       </c>
       <c r="D1025" t="s">
         <v>30</v>
@@ -45677,7 +45711,7 @@
         <v>36</v>
       </c>
       <c r="B1027" s="1">
-        <v>45019.667581018519</v>
+        <v>45019.667581018497</v>
       </c>
       <c r="D1027" t="s">
         <v>65</v>
@@ -45747,7 +45781,7 @@
         <v>36</v>
       </c>
       <c r="B1029" s="1">
-        <v>45019.668842592589</v>
+        <v>45019.668842592597</v>
       </c>
       <c r="D1029" t="s">
         <v>30</v>
@@ -45782,7 +45816,7 @@
         <v>38</v>
       </c>
       <c r="B1030" s="1">
-        <v>45019.668854166674</v>
+        <v>45019.668854166703</v>
       </c>
       <c r="C1030">
         <v>401</v>
@@ -45835,7 +45869,7 @@
         <v>36</v>
       </c>
       <c r="B1031" s="1">
-        <v>45019.669560185182</v>
+        <v>45019.669560185197</v>
       </c>
       <c r="D1031" t="s">
         <v>30</v>
@@ -45905,7 +45939,7 @@
         <v>36</v>
       </c>
       <c r="B1033" s="1">
-        <v>45019.670416666668</v>
+        <v>45019.670416666697</v>
       </c>
       <c r="D1033" t="s">
         <v>30</v>
@@ -45940,7 +45974,7 @@
         <v>36</v>
       </c>
       <c r="B1034" s="1">
-        <v>45019.687928240739</v>
+        <v>45019.687928240703</v>
       </c>
       <c r="D1034" t="s">
         <v>64</v>
@@ -45975,7 +46009,7 @@
         <v>36</v>
       </c>
       <c r="B1035" s="1">
-        <v>45019.688935185193</v>
+        <v>45019.688935185201</v>
       </c>
       <c r="D1035" t="s">
         <v>64</v>
@@ -46010,7 +46044,7 @@
         <v>36</v>
       </c>
       <c r="B1036" s="1">
-        <v>45019.689189814817</v>
+        <v>45019.689189814802</v>
       </c>
       <c r="D1036" t="s">
         <v>30</v>
@@ -46066,7 +46100,7 @@
         <v>36</v>
       </c>
       <c r="B1037" s="1">
-        <v>45019.689247685194</v>
+        <v>45019.689247685201</v>
       </c>
       <c r="D1037" t="s">
         <v>30</v>
@@ -46101,7 +46135,7 @@
         <v>36</v>
       </c>
       <c r="B1038" s="1">
-        <v>45019.690057870372</v>
+        <v>45019.690057870401</v>
       </c>
       <c r="D1038" t="s">
         <v>64</v>
@@ -46136,7 +46170,7 @@
         <v>36</v>
       </c>
       <c r="B1039" s="1">
-        <v>45019.690844907411</v>
+        <v>45019.690844907404</v>
       </c>
       <c r="D1039" t="s">
         <v>30</v>
@@ -46171,7 +46205,7 @@
         <v>36</v>
       </c>
       <c r="B1040" s="1">
-        <v>45019.691168981481</v>
+        <v>45019.691168981502</v>
       </c>
       <c r="D1040" t="s">
         <v>64</v>
@@ -46241,7 +46275,7 @@
         <v>36</v>
       </c>
       <c r="B1042" s="1">
-        <v>45019.692175925928</v>
+        <v>45019.692175925898</v>
       </c>
       <c r="D1042" t="s">
         <v>30</v>
@@ -46381,7 +46415,7 @@
         <v>36</v>
       </c>
       <c r="B1046" s="1">
-        <v>45019.692893518521</v>
+        <v>45019.692893518499</v>
       </c>
       <c r="D1046" t="s">
         <v>64</v>
@@ -46416,7 +46450,7 @@
         <v>36</v>
       </c>
       <c r="B1047" s="1">
-        <v>45019.693078703713</v>
+        <v>45019.693078703698</v>
       </c>
       <c r="D1047" t="s">
         <v>64</v>
@@ -46451,7 +46485,7 @@
         <v>36</v>
       </c>
       <c r="B1048" s="1">
-        <v>45019.693310185183</v>
+        <v>45019.693310185197</v>
       </c>
       <c r="D1048" t="s">
         <v>30</v>
@@ -46486,7 +46520,7 @@
         <v>36</v>
       </c>
       <c r="B1049" s="1">
-        <v>45019.693680555552</v>
+        <v>45019.693680555603</v>
       </c>
       <c r="D1049" t="s">
         <v>64</v>
@@ -46521,7 +46555,7 @@
         <v>36</v>
       </c>
       <c r="B1050" s="1">
-        <v>45019.693761574083</v>
+        <v>45019.693761574097</v>
       </c>
       <c r="D1050" t="s">
         <v>30</v>
@@ -46556,7 +46590,7 @@
         <v>36</v>
       </c>
       <c r="B1051" s="1">
-        <v>45019.694305555553</v>
+        <v>45019.694305555597</v>
       </c>
       <c r="D1051" t="s">
         <v>30</v>
@@ -46591,7 +46625,7 @@
         <v>36</v>
       </c>
       <c r="B1052" s="1">
-        <v>45019.694618055553</v>
+        <v>45019.694618055597</v>
       </c>
       <c r="D1052" t="s">
         <v>64</v>
@@ -46626,7 +46660,7 @@
         <v>36</v>
       </c>
       <c r="B1053" s="1">
-        <v>45019.695034722223</v>
+        <v>45019.695034722201</v>
       </c>
       <c r="D1053" t="s">
         <v>64</v>
@@ -46696,7 +46730,7 @@
         <v>36</v>
       </c>
       <c r="B1055" s="1">
-        <v>45019.695092592592</v>
+        <v>45019.695092592599</v>
       </c>
       <c r="D1055" t="s">
         <v>30</v>
@@ -46731,7 +46765,7 @@
         <v>36</v>
       </c>
       <c r="B1056" s="1">
-        <v>45019.695567129631</v>
+        <v>45019.695567129602</v>
       </c>
       <c r="D1056" t="s">
         <v>64</v>
@@ -46766,7 +46800,7 @@
         <v>36</v>
       </c>
       <c r="B1057" s="1">
-        <v>45019.695775462962</v>
+        <v>45019.695775462998</v>
       </c>
       <c r="D1057" t="s">
         <v>30</v>
@@ -46801,7 +46835,7 @@
         <v>36</v>
       </c>
       <c r="B1058" s="1">
-        <v>45019.695914351847</v>
+        <v>45019.695914351898</v>
       </c>
       <c r="D1058" t="s">
         <v>64</v>
@@ -46836,7 +46870,7 @@
         <v>36</v>
       </c>
       <c r="B1059" s="1">
-        <v>45019.696099537039</v>
+        <v>45019.696099537003</v>
       </c>
       <c r="D1059" t="s">
         <v>30</v>
@@ -46871,7 +46905,7 @@
         <v>36</v>
       </c>
       <c r="B1060" s="1">
-        <v>45019.696226851847</v>
+        <v>45019.696226851898</v>
       </c>
       <c r="D1060" t="s">
         <v>30</v>
@@ -46906,7 +46940,7 @@
         <v>36</v>
       </c>
       <c r="B1061" s="1">
-        <v>45019.696620370371</v>
+        <v>45019.6966203704</v>
       </c>
       <c r="D1061" t="s">
         <v>30</v>
@@ -46941,7 +46975,7 @@
         <v>36</v>
       </c>
       <c r="B1062" s="1">
-        <v>45019.696747685193</v>
+        <v>45019.696747685201</v>
       </c>
       <c r="D1062" t="s">
         <v>30</v>
@@ -46976,7 +47010,7 @@
         <v>36</v>
       </c>
       <c r="B1063" s="1">
-        <v>45019.696979166663</v>
+        <v>45019.6969791667</v>
       </c>
       <c r="D1063" t="s">
         <v>64</v>
@@ -47046,7 +47080,7 @@
         <v>36</v>
       </c>
       <c r="B1065" s="1">
-        <v>45019.699791666673</v>
+        <v>45019.699791666702</v>
       </c>
       <c r="D1065" t="s">
         <v>30</v>
@@ -47081,7 +47115,7 @@
         <v>36</v>
       </c>
       <c r="B1066" s="1">
-        <v>45019.722604166673</v>
+        <v>45019.722604166702</v>
       </c>
       <c r="D1066" t="s">
         <v>30</v>
@@ -47116,7 +47150,7 @@
         <v>36</v>
       </c>
       <c r="B1067" s="1">
-        <v>45019.723773148151</v>
+        <v>45019.723773148202</v>
       </c>
       <c r="D1067" t="s">
         <v>92</v>
@@ -47151,7 +47185,7 @@
         <v>36</v>
       </c>
       <c r="B1068" s="1">
-        <v>45019.724803240737</v>
+        <v>45019.724803240701</v>
       </c>
       <c r="D1068" t="s">
         <v>30</v>
@@ -47186,7 +47220,7 @@
         <v>36</v>
       </c>
       <c r="B1069" s="1">
-        <v>45019.725613425922</v>
+        <v>45019.725613425901</v>
       </c>
       <c r="D1069" t="s">
         <v>64</v>
@@ -47221,7 +47255,7 @@
         <v>36</v>
       </c>
       <c r="B1070" s="1">
-        <v>45019.725810185177</v>
+        <v>45019.725810185198</v>
       </c>
       <c r="D1070" t="s">
         <v>92</v>
@@ -47291,7 +47325,7 @@
         <v>36</v>
       </c>
       <c r="B1072" s="1">
-        <v>45019.726319444453</v>
+        <v>45019.726319444497</v>
       </c>
       <c r="D1072" t="s">
         <v>30</v>
@@ -47326,7 +47360,7 @@
         <v>36</v>
       </c>
       <c r="B1073" s="1">
-        <v>45019.726354166669</v>
+        <v>45019.726354166698</v>
       </c>
       <c r="D1073" t="s">
         <v>30</v>
@@ -47361,7 +47395,7 @@
         <v>36</v>
       </c>
       <c r="B1074" s="1">
-        <v>45019.726481481477</v>
+        <v>45019.726481481499</v>
       </c>
       <c r="D1074" t="s">
         <v>30</v>
@@ -47396,7 +47430,7 @@
         <v>36</v>
       </c>
       <c r="B1075" s="1">
-        <v>45019.726898148147</v>
+        <v>45019.726898148198</v>
       </c>
       <c r="D1075" t="s">
         <v>30</v>
@@ -47431,7 +47465,7 @@
         <v>36</v>
       </c>
       <c r="B1076" s="1">
-        <v>45019.727326388893</v>
+        <v>45019.7273263889</v>
       </c>
       <c r="D1076" t="s">
         <v>92</v>
@@ -47466,7 +47500,7 @@
         <v>36</v>
       </c>
       <c r="B1077" s="1">
-        <v>45019.727442129632</v>
+        <v>45019.727442129602</v>
       </c>
       <c r="D1077" t="s">
         <v>30</v>
@@ -47501,7 +47535,7 @@
         <v>36</v>
       </c>
       <c r="B1078" s="1">
-        <v>45019.72760416667</v>
+        <v>45019.727604166699</v>
       </c>
       <c r="D1078" t="s">
         <v>30</v>
@@ -47536,7 +47570,7 @@
         <v>36</v>
       </c>
       <c r="B1079" s="1">
-        <v>45019.727881944447</v>
+        <v>45019.727881944498</v>
       </c>
       <c r="D1079" t="s">
         <v>64</v>
@@ -47571,7 +47605,7 @@
         <v>36</v>
       </c>
       <c r="B1080" s="1">
-        <v>45019.728263888886</v>
+        <v>45019.728263888901</v>
       </c>
       <c r="D1080" t="s">
         <v>30</v>
@@ -47606,7 +47640,7 @@
         <v>36</v>
       </c>
       <c r="B1081" s="1">
-        <v>45019.728321759263</v>
+        <v>45019.728321759299</v>
       </c>
       <c r="D1081" t="s">
         <v>30</v>
@@ -47641,7 +47675,7 @@
         <v>36</v>
       </c>
       <c r="B1082" s="1">
-        <v>45019.728668981479</v>
+        <v>45019.728668981501</v>
       </c>
       <c r="D1082" t="s">
         <v>64</v>
@@ -47676,7 +47710,7 @@
         <v>36</v>
       </c>
       <c r="B1083" s="1">
-        <v>45019.728738425933</v>
+        <v>45019.728738425903</v>
       </c>
       <c r="D1083" t="s">
         <v>64</v>
@@ -47711,7 +47745,7 @@
         <v>36</v>
       </c>
       <c r="B1084" s="1">
-        <v>45019.728946759264</v>
+        <v>45019.7289467593</v>
       </c>
       <c r="D1084" t="s">
         <v>92</v>
@@ -47746,7 +47780,7 @@
         <v>36</v>
       </c>
       <c r="B1085" s="1">
-        <v>45019.729398148149</v>
+        <v>45019.7293981482</v>
       </c>
       <c r="D1085" t="s">
         <v>64</v>
@@ -47781,7 +47815,7 @@
         <v>36</v>
       </c>
       <c r="B1086" s="1">
-        <v>45019.729814814818</v>
+        <v>45019.729814814797</v>
       </c>
       <c r="D1086" t="s">
         <v>30</v>
@@ -47816,7 +47850,7 @@
         <v>36</v>
       </c>
       <c r="B1087" s="1">
-        <v>45019.730462962973</v>
+        <v>45019.730462963002</v>
       </c>
       <c r="D1087" t="s">
         <v>64</v>
@@ -47851,7 +47885,7 @@
         <v>36</v>
       </c>
       <c r="B1088" s="1">
-        <v>45019.73096064815</v>
+        <v>45019.730960648201</v>
       </c>
       <c r="D1088" t="s">
         <v>30</v>
@@ -47886,7 +47920,7 @@
         <v>36</v>
       </c>
       <c r="B1089" s="1">
-        <v>45019.731412037043</v>
+        <v>45019.731412036999</v>
       </c>
       <c r="D1089" t="s">
         <v>64</v>
@@ -47921,7 +47955,7 @@
         <v>36</v>
       </c>
       <c r="B1090" s="1">
-        <v>45019.734918981478</v>
+        <v>45019.7349189815</v>
       </c>
       <c r="D1090" t="s">
         <v>83</v>
@@ -47977,7 +48011,7 @@
         <v>36</v>
       </c>
       <c r="B1091" s="1">
-        <v>45019.748495370368</v>
+        <v>45019.748495370397</v>
       </c>
       <c r="D1091" t="s">
         <v>30</v>
@@ -48012,7 +48046,7 @@
         <v>36</v>
       </c>
       <c r="B1092" s="1">
-        <v>45019.767754629633</v>
+        <v>45019.767754629604</v>
       </c>
       <c r="D1092" t="s">
         <v>30</v>
@@ -48100,7 +48134,7 @@
         <v>38</v>
       </c>
       <c r="B1094" s="1">
-        <v>45019.774270833332</v>
+        <v>45019.774270833303</v>
       </c>
       <c r="C1094">
         <v>523</v>
@@ -48189,7 +48223,7 @@
         <v>36</v>
       </c>
       <c r="B1095" s="1">
-        <v>45019.807476851849</v>
+        <v>45019.8074768519</v>
       </c>
       <c r="D1095" t="s">
         <v>63</v>
@@ -48224,7 +48258,7 @@
         <v>36</v>
       </c>
       <c r="B1096" s="1">
-        <v>45019.828194444453</v>
+        <v>45019.828194444497</v>
       </c>
       <c r="D1096" t="s">
         <v>30</v>
@@ -48259,7 +48293,7 @@
         <v>38</v>
       </c>
       <c r="B1097" s="1">
-        <v>45019.833055555559</v>
+        <v>45019.833055555602</v>
       </c>
       <c r="C1097">
         <v>238</v>
@@ -48312,7 +48346,7 @@
         <v>36</v>
       </c>
       <c r="B1098" s="1">
-        <v>45019.836782407408</v>
+        <v>45019.836782407401</v>
       </c>
       <c r="D1098" t="s">
         <v>30</v>
@@ -48347,7 +48381,7 @@
         <v>36</v>
       </c>
       <c r="B1099" s="1">
-        <v>45019.837476851862</v>
+        <v>45019.837476851899</v>
       </c>
       <c r="D1099" t="s">
         <v>30</v>
@@ -48417,7 +48451,7 @@
         <v>36</v>
       </c>
       <c r="B1101" s="1">
-        <v>45019.839166666658</v>
+        <v>45019.839166666701</v>
       </c>
       <c r="D1101" t="s">
         <v>63</v>
@@ -48452,7 +48486,7 @@
         <v>36</v>
       </c>
       <c r="B1102" s="1">
-        <v>45019.839849537027</v>
+        <v>45019.839849536998</v>
       </c>
       <c r="D1102" t="s">
         <v>30</v>
@@ -48522,7 +48556,7 @@
         <v>36</v>
       </c>
       <c r="B1104" s="1">
-        <v>45019.84097222222</v>
+        <v>45019.840972222199</v>
       </c>
       <c r="D1104" t="s">
         <v>30</v>
@@ -48557,7 +48591,7 @@
         <v>36</v>
       </c>
       <c r="B1105" s="1">
-        <v>45019.841493055559</v>
+        <v>45019.841493055603</v>
       </c>
       <c r="D1105" t="s">
         <v>63</v>
@@ -48592,7 +48626,7 @@
         <v>36</v>
       </c>
       <c r="B1106" s="1">
-        <v>45019.841527777768</v>
+        <v>45019.841527777797</v>
       </c>
       <c r="D1106" t="s">
         <v>92</v>
@@ -48697,7 +48731,7 @@
         <v>36</v>
       </c>
       <c r="B1109" s="1">
-        <v>45019.842835648153</v>
+        <v>45019.842835648204</v>
       </c>
       <c r="D1109" t="s">
         <v>63</v>
@@ -48732,7 +48766,7 @@
         <v>36</v>
       </c>
       <c r="B1110" s="1">
-        <v>45019.843530092592</v>
+        <v>45019.843530092599</v>
       </c>
       <c r="D1110" t="s">
         <v>63</v>
@@ -48767,7 +48801,7 @@
         <v>36</v>
       </c>
       <c r="B1111" s="1">
-        <v>45019.844166666669</v>
+        <v>45019.844166666699</v>
       </c>
       <c r="D1111" t="s">
         <v>30</v>
@@ -48802,7 +48836,7 @@
         <v>36</v>
       </c>
       <c r="B1112" s="1">
-        <v>45019.844884259262</v>
+        <v>45019.844884259299</v>
       </c>
       <c r="D1112" t="s">
         <v>30</v>
@@ -48837,7 +48871,7 @@
         <v>36</v>
       </c>
       <c r="B1113" s="1">
-        <v>45019.845277777778</v>
+        <v>45019.8452777778</v>
       </c>
       <c r="D1113" t="s">
         <v>63</v>
@@ -48872,7 +48906,7 @@
         <v>38</v>
       </c>
       <c r="B1114" s="1">
-        <v>45019.849780092591</v>
+        <v>45019.849780092598</v>
       </c>
       <c r="C1114">
         <v>329</v>
@@ -48925,7 +48959,7 @@
         <v>36</v>
       </c>
       <c r="B1115" s="1">
-        <v>45019.861319444448</v>
+        <v>45019.861319444499</v>
       </c>
       <c r="D1115" t="s">
         <v>63</v>
@@ -48995,7 +49029,7 @@
         <v>36</v>
       </c>
       <c r="B1117" s="1">
-        <v>45019.863240740742</v>
+        <v>45019.863240740699</v>
       </c>
       <c r="D1117" t="s">
         <v>30</v>
@@ -49030,7 +49064,7 @@
         <v>36</v>
       </c>
       <c r="B1118" s="1">
-        <v>45019.863842592589</v>
+        <v>45019.863842592596</v>
       </c>
       <c r="D1118" t="s">
         <v>30</v>
@@ -49065,7 +49099,7 @@
         <v>36</v>
       </c>
       <c r="B1119" s="1">
-        <v>45019.863935185182</v>
+        <v>45019.863935185203</v>
       </c>
       <c r="D1119" t="s">
         <v>63</v>
@@ -49100,7 +49134,7 @@
         <v>36</v>
       </c>
       <c r="B1120" s="1">
-        <v>45019.864004629628</v>
+        <v>45019.864004629599</v>
       </c>
       <c r="D1120" t="s">
         <v>30</v>
@@ -49135,7 +49169,7 @@
         <v>36</v>
       </c>
       <c r="B1121" s="1">
-        <v>45019.864803240736</v>
+        <v>45019.8648032407</v>
       </c>
       <c r="D1121" t="s">
         <v>30</v>
@@ -49170,7 +49204,7 @@
         <v>36</v>
       </c>
       <c r="B1122" s="1">
-        <v>45019.865115740737</v>
+        <v>45019.8651157407</v>
       </c>
       <c r="D1122" t="s">
         <v>63</v>
@@ -49205,7 +49239,7 @@
         <v>36</v>
       </c>
       <c r="B1123" s="1">
-        <v>45019.865706018521</v>
+        <v>45019.8657060185</v>
       </c>
       <c r="D1123" t="s">
         <v>63</v>
@@ -49240,7 +49274,7 @@
         <v>36</v>
       </c>
       <c r="B1124" s="1">
-        <v>45019.866168981483</v>
+        <v>45019.866168981498</v>
       </c>
       <c r="D1124" t="s">
         <v>92</v>
@@ -49275,7 +49309,7 @@
         <v>36</v>
       </c>
       <c r="B1125" s="1">
-        <v>45019.86650462963</v>
+        <v>45019.866504629601</v>
       </c>
       <c r="D1125" t="s">
         <v>63</v>
@@ -49310,7 +49344,7 @@
         <v>36</v>
       </c>
       <c r="B1126" s="1">
-        <v>45019.866747685177</v>
+        <v>45019.866747685199</v>
       </c>
       <c r="D1126" t="s">
         <v>30</v>
@@ -49345,7 +49379,7 @@
         <v>36</v>
       </c>
       <c r="B1127" s="1">
-        <v>45019.867361111108</v>
+        <v>45019.867361111101</v>
       </c>
       <c r="D1127" t="s">
         <v>63</v>
@@ -49380,7 +49414,7 @@
         <v>36</v>
       </c>
       <c r="B1128" s="1">
-        <v>45019.867685185192</v>
+        <v>45019.8676851852</v>
       </c>
       <c r="D1128" t="s">
         <v>30</v>
@@ -49415,7 +49449,7 @@
         <v>36</v>
       </c>
       <c r="B1129" s="1">
-        <v>45019.867974537039</v>
+        <v>45019.867974537003</v>
       </c>
       <c r="D1129" t="s">
         <v>30</v>
@@ -49450,7 +49484,7 @@
         <v>36</v>
       </c>
       <c r="B1130" s="1">
-        <v>45019.868680555563</v>
+        <v>45019.868680555599</v>
       </c>
       <c r="D1130" t="s">
         <v>30</v>
@@ -49485,7 +49519,7 @@
         <v>36</v>
       </c>
       <c r="B1131" s="1">
-        <v>45019.869525462957</v>
+        <v>45019.869525463</v>
       </c>
       <c r="D1131" t="s">
         <v>63</v>
@@ -49520,7 +49554,7 @@
         <v>36</v>
       </c>
       <c r="B1132" s="1">
-        <v>45019.869583333333</v>
+        <v>45019.869583333297</v>
       </c>
       <c r="D1132" t="s">
         <v>63</v>
@@ -49555,7 +49589,7 @@
         <v>36</v>
       </c>
       <c r="B1133" s="1">
-        <v>45019.870254629634</v>
+        <v>45019.870254629597</v>
       </c>
       <c r="D1133" t="s">
         <v>30</v>
@@ -49590,7 +49624,7 @@
         <v>36</v>
       </c>
       <c r="B1134" s="1">
-        <v>45019.870972222219</v>
+        <v>45019.870972222197</v>
       </c>
       <c r="D1134" t="s">
         <v>30</v>
@@ -49678,7 +49712,7 @@
         <v>36</v>
       </c>
       <c r="B1136" s="1">
-        <v>45019.909861111111</v>
+        <v>45019.909861111097</v>
       </c>
       <c r="D1136" t="s">
         <v>92</v>
@@ -49713,7 +49747,7 @@
         <v>36</v>
       </c>
       <c r="B1137" s="1">
-        <v>45019.911122685182</v>
+        <v>45019.911122685196</v>
       </c>
       <c r="D1137" t="s">
         <v>30</v>
@@ -49748,7 +49782,7 @@
         <v>36</v>
       </c>
       <c r="B1138" s="1">
-        <v>45019.911365740743</v>
+        <v>45019.9113657407</v>
       </c>
       <c r="D1138" t="s">
         <v>30</v>
@@ -49818,7 +49852,7 @@
         <v>36</v>
       </c>
       <c r="B1140" s="1">
-        <v>45019.912731481483</v>
+        <v>45019.912731481498</v>
       </c>
       <c r="D1140" t="s">
         <v>30</v>
@@ -49853,7 +49887,7 @@
         <v>36</v>
       </c>
       <c r="B1141" s="1">
-        <v>45019.912824074083</v>
+        <v>45019.912824074097</v>
       </c>
       <c r="D1141" t="s">
         <v>30</v>
@@ -49888,7 +49922,7 @@
         <v>36</v>
       </c>
       <c r="B1142" s="1">
-        <v>45019.913726851853</v>
+        <v>45019.913726851897</v>
       </c>
       <c r="D1142" t="s">
         <v>92</v>
@@ -49923,7 +49957,7 @@
         <v>36</v>
       </c>
       <c r="B1143" s="1">
-        <v>45019.914317129631</v>
+        <v>45019.914317129602</v>
       </c>
       <c r="D1143" t="s">
         <v>92</v>
@@ -49958,7 +49992,7 @@
         <v>36</v>
       </c>
       <c r="B1144" s="1">
-        <v>45019.914884259262</v>
+        <v>45019.914884259299</v>
       </c>
       <c r="D1144" t="s">
         <v>30</v>
@@ -50028,7 +50062,7 @@
         <v>36</v>
       </c>
       <c r="B1146" s="1">
-        <v>45019.916504629633</v>
+        <v>45019.916504629597</v>
       </c>
       <c r="D1146" t="s">
         <v>30</v>
@@ -50063,7 +50097,7 @@
         <v>36</v>
       </c>
       <c r="B1147" s="1">
-        <v>45019.917013888888</v>
+        <v>45019.917013888902</v>
       </c>
       <c r="D1147" t="s">
         <v>92</v>
@@ -50098,7 +50132,7 @@
         <v>36</v>
       </c>
       <c r="B1148" s="1">
-        <v>45019.917199074072</v>
+        <v>45019.917199074102</v>
       </c>
       <c r="D1148" t="s">
         <v>92</v>
@@ -50168,7 +50202,7 @@
         <v>36</v>
       </c>
       <c r="B1150" s="1">
-        <v>45019.917604166672</v>
+        <v>45019.917604166701</v>
       </c>
       <c r="D1150" t="s">
         <v>39</v>
@@ -50224,7 +50258,7 @@
         <v>36</v>
       </c>
       <c r="B1151" s="1">
-        <v>45019.918541666673</v>
+        <v>45019.918541666702</v>
       </c>
       <c r="D1151" t="s">
         <v>30</v>
@@ -50280,7 +50314,7 @@
         <v>36</v>
       </c>
       <c r="B1152" s="1">
-        <v>45019.919178240743</v>
+        <v>45019.9191782407</v>
       </c>
       <c r="D1152" t="s">
         <v>30</v>
@@ -50336,7 +50370,7 @@
         <v>36</v>
       </c>
       <c r="B1153" s="1">
-        <v>45019.919675925928</v>
+        <v>45019.919675925899</v>
       </c>
       <c r="D1153" t="s">
         <v>39</v>
@@ -50392,7 +50426,7 @@
         <v>36</v>
       </c>
       <c r="B1154" s="1">
-        <v>45019.92019675926</v>
+        <v>45019.920196759304</v>
       </c>
       <c r="D1154" t="s">
         <v>30</v>
@@ -50448,7 +50482,7 @@
         <v>36</v>
       </c>
       <c r="B1155" s="1">
-        <v>45019.920439814807</v>
+        <v>45019.920439814799</v>
       </c>
       <c r="D1155" t="s">
         <v>30</v>
@@ -50499,7 +50533,9 @@
         <v>35</v>
       </c>
     </row>
+    <row r="1156" spans="1:24" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>